--- a/History/FR/history_4.xlsx
+++ b/History/FR/history_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADC278-EAAB-4795-806C-98F302DD0B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9DE39-3A56-47B2-9FCF-60E63E2A32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D869"/>
     </sheetView>
   </sheetViews>
@@ -540,8 +540,8 @@
       <c r="C2" s="2">
         <v>22.62</v>
       </c>
-      <c r="D2">
-        <v>3.9375700000000002E-10</v>
+      <c r="D2" s="1">
+        <v>1.625921E-9</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="1">
@@ -564,8 +564,8 @@
       <c r="C3" s="2">
         <v>22.62</v>
       </c>
-      <c r="D3">
-        <v>3.9385200000000001E-10</v>
+      <c r="D3" s="1">
+        <v>1.862087E-9</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1">
@@ -588,8 +588,8 @@
       <c r="C4" s="2">
         <v>22.62</v>
       </c>
-      <c r="D4">
-        <v>3.9422299999999998E-10</v>
+      <c r="D4" s="1">
+        <v>8.36566E-10</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="1">
@@ -612,8 +612,8 @@
       <c r="C5" s="2">
         <v>22.62</v>
       </c>
-      <c r="D5">
-        <v>3.9425200000000003E-10</v>
+      <c r="D5" s="1">
+        <v>1.7080480000000001E-9</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="1">
@@ -636,8 +636,8 @@
       <c r="C6" s="2">
         <v>22.62</v>
       </c>
-      <c r="D6">
-        <v>3.9398000000000002E-10</v>
+      <c r="D6" s="1">
+        <v>9.9426000000000004E-10</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="1">
@@ -660,8 +660,8 @@
       <c r="C7" s="2">
         <v>22.62</v>
       </c>
-      <c r="D7">
-        <v>3.9439199999999999E-10</v>
+      <c r="D7" s="1">
+        <v>1.5399269999999999E-9</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="1">
@@ -684,8 +684,8 @@
       <c r="C8" s="2">
         <v>22.62</v>
       </c>
-      <c r="D8">
-        <v>3.9490899999999997E-10</v>
+      <c r="D8" s="1">
+        <v>9.3864199999999999E-10</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="1">
@@ -708,8 +708,8 @@
       <c r="C9" s="2">
         <v>22.62</v>
       </c>
-      <c r="D9">
-        <v>3.9555300000000002E-10</v>
+      <c r="D9" s="1">
+        <v>1.470618E-9</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1">
@@ -732,8 +732,8 @@
       <c r="C10" s="2">
         <v>22.62</v>
       </c>
-      <c r="D10">
-        <v>3.9620900000000001E-10</v>
+      <c r="D10" s="1">
+        <v>1.7579240000000001E-9</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="1">
@@ -756,8 +756,8 @@
       <c r="C11" s="2">
         <v>22.62</v>
       </c>
-      <c r="D11">
-        <v>3.9727600000000001E-10</v>
+      <c r="D11" s="1">
+        <v>1.575796E-9</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="1">
@@ -780,8 +780,8 @@
       <c r="C12" s="2">
         <v>22.62</v>
       </c>
-      <c r="D12">
-        <v>3.98299E-10</v>
+      <c r="D12" s="1">
+        <v>1.7080480000000001E-9</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="1">
@@ -804,8 +804,8 @@
       <c r="C13" s="2">
         <v>22.62</v>
       </c>
-      <c r="D13">
-        <v>3.9931200000000001E-10</v>
+      <c r="D13" s="1">
+        <v>1.557758E-9</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="1">
@@ -828,8 +828,8 @@
       <c r="C14" s="2">
         <v>22.62</v>
       </c>
-      <c r="D14">
-        <v>4.0015999999999999E-10</v>
+      <c r="D14" s="1">
+        <v>1.727826E-9</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="1">
@@ -852,8 +852,8 @@
       <c r="C15" s="2">
         <v>22.62</v>
       </c>
-      <c r="D15">
-        <v>4.0074E-10</v>
+      <c r="D15" s="1">
+        <v>1.5488169999999999E-9</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="1">
@@ -876,8 +876,8 @@
       <c r="C16" s="2">
         <v>22.62</v>
       </c>
-      <c r="D16">
-        <v>4.0160800000000001E-10</v>
+      <c r="D16" s="1">
+        <v>1.788546E-9</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="1">
@@ -900,8 +900,8 @@
       <c r="C17" s="2">
         <v>22.62</v>
       </c>
-      <c r="D17">
-        <v>4.0269900000000001E-10</v>
+      <c r="D17" s="1">
+        <v>1.5222990000000001E-9</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="1">
@@ -924,8 +924,8 @@
       <c r="C18" s="2">
         <v>22.62</v>
       </c>
-      <c r="D18">
-        <v>4.0407699999999999E-10</v>
+      <c r="D18" s="1">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="1">
@@ -948,8 +948,8 @@
       <c r="C19" s="2">
         <v>22.62</v>
       </c>
-      <c r="D19">
-        <v>4.0576800000000002E-10</v>
+      <c r="D19" s="1">
+        <v>1.4791080000000001E-9</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="1">
@@ -972,8 +972,8 @@
       <c r="C20" s="2">
         <v>22.62</v>
       </c>
-      <c r="D20">
-        <v>4.0760899999999999E-10</v>
+      <c r="D20" s="1">
+        <v>1.809256E-9</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="1">
@@ -996,8 +996,8 @@
       <c r="C21" s="2">
         <v>22.62</v>
       </c>
-      <c r="D21">
-        <v>4.0889000000000002E-10</v>
+      <c r="D21" s="1">
+        <v>1.64059E-9</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="1">
@@ -1020,8 +1020,8 @@
       <c r="C22" s="2">
         <v>22.62</v>
       </c>
-      <c r="D22">
-        <v>4.1030799999999999E-10</v>
+      <c r="D22" s="1">
+        <v>1.830206E-9</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="1">
@@ -1044,8 +1044,8 @@
       <c r="C23" s="2">
         <v>22.62</v>
       </c>
-      <c r="D23">
-        <v>4.11322E-10</v>
+      <c r="D23" s="1">
+        <v>1.6595869999999999E-9</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="1">
@@ -1068,8 +1068,8 @@
       <c r="C24" s="2">
         <v>22.62</v>
       </c>
-      <c r="D24">
-        <v>4.1220599999999998E-10</v>
+      <c r="D24" s="1">
+        <v>1.8513989999999999E-9</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="1">
@@ -1092,8 +1092,8 @@
       <c r="C25" s="2">
         <v>22.62</v>
       </c>
-      <c r="D25">
-        <v>4.1329799999999999E-10</v>
+      <c r="D25" s="1">
+        <v>1.6500610000000001E-9</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="1">
@@ -1116,8 +1116,8 @@
       <c r="C26" s="2">
         <v>22.62</v>
       </c>
-      <c r="D26">
-        <v>4.1427100000000002E-10</v>
+      <c r="D26" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="1">
@@ -1140,8 +1140,8 @@
       <c r="C27" s="2">
         <v>22.62</v>
       </c>
-      <c r="D27">
-        <v>4.15384E-10</v>
+      <c r="D27" s="1">
+        <v>1.5667509999999999E-9</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="1">
@@ -1164,8 +1164,8 @@
       <c r="C28" s="2">
         <v>22.62</v>
       </c>
-      <c r="D28">
-        <v>4.1720199999999998E-10</v>
+      <c r="D28" s="1">
+        <v>9.4951100000000007E-10</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="1">
@@ -1188,8 +1188,8 @@
       <c r="C29" s="2">
         <v>22.62</v>
       </c>
-      <c r="D29">
-        <v>4.1824800000000001E-10</v>
+      <c r="D29" s="1">
+        <v>1.6032450000000001E-9</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="1">
@@ -1212,8 +1212,8 @@
       <c r="C30" s="2">
         <v>22.62</v>
       </c>
-      <c r="D30">
-        <v>4.1837400000000001E-10</v>
+      <c r="D30" s="1">
+        <v>1.035142E-9</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="1">
@@ -1236,8 +1236,8 @@
       <c r="C31" s="2">
         <v>22.62</v>
       </c>
-      <c r="D31">
-        <v>4.1824399999999998E-10</v>
+      <c r="D31" s="1">
+        <v>1.631173E-9</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="1">
@@ -1260,8 +1260,8 @@
       <c r="C32" s="2">
         <v>22.62</v>
       </c>
-      <c r="D32">
-        <v>4.1829399999999999E-10</v>
+      <c r="D32" s="1">
+        <v>1.5940429999999999E-9</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="1">
@@ -1284,8 +1284,8 @@
       <c r="C33" s="2">
         <v>22.62</v>
       </c>
-      <c r="D33">
-        <v>4.1891700000000001E-10</v>
+      <c r="D33" s="1">
+        <v>1.7478330000000001E-9</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="1">
@@ -1308,8 +1308,8 @@
       <c r="C34" s="2">
         <v>22.62</v>
       </c>
-      <c r="D34">
-        <v>4.1991800000000002E-10</v>
+      <c r="D34" s="1">
+        <v>1.531087E-9</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="1">
@@ -1332,8 +1332,8 @@
       <c r="C35" s="2">
         <v>22.62</v>
       </c>
-      <c r="D35">
-        <v>4.2078799999999998E-10</v>
+      <c r="D35" s="1">
+        <v>1.6788040000000001E-9</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="1">
@@ -1356,8 +1356,8 @@
       <c r="C36" s="2">
         <v>22.62</v>
       </c>
-      <c r="D36">
-        <v>4.2135700000000001E-10</v>
+      <c r="D36" s="1">
+        <v>1.6595869999999999E-9</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="1">
@@ -1380,8 +1380,8 @@
       <c r="C37" s="2">
         <v>22.62</v>
       </c>
-      <c r="D37">
-        <v>4.21435E-10</v>
+      <c r="D37" s="1">
+        <v>1.788546E-9</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="1">
@@ -1404,8 +1404,8 @@
       <c r="C38" s="2">
         <v>22.62</v>
       </c>
-      <c r="D38">
-        <v>4.2096199999999998E-10</v>
+      <c r="D38" s="1">
+        <v>1.230269E-9</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="1">
@@ -1428,8 +1428,8 @@
       <c r="C39" s="2">
         <v>22.62</v>
       </c>
-      <c r="D39">
-        <v>4.2075199999999999E-10</v>
+      <c r="D39" s="1">
+        <v>1.7680720000000001E-9</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="1">
@@ -1452,8 +1452,8 @@
       <c r="C40" s="2">
         <v>22.62</v>
       </c>
-      <c r="D40">
-        <v>4.2098599999999998E-10</v>
+      <c r="D40" s="1">
+        <v>1.0715189999999999E-9</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="1">
@@ -1476,8 +1476,8 @@
       <c r="C41" s="2">
         <v>22.62</v>
       </c>
-      <c r="D41">
-        <v>4.2197400000000003E-10</v>
+      <c r="D41" s="1">
+        <v>1.698244E-9</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="1">
@@ -1500,8 +1500,8 @@
       <c r="C42" s="2">
         <v>22.62</v>
       </c>
-      <c r="D42">
-        <v>4.2320200000000001E-10</v>
+      <c r="D42" s="1">
+        <v>1.1091749999999999E-9</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="1">
@@ -1524,8 +1524,8 @@
       <c r="C43" s="2">
         <v>22.62</v>
       </c>
-      <c r="D43">
-        <v>4.2406900000000001E-10</v>
+      <c r="D43" s="1">
+        <v>1.809256E-9</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="1">
@@ -1548,8 +1548,8 @@
       <c r="C44" s="2">
         <v>22.62</v>
       </c>
-      <c r="D44">
-        <v>4.2471099999999998E-10</v>
+      <c r="D44" s="1">
+        <v>1.053174E-9</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="1">
@@ -1572,8 +1572,8 @@
       <c r="C45" s="2">
         <v>22.62</v>
       </c>
-      <c r="D45">
-        <v>4.2554600000000001E-10</v>
+      <c r="D45" s="1">
+        <v>1.7988709999999999E-9</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="1">
@@ -1596,8 +1596,8 @@
       <c r="C46" s="2">
         <v>22.62</v>
       </c>
-      <c r="D46">
-        <v>4.2651199999999997E-10</v>
+      <c r="D46" s="1">
+        <v>9.7162800000000007E-10</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="1">
@@ -1620,8 +1620,8 @@
       <c r="C47" s="2">
         <v>22.62</v>
       </c>
-      <c r="D47">
-        <v>4.2750400000000001E-10</v>
+      <c r="D47" s="1">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="1">
@@ -1644,8 +1644,8 @@
       <c r="C48" s="2">
         <v>22.62</v>
       </c>
-      <c r="D48">
-        <v>4.2838400000000001E-10</v>
+      <c r="D48" s="1">
+        <v>1.356751E-9</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="1">
@@ -1668,8 +1668,8 @@
       <c r="C49" s="2">
         <v>22.62</v>
       </c>
-      <c r="D49">
-        <v>4.2927800000000002E-10</v>
+      <c r="D49" s="1">
+        <v>1.7478330000000001E-9</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="1">
@@ -1692,8 +1692,8 @@
       <c r="C50" s="2">
         <v>22.62</v>
       </c>
-      <c r="D50">
-        <v>4.29588E-10</v>
+      <c r="D50" s="1">
+        <v>1.28825E-9</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="1">
@@ -1716,8 +1716,8 @@
       <c r="C51" s="2">
         <v>22.62</v>
       </c>
-      <c r="D51">
-        <v>4.3008599999999998E-10</v>
+      <c r="D51" s="1">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="1">
@@ -1740,8 +1740,8 @@
       <c r="C52" s="2">
         <v>22.62</v>
       </c>
-      <c r="D52">
-        <v>4.3044899999999999E-10</v>
+      <c r="D52" s="1">
+        <v>1.2161860000000001E-9</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="1">
@@ -1764,8 +1764,8 @@
       <c r="C53" s="2">
         <v>22.62</v>
       </c>
-      <c r="D53">
-        <v>4.31011E-10</v>
+      <c r="D53" s="1">
+        <v>1.727826E-9</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="1">
@@ -1788,8 +1788,8 @@
       <c r="C54" s="2">
         <v>22.62</v>
       </c>
-      <c r="D54">
-        <v>4.3145999999999998E-10</v>
+      <c r="D54" s="1">
+        <v>1.102808E-9</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="1">
@@ -1812,8 +1812,8 @@
       <c r="C55" s="2">
         <v>22.62</v>
       </c>
-      <c r="D55">
-        <v>4.3185700000000002E-10</v>
+      <c r="D55" s="1">
+        <v>1.8197009999999999E-9</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="1">
@@ -1836,8 +1836,8 @@
       <c r="C56" s="2">
         <v>22.62</v>
       </c>
-      <c r="D56">
-        <v>4.3227499999999999E-10</v>
+      <c r="D56" s="1">
+        <v>1.029201E-9</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="1">
@@ -1860,8 +1860,8 @@
       <c r="C57" s="2">
         <v>22.62</v>
       </c>
-      <c r="D57">
-        <v>4.3297999999999999E-10</v>
+      <c r="D57" s="1">
+        <v>1.788546E-9</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="1">
@@ -1884,8 +1884,8 @@
       <c r="C58" s="2">
         <v>22.62</v>
       </c>
-      <c r="D58">
-        <v>4.3395599999999998E-10</v>
+      <c r="D58" s="1">
+        <v>1.34122E-9</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="1">
@@ -1908,8 +1908,8 @@
       <c r="C59" s="2">
         <v>22.62</v>
       </c>
-      <c r="D59">
-        <v>4.3479899999999998E-10</v>
+      <c r="D59" s="1">
+        <v>1.862087E-9</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="1">
@@ -1932,8 +1932,8 @@
       <c r="C60" s="2">
         <v>22.62</v>
       </c>
-      <c r="D60">
-        <v>4.3613099999999998E-10</v>
+      <c r="D60" s="1">
+        <v>1.1284959999999999E-9</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="1">
@@ -1956,8 +1956,8 @@
       <c r="C61" s="2">
         <v>22.62</v>
       </c>
-      <c r="D61">
-        <v>4.3730400000000001E-10</v>
+      <c r="D61" s="1">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="1">
@@ -1980,8 +1980,8 @@
       <c r="C62" s="2">
         <v>22.62</v>
       </c>
-      <c r="D62">
-        <v>4.3881000000000001E-10</v>
+      <c r="D62" s="1">
+        <v>1.047129E-9</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="1">
@@ -2004,8 +2004,8 @@
       <c r="C63" s="2">
         <v>22.62</v>
       </c>
-      <c r="D63">
-        <v>4.4015699999999998E-10</v>
+      <c r="D63" s="1">
+        <v>1.6788040000000001E-9</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="1">
@@ -2028,8 +2028,8 @@
       <c r="C64" s="2">
         <v>22.62</v>
       </c>
-      <c r="D64">
-        <v>4.4097699999999999E-10</v>
+      <c r="D64" s="1">
+        <v>1.168154E-9</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="1">
@@ -2052,8 +2052,8 @@
       <c r="C65" s="2">
         <v>22.62</v>
       </c>
-      <c r="D65">
-        <v>4.4154399999999999E-10</v>
+      <c r="D65" s="1">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="1">
@@ -2076,8 +2076,8 @@
       <c r="C66" s="2">
         <v>22.62</v>
       </c>
-      <c r="D66">
-        <v>4.4244199999999999E-10</v>
+      <c r="D66" s="1">
+        <v>1.3335210000000001E-9</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="1">
@@ -2100,8 +2100,8 @@
       <c r="C67" s="2">
         <v>22.62</v>
       </c>
-      <c r="D67">
-        <v>4.43232E-10</v>
+      <c r="D67" s="1">
+        <v>1.7680720000000001E-9</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="1">
@@ -2124,8 +2124,8 @@
       <c r="C68" s="2">
         <v>22.62</v>
       </c>
-      <c r="D68">
-        <v>4.4437699999999999E-10</v>
+      <c r="D68" s="1">
+        <v>1.8728370000000002E-9</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="1">
@@ -2148,8 +2148,8 @@
       <c r="C69" s="2">
         <v>22.62</v>
       </c>
-      <c r="D69">
-        <v>4.4582500000000001E-10</v>
+      <c r="D69" s="1">
+        <v>1.788546E-9</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="1">
@@ -2172,8 +2172,8 @@
       <c r="C70" s="2">
         <v>22.62</v>
       </c>
-      <c r="D70">
-        <v>4.4746000000000002E-10</v>
+      <c r="D70" s="1">
+        <v>1.223207E-9</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="1">
@@ -2196,8 +2196,8 @@
       <c r="C71" s="2">
         <v>22.62</v>
       </c>
-      <c r="D71">
-        <v>4.4836400000000002E-10</v>
+      <c r="D71" s="1">
+        <v>1.830206E-9</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="1">
@@ -2220,8 +2220,8 @@
       <c r="C72" s="2">
         <v>22.62</v>
       </c>
-      <c r="D72">
-        <v>4.4909900000000002E-10</v>
+      <c r="D72" s="1">
+        <v>1.1350109999999999E-9</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="1">
@@ -2244,8 +2244,8 @@
       <c r="C73" s="2">
         <v>22.62</v>
       </c>
-      <c r="D73">
-        <v>4.4910400000000001E-10</v>
+      <c r="D73" s="1">
+        <v>1.7478330000000001E-9</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="1">
@@ -2268,8 +2268,8 @@
       <c r="C74" s="2">
         <v>22.62</v>
       </c>
-      <c r="D74">
-        <v>4.4954599999999998E-10</v>
+      <c r="D74" s="1">
+        <v>1.0777050000000001E-9</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="1">
@@ -2292,8 +2292,8 @@
       <c r="C75" s="2">
         <v>22.62</v>
       </c>
-      <c r="D75">
-        <v>4.5021499999999998E-10</v>
+      <c r="D75" s="1">
+        <v>1.9164610000000001E-9</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="1">
@@ -2316,8 +2316,8 @@
       <c r="C76" s="2">
         <v>22.62</v>
       </c>
-      <c r="D76">
-        <v>4.5123200000000002E-10</v>
+      <c r="D76" s="1">
+        <v>1.047129E-9</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="1">
@@ -2340,8 +2340,8 @@
       <c r="C77" s="2">
         <v>22.62</v>
       </c>
-      <c r="D77">
-        <v>4.5238200000000001E-10</v>
+      <c r="D77" s="1">
+        <v>1.8407720000000001E-9</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="1">
@@ -2364,8 +2364,8 @@
       <c r="C78" s="2">
         <v>22.62</v>
       </c>
-      <c r="D78">
-        <v>4.5289099999999998E-10</v>
+      <c r="D78" s="1">
+        <v>1.1415630000000001E-9</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="1">
@@ -2388,8 +2388,8 @@
       <c r="C79" s="2">
         <v>22.62</v>
       </c>
-      <c r="D79">
-        <v>4.5277599999999998E-10</v>
+      <c r="D79" s="1">
+        <v>1.8513989999999999E-9</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="1">
@@ -2412,8 +2412,8 @@
       <c r="C80" s="2">
         <v>22.62</v>
       </c>
-      <c r="D80">
-        <v>4.5193999999999999E-10</v>
+      <c r="D80" s="1">
+        <v>1.2092050000000001E-9</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="1">
@@ -2436,8 +2436,8 @@
       <c r="C81" s="2">
         <v>22.62</v>
       </c>
-      <c r="D81">
-        <v>4.5154699999999998E-10</v>
+      <c r="D81" s="1">
+        <v>1.8836489999999999E-9</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="1">
@@ -2460,8 +2460,8 @@
       <c r="C82" s="2">
         <v>22.62</v>
       </c>
-      <c r="D82">
-        <v>4.52423E-10</v>
+      <c r="D82" s="1">
+        <v>1.62181E-9</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="1">
@@ -2484,8 +2484,8 @@
       <c r="C83" s="2">
         <v>22.62</v>
       </c>
-      <c r="D83">
-        <v>4.5365400000000001E-10</v>
+      <c r="D83" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="1">
@@ -2508,8 +2508,8 @@
       <c r="C84" s="2">
         <v>22.62</v>
       </c>
-      <c r="D84">
-        <v>4.5484700000000001E-10</v>
+      <c r="D84" s="1">
+        <v>1.631173E-9</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="1">
@@ -2532,8 +2532,8 @@
       <c r="C85" s="2">
         <v>22.62</v>
       </c>
-      <c r="D85">
-        <v>4.5610700000000002E-10</v>
+      <c r="D85" s="1">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="1">
@@ -2556,8 +2556,8 @@
       <c r="C86" s="2">
         <v>22.62</v>
       </c>
-      <c r="D86">
-        <v>4.5727199999999998E-10</v>
+      <c r="D86" s="1">
+        <v>1.4454399999999999E-9</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="1">
@@ -2580,8 +2580,8 @@
       <c r="C87" s="2">
         <v>22.62</v>
       </c>
-      <c r="D87">
-        <v>4.5781200000000001E-10</v>
+      <c r="D87" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="1">
@@ -2604,8 +2604,8 @@
       <c r="C88" s="2">
         <v>22.62</v>
       </c>
-      <c r="D88">
-        <v>4.5799499999999998E-10</v>
+      <c r="D88" s="1">
+        <v>1.437143E-9</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="1">
@@ -2628,8 +2628,8 @@
       <c r="C89" s="2">
         <v>22.62</v>
       </c>
-      <c r="D89">
-        <v>4.5823400000000001E-10</v>
+      <c r="D89" s="1">
+        <v>1.9724229999999998E-9</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="1">
@@ -2652,8 +2652,8 @@
       <c r="C90" s="2">
         <v>22.62</v>
       </c>
-      <c r="D90">
-        <v>4.5954700000000001E-10</v>
+      <c r="D90" s="1">
+        <v>1.154782E-9</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="1">
@@ -2676,8 +2676,8 @@
       <c r="C91" s="2">
         <v>22.62</v>
       </c>
-      <c r="D91">
-        <v>4.6124700000000001E-10</v>
+      <c r="D91" s="1">
+        <v>1.98381E-9</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="1">
@@ -2700,8 +2700,8 @@
       <c r="C92" s="2">
         <v>22.62</v>
       </c>
-      <c r="D92">
-        <v>4.62186E-10</v>
+      <c r="D92" s="1">
+        <v>1.7782790000000001E-9</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="1">
@@ -2724,8 +2724,8 @@
       <c r="C93" s="2">
         <v>22.62</v>
       </c>
-      <c r="D93">
-        <v>4.63084E-10</v>
+      <c r="D93" s="1">
+        <v>1.9164610000000001E-9</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="1">
@@ -2748,8 +2748,8 @@
       <c r="C94" s="2">
         <v>22.62</v>
       </c>
-      <c r="D94">
-        <v>4.6339499999999998E-10</v>
+      <c r="D94" s="1">
+        <v>1.62181E-9</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="1">
@@ -2772,8 +2772,8 @@
       <c r="C95" s="2">
         <v>22.62</v>
       </c>
-      <c r="D95">
-        <v>4.6402100000000003E-10</v>
+      <c r="D95" s="1">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="1">
@@ -2796,8 +2796,8 @@
       <c r="C96" s="2">
         <v>22.62</v>
       </c>
-      <c r="D96">
-        <v>4.6462800000000001E-10</v>
+      <c r="D96" s="1">
+        <v>1.487647E-9</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="1">
@@ -2820,8 +2820,8 @@
       <c r="C97" s="2">
         <v>22.62</v>
       </c>
-      <c r="D97">
-        <v>4.64898E-10</v>
+      <c r="D97" s="1">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="1">
@@ -2844,8 +2844,8 @@
       <c r="C98" s="2">
         <v>22.62</v>
       </c>
-      <c r="D98">
-        <v>4.6505299999999999E-10</v>
+      <c r="D98" s="1">
+        <v>1.4454399999999999E-9</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="1">
@@ -2868,8 +2868,8 @@
       <c r="C99" s="2">
         <v>22.62</v>
       </c>
-      <c r="D99">
-        <v>4.6629700000000001E-10</v>
+      <c r="D99" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="1">
@@ -2892,8 +2892,8 @@
       <c r="C100" s="2">
         <v>22.62</v>
       </c>
-      <c r="D100">
-        <v>4.67947E-10</v>
+      <c r="D100" s="1">
+        <v>1.303167E-9</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="1">
@@ -2916,8 +2916,8 @@
       <c r="C101" s="2">
         <v>22.62</v>
       </c>
-      <c r="D101">
-        <v>4.6882100000000005E-10</v>
+      <c r="D101" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="1">
@@ -2940,8 +2940,8 @@
       <c r="C102" s="2">
         <v>22.62</v>
       </c>
-      <c r="D102">
-        <v>4.6997899999999995E-10</v>
+      <c r="D102" s="1">
+        <v>1.7680720000000001E-9</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="1">
@@ -2964,8 +2964,8 @@
       <c r="C103" s="2">
         <v>22.62</v>
       </c>
-      <c r="D103">
-        <v>4.7056400000000001E-10</v>
+      <c r="D103" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="1">
@@ -2988,8 +2988,8 @@
       <c r="C104" s="2">
         <v>22.62</v>
       </c>
-      <c r="D104">
-        <v>4.7141599999999998E-10</v>
+      <c r="D104" s="1">
+        <v>1.6500610000000001E-9</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="1">
@@ -3012,8 +3012,8 @@
       <c r="C105" s="2">
         <v>22.62</v>
       </c>
-      <c r="D105">
-        <v>4.7183899999999999E-10</v>
+      <c r="D105" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="1">
@@ -3036,8 +3036,8 @@
       <c r="C106" s="2">
         <v>22.62</v>
       </c>
-      <c r="D106">
-        <v>4.72298E-10</v>
+      <c r="D106" s="1">
+        <v>1.64059E-9</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="1">
@@ -3060,8 +3060,8 @@
       <c r="C107" s="2">
         <v>22.62</v>
       </c>
-      <c r="D107">
-        <v>4.7357800000000002E-10</v>
+      <c r="D107" s="1">
+        <v>1.8728370000000002E-9</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="1">
@@ -3084,8 +3084,8 @@
       <c r="C108" s="2">
         <v>22.62</v>
       </c>
-      <c r="D108">
-        <v>4.7521700000000001E-10</v>
+      <c r="D108" s="1">
+        <v>1.5399269999999999E-9</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="1">
@@ -3108,8 +3108,8 @@
       <c r="C109" s="2">
         <v>22.62</v>
       </c>
-      <c r="D109">
-        <v>4.7640000000000003E-10</v>
+      <c r="D109" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="1">
@@ -3132,8 +3132,8 @@
       <c r="C110" s="2">
         <v>22.62</v>
       </c>
-      <c r="D110">
-        <v>4.7633700000000001E-10</v>
+      <c r="D110" s="1">
+        <v>1.3335210000000001E-9</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="1">
@@ -3156,8 +3156,8 @@
       <c r="C111" s="2">
         <v>22.62</v>
       </c>
-      <c r="D111">
-        <v>4.7621299999999998E-10</v>
+      <c r="D111" s="1">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="1">
@@ -3180,8 +3180,8 @@
       <c r="C112" s="2">
         <v>22.62</v>
       </c>
-      <c r="D112">
-        <v>4.7618500000000005E-10</v>
+      <c r="D112" s="1">
+        <v>1.102808E-9</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="1">
@@ -3204,8 +3204,8 @@
       <c r="C113" s="2">
         <v>22.62</v>
       </c>
-      <c r="D113">
-        <v>4.7650399999999999E-10</v>
+      <c r="D113" s="1">
+        <v>1.98381E-9</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="1">
@@ -3228,8 +3228,8 @@
       <c r="C114" s="2">
         <v>22.62</v>
       </c>
-      <c r="D114">
-        <v>4.7717200000000004E-10</v>
+      <c r="D114" s="1">
+        <v>1.487647E-9</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="1">
@@ -3252,8 +3252,8 @@
       <c r="C115" s="2">
         <v>22.62</v>
       </c>
-      <c r="D115">
-        <v>4.7826099999999997E-10</v>
+      <c r="D115" s="1">
+        <v>1.9611010000000001E-9</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="1">
@@ -3276,8 +3276,8 @@
       <c r="C116" s="2">
         <v>22.62</v>
       </c>
-      <c r="D116">
-        <v>4.7940000000000002E-10</v>
+      <c r="D116" s="1">
+        <v>1.154782E-9</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="1">
@@ -3300,8 +3300,8 @@
       <c r="C117" s="2">
         <v>22.62</v>
       </c>
-      <c r="D117">
-        <v>4.8031600000000002E-10</v>
+      <c r="D117" s="1">
+        <v>1.9164610000000001E-9</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="1">
@@ -3324,8 +3324,8 @@
       <c r="C118" s="2">
         <v>22.62</v>
       </c>
-      <c r="D118">
-        <v>4.8073499999999999E-10</v>
+      <c r="D118" s="1">
+        <v>1.356751E-9</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="1">
@@ -3348,8 +3348,8 @@
       <c r="C119" s="2">
         <v>22.62</v>
       </c>
-      <c r="D119">
-        <v>4.81375E-10</v>
+      <c r="D119" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="1">
@@ -3372,8 +3372,8 @@
       <c r="C120" s="2">
         <v>22.62</v>
       </c>
-      <c r="D120">
-        <v>4.8213800000000004E-10</v>
+      <c r="D120" s="1">
+        <v>1.9054610000000001E-9</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="1">
@@ -3396,8 +3396,8 @@
       <c r="C121" s="2">
         <v>22.62</v>
       </c>
-      <c r="D121">
-        <v>4.8320199999999996E-10</v>
+      <c r="D121" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="1">
@@ -3420,8 +3420,8 @@
       <c r="C122" s="2">
         <v>22.62</v>
       </c>
-      <c r="D122">
-        <v>4.8458300000000002E-10</v>
+      <c r="D122" s="1">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="1">
@@ -3444,8 +3444,8 @@
       <c r="C123" s="2">
         <v>22.62</v>
       </c>
-      <c r="D123">
-        <v>4.8475999999999999E-10</v>
+      <c r="D123" s="1">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="1">
@@ -3468,8 +3468,8 @@
       <c r="C124" s="2">
         <v>22.62</v>
       </c>
-      <c r="D124">
-        <v>4.8605700000000005E-10</v>
+      <c r="D124" s="1">
+        <v>1.1953639999999999E-9</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="1">
@@ -3492,8 +3492,8 @@
       <c r="C125" s="2">
         <v>22.62</v>
       </c>
-      <c r="D125">
-        <v>4.8704500000000005E-10</v>
+      <c r="D125" s="1">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="1">
@@ -3516,8 +3516,8 @@
       <c r="C126" s="2">
         <v>22.62</v>
       </c>
-      <c r="D126">
-        <v>4.8807099999999996E-10</v>
+      <c r="D126" s="1">
+        <v>1.295687E-9</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="1">
@@ -3540,8 +3540,8 @@
       <c r="C127" s="2">
         <v>22.62</v>
       </c>
-      <c r="D127">
-        <v>4.8896599999999998E-10</v>
+      <c r="D127" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="1">
@@ -3564,8 +3564,8 @@
       <c r="C128" s="2">
         <v>22.62</v>
       </c>
-      <c r="D128">
-        <v>4.8943199999999995E-10</v>
+      <c r="D128" s="1">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="1">
@@ -3588,8 +3588,8 @@
       <c r="C129" s="2">
         <v>22.62</v>
       </c>
-      <c r="D129">
-        <v>4.89787E-10</v>
+      <c r="D129" s="1">
+        <v>1.8728370000000002E-9</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="1">
@@ -3612,8 +3612,8 @@
       <c r="C130" s="2">
         <v>22.62</v>
       </c>
-      <c r="D130">
-        <v>4.9042900000000002E-10</v>
+      <c r="D130" s="1">
+        <v>2.1877620000000001E-9</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="1">
@@ -3636,8 +3636,8 @@
       <c r="C131" s="2">
         <v>22.62</v>
       </c>
-      <c r="D131">
-        <v>4.9103000000000001E-10</v>
+      <c r="D131" s="1">
+        <v>1.9498449999999999E-9</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="1">
@@ -3660,8 +3660,8 @@
       <c r="C132" s="2">
         <v>22.62</v>
       </c>
-      <c r="D132">
-        <v>4.9153399999999999E-10</v>
+      <c r="D132" s="1">
+        <v>2.113489E-9</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="1">
@@ -3684,8 +3684,8 @@
       <c r="C133" s="2">
         <v>22.62</v>
       </c>
-      <c r="D133">
-        <v>4.9225100000000004E-10</v>
+      <c r="D133" s="1">
+        <v>1.8407720000000001E-9</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="1">
@@ -3708,8 +3708,8 @@
       <c r="C134" s="2">
         <v>22.62</v>
       </c>
-      <c r="D134">
-        <v>4.9237799999999999E-10</v>
+      <c r="D134" s="1">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="1">
@@ -3732,8 +3732,8 @@
       <c r="C135" s="2">
         <v>22.62</v>
       </c>
-      <c r="D135">
-        <v>4.9201299999999996E-10</v>
+      <c r="D135" s="1">
+        <v>1.396368E-9</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="1">
@@ -3756,8 +3756,8 @@
       <c r="C136" s="2">
         <v>22.62</v>
       </c>
-      <c r="D136">
-        <v>4.9156899999999998E-10</v>
+      <c r="D136" s="1">
+        <v>1.98381E-9</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="1">
@@ -3780,8 +3780,8 @@
       <c r="C137" s="2">
         <v>22.62</v>
       </c>
-      <c r="D137">
-        <v>4.9190399999999996E-10</v>
+      <c r="D137" s="1">
+        <v>1.1953639999999999E-9</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="1">
@@ -3804,8 +3804,8 @@
       <c r="C138" s="2">
         <v>22.62</v>
       </c>
-      <c r="D138">
-        <v>4.9321400000000003E-10</v>
+      <c r="D138" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="1">
@@ -3828,8 +3828,8 @@
       <c r="C139" s="2">
         <v>22.62</v>
       </c>
-      <c r="D139">
-        <v>4.9454499999999997E-10</v>
+      <c r="D139" s="1">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="1">
@@ -3852,8 +3852,8 @@
       <c r="C140" s="2">
         <v>22.62</v>
       </c>
-      <c r="D140">
-        <v>4.9546600000000001E-10</v>
+      <c r="D140" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="1">
@@ -3876,8 +3876,8 @@
       <c r="C141" s="2">
         <v>22.62</v>
       </c>
-      <c r="D141">
-        <v>4.9566399999999995E-10</v>
+      <c r="D141" s="1">
+        <v>1.1953639999999999E-9</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="1">
@@ -3900,8 +3900,8 @@
       <c r="C142" s="2">
         <v>22.62</v>
       </c>
-      <c r="D142">
-        <v>4.9549000000000001E-10</v>
+      <c r="D142" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="1">
@@ -3924,8 +3924,8 @@
       <c r="C143" s="2">
         <v>22.62</v>
       </c>
-      <c r="D143">
-        <v>4.9555899999999998E-10</v>
+      <c r="D143" s="1">
+        <v>2.1877620000000001E-9</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="1">
@@ -3948,8 +3948,8 @@
       <c r="C144" s="2">
         <v>22.62</v>
       </c>
-      <c r="D144">
-        <v>4.96405E-10</v>
+      <c r="D144" s="1">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="1">
@@ -3972,8 +3972,8 @@
       <c r="C145" s="2">
         <v>22.62</v>
       </c>
-      <c r="D145">
-        <v>4.9796899999999998E-10</v>
+      <c r="D145" s="1">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="1">
@@ -3996,8 +3996,8 @@
       <c r="C146" s="2">
         <v>22.62</v>
       </c>
-      <c r="D146">
-        <v>4.9927999999999996E-10</v>
+      <c r="D146" s="1">
+        <v>1.9498449999999999E-9</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="1">
@@ -4020,8 +4020,8 @@
       <c r="C147" s="2">
         <v>22.62</v>
       </c>
-      <c r="D147">
-        <v>5.0069199999999997E-10</v>
+      <c r="D147" s="1">
+        <v>2.0892960000000002E-9</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="1">
@@ -4044,8 +4044,8 @@
       <c r="C148" s="2">
         <v>22.62</v>
       </c>
-      <c r="D148">
-        <v>5.0104099999999997E-10</v>
+      <c r="D148" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="1">
@@ -4068,8 +4068,8 @@
       <c r="C149" s="2">
         <v>22.62</v>
       </c>
-      <c r="D149">
-        <v>5.0099800000000001E-10</v>
+      <c r="D149" s="1">
+        <v>2.0653800000000002E-9</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="1">
@@ -4092,8 +4092,8 @@
       <c r="C150" s="2">
         <v>22.62</v>
       </c>
-      <c r="D150">
-        <v>5.0128299999999997E-10</v>
+      <c r="D150" s="1">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="1">
@@ -4116,8 +4116,8 @@
       <c r="C151" s="2">
         <v>22.62</v>
       </c>
-      <c r="D151">
-        <v>5.0271499999999995E-10</v>
+      <c r="D151" s="1">
+        <v>2.2130950000000002E-9</v>
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="1">
@@ -4140,8 +4140,8 @@
       <c r="C152" s="2">
         <v>22.62</v>
       </c>
-      <c r="D152">
-        <v>5.0407600000000005E-10</v>
+      <c r="D152" s="1">
+        <v>1.4044300000000001E-9</v>
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="1">
@@ -4164,8 +4164,8 @@
       <c r="C153" s="2">
         <v>22.62</v>
       </c>
-      <c r="D153">
-        <v>5.0591600000000001E-10</v>
+      <c r="D153" s="1">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="1">
@@ -4188,8 +4188,8 @@
       <c r="C154" s="2">
         <v>22.62</v>
       </c>
-      <c r="D154">
-        <v>5.0778199999999999E-10</v>
+      <c r="D154" s="1">
+        <v>1.223207E-9</v>
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="1">
@@ -4212,8 +4212,8 @@
       <c r="C155" s="2">
         <v>22.62</v>
       </c>
-      <c r="D155">
-        <v>5.0870499999999995E-10</v>
+      <c r="D155" s="1">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="1">
@@ -4236,8 +4236,8 @@
       <c r="C156" s="2">
         <v>22.62</v>
       </c>
-      <c r="D156">
-        <v>5.0892399999999997E-10</v>
+      <c r="D156" s="1">
+        <v>1.437143E-9</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="1">
@@ -4260,8 +4260,8 @@
       <c r="C157" s="2">
         <v>22.62</v>
       </c>
-      <c r="D157">
-        <v>5.0879900000000003E-10</v>
+      <c r="D157" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="1">
@@ -4284,8 +4284,8 @@
       <c r="C158" s="2">
         <v>22.62</v>
       </c>
-      <c r="D158">
-        <v>5.0894699999999996E-10</v>
+      <c r="D158" s="1">
+        <v>1.2373709999999999E-9</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="1">
@@ -4308,8 +4308,8 @@
       <c r="C159" s="2">
         <v>22.62</v>
       </c>
-      <c r="D159">
-        <v>5.09241E-10</v>
+      <c r="D159" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="1">
@@ -4332,8 +4332,8 @@
       <c r="C160" s="2">
         <v>22.62</v>
       </c>
-      <c r="D160">
-        <v>5.0945699999999999E-10</v>
+      <c r="D160" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="1">
@@ -4356,8 +4356,8 @@
       <c r="C161" s="2">
         <v>22.62</v>
       </c>
-      <c r="D161">
-        <v>5.0935100000000001E-10</v>
+      <c r="D161" s="1">
+        <v>1.6691679999999999E-9</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="1">
@@ -4380,8 +4380,8 @@
       <c r="C162" s="2">
         <v>22.62</v>
       </c>
-      <c r="D162">
-        <v>5.0985700000000001E-10</v>
+      <c r="D162" s="1">
+        <v>2.1013580000000001E-9</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="1">
@@ -4404,8 +4404,8 @@
       <c r="C163" s="2">
         <v>22.62</v>
       </c>
-      <c r="D163">
-        <v>5.1040000000000002E-10</v>
+      <c r="D163" s="1">
+        <v>1.8836489999999999E-9</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="1">
@@ -4428,8 +4428,8 @@
       <c r="C164" s="2">
         <v>22.62</v>
       </c>
-      <c r="D164">
-        <v>5.1092000000000003E-10</v>
+      <c r="D164" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="1">
@@ -4452,8 +4452,8 @@
       <c r="C165" s="2">
         <v>22.62</v>
       </c>
-      <c r="D165">
-        <v>5.1150199999999996E-10</v>
+      <c r="D165" s="1">
+        <v>1.34122E-9</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="1">
@@ -4476,8 +4476,8 @@
       <c r="C166" s="2">
         <v>22.62</v>
       </c>
-      <c r="D166">
-        <v>5.1243399999999999E-10</v>
+      <c r="D166" s="1">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="1">
@@ -4500,8 +4500,8 @@
       <c r="C167" s="2">
         <v>22.62</v>
       </c>
-      <c r="D167">
-        <v>5.13857E-10</v>
+      <c r="D167" s="1">
+        <v>1.5488169999999999E-9</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="1">
@@ -4524,8 +4524,8 @@
       <c r="C168" s="2">
         <v>22.62</v>
       </c>
-      <c r="D168">
-        <v>5.1586300000000004E-10</v>
+      <c r="D168" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="1">
@@ -4548,8 +4548,8 @@
       <c r="C169" s="2">
         <v>22.62</v>
       </c>
-      <c r="D169">
-        <v>5.1750100000000003E-10</v>
+      <c r="D169" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="1">
@@ -4572,8 +4572,8 @@
       <c r="C170" s="2">
         <v>22.62</v>
       </c>
-      <c r="D170">
-        <v>5.1980500000000005E-10</v>
+      <c r="D170" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="1">
@@ -4596,8 +4596,8 @@
       <c r="C171" s="2">
         <v>22.62</v>
       </c>
-      <c r="D171">
-        <v>5.2147900000000004E-10</v>
+      <c r="D171" s="1">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="1">
@@ -4620,8 +4620,8 @@
       <c r="C172" s="2">
         <v>22.62</v>
       </c>
-      <c r="D172">
-        <v>5.2162300000000003E-10</v>
+      <c r="D172" s="1">
+        <v>1.9952619999999998E-9</v>
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="1">
@@ -4644,8 +4644,8 @@
       <c r="C173" s="2">
         <v>22.62</v>
       </c>
-      <c r="D173">
-        <v>5.2196000000000003E-10</v>
+      <c r="D173" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="1">
@@ -4668,8 +4668,8 @@
       <c r="C174" s="2">
         <v>22.62</v>
       </c>
-      <c r="D174">
-        <v>5.2238499999999995E-10</v>
+      <c r="D174" s="1">
+        <v>1.9054610000000001E-9</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="1">
@@ -4692,8 +4692,8 @@
       <c r="C175" s="2">
         <v>22.62</v>
       </c>
-      <c r="D175">
-        <v>5.2360299999999995E-10</v>
+      <c r="D175" s="1">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="1">
@@ -4716,8 +4716,8 @@
       <c r="C176" s="2">
         <v>22.62</v>
       </c>
-      <c r="D176">
-        <v>5.2491100000000001E-10</v>
+      <c r="D176" s="1">
+        <v>1.6125010000000001E-9</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="1">
@@ -4740,8 +4740,8 @@
       <c r="C177" s="2">
         <v>22.62</v>
       </c>
-      <c r="D177">
-        <v>5.26139E-10</v>
+      <c r="D177" s="1">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="1">
@@ -4764,8 +4764,8 @@
       <c r="C178" s="2">
         <v>22.62</v>
       </c>
-      <c r="D178">
-        <v>5.2674099999999999E-10</v>
+      <c r="D178" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="1">
@@ -4788,8 +4788,8 @@
       <c r="C179" s="2">
         <v>22.62</v>
       </c>
-      <c r="D179">
-        <v>5.26875E-10</v>
+      <c r="D179" s="1">
+        <v>2.113489E-9</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="1">
@@ -4812,8 +4812,8 @@
       <c r="C180" s="2">
         <v>22.62</v>
       </c>
-      <c r="D180">
-        <v>5.2679300000000002E-10</v>
+      <c r="D180" s="1">
+        <v>1.9054610000000001E-9</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="1">
@@ -4836,8 +4836,8 @@
       <c r="C181" s="2">
         <v>22.62</v>
       </c>
-      <c r="D181">
-        <v>5.2625599999999997E-10</v>
+      <c r="D181" s="1">
+        <v>2.1013580000000001E-9</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="1">
@@ -4860,8 +4860,8 @@
       <c r="C182" s="2">
         <v>22.62</v>
       </c>
-      <c r="D182">
-        <v>5.2730200000000005E-10</v>
+      <c r="D182" s="1">
+        <v>1.4454399999999999E-9</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="1">
@@ -4884,8 +4884,8 @@
       <c r="C183" s="2">
         <v>22.62</v>
       </c>
-      <c r="D183">
-        <v>5.2853299999999996E-10</v>
+      <c r="D183" s="1">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="1">
@@ -4908,8 +4908,8 @@
       <c r="C184" s="2">
         <v>22.62</v>
       </c>
-      <c r="D184">
-        <v>5.2954799999999998E-10</v>
+      <c r="D184" s="1">
+        <v>1.420692E-9</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="1">
@@ -4932,8 +4932,8 @@
       <c r="C185" s="2">
         <v>22.62</v>
       </c>
-      <c r="D185">
-        <v>5.3012699999999998E-10</v>
+      <c r="D185" s="1">
+        <v>2.113489E-9</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="1">
@@ -4956,8 +4956,8 @@
       <c r="C186" s="2">
         <v>22.62</v>
       </c>
-      <c r="D186">
-        <v>5.3010800000000003E-10</v>
+      <c r="D186" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="1">
@@ -4980,8 +4980,8 @@
       <c r="C187" s="2">
         <v>22.62</v>
       </c>
-      <c r="D187">
-        <v>5.3039800000000003E-10</v>
+      <c r="D187" s="1">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="1">
@@ -5004,8 +5004,8 @@
       <c r="C188" s="2">
         <v>22.62</v>
       </c>
-      <c r="D188">
-        <v>5.3078899999999998E-10</v>
+      <c r="D188" s="1">
+        <v>2.1752040000000001E-9</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="1">
@@ -5028,8 +5028,8 @@
       <c r="C189" s="2">
         <v>22.62</v>
       </c>
-      <c r="D189">
-        <v>5.3130100000000002E-10</v>
+      <c r="D189" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="1">
@@ -5052,8 +5052,8 @@
       <c r="C190" s="2">
         <v>22.62</v>
       </c>
-      <c r="D190">
-        <v>5.3230699999999997E-10</v>
+      <c r="D190" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="1">
@@ -5076,8 +5076,8 @@
       <c r="C191" s="2">
         <v>22.62</v>
       </c>
-      <c r="D191">
-        <v>5.3360500000000004E-10</v>
+      <c r="D191" s="1">
+        <v>1.727826E-9</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="1">
@@ -5100,8 +5100,8 @@
       <c r="C192" s="2">
         <v>22.62</v>
       </c>
-      <c r="D192">
-        <v>5.3520199999999999E-10</v>
+      <c r="D192" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="1">
@@ -5124,8 +5124,8 @@
       <c r="C193" s="2">
         <v>22.62</v>
       </c>
-      <c r="D193">
-        <v>5.36613E-10</v>
+      <c r="D193" s="1">
+        <v>1.437143E-9</v>
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="1">
@@ -5148,8 +5148,8 @@
       <c r="C194" s="2">
         <v>22.62</v>
       </c>
-      <c r="D194">
-        <v>5.3768800000000002E-10</v>
+      <c r="D194" s="1">
+        <v>2.2003919999999999E-9</v>
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="1">
@@ -5172,8 +5172,8 @@
       <c r="C195" s="2">
         <v>22.62</v>
       </c>
-      <c r="D195">
-        <v>5.3888100000000001E-10</v>
+      <c r="D195" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="1">
@@ -5196,8 +5196,8 @@
       <c r="C196" s="2">
         <v>22.62</v>
       </c>
-      <c r="D196">
-        <v>5.3968000000000004E-10</v>
+      <c r="D196" s="1">
+        <v>2.0892960000000002E-9</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="1">
@@ -5220,8 +5220,8 @@
       <c r="C197" s="2">
         <v>22.62</v>
       </c>
-      <c r="D197">
-        <v>5.3984700000000003E-10</v>
+      <c r="D197" s="1">
+        <v>1.7680720000000001E-9</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="1">
@@ -5244,8 +5244,8 @@
       <c r="C198" s="2">
         <v>22.62</v>
       </c>
-      <c r="D198">
-        <v>5.4004000000000003E-10</v>
+      <c r="D198" s="1">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="1">
@@ -5268,8 +5268,8 @@
       <c r="C199" s="2">
         <v>22.62</v>
       </c>
-      <c r="D199">
-        <v>5.4080000000000004E-10</v>
+      <c r="D199" s="1">
+        <v>1.428894E-9</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="1">
@@ -5292,8 +5292,8 @@
       <c r="C200" s="2">
         <v>22.62</v>
       </c>
-      <c r="D200">
-        <v>5.4170200000000002E-10</v>
+      <c r="D200" s="1">
+        <v>2.3988329999999998E-9</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="1">
@@ -5316,8 +5316,8 @@
       <c r="C201" s="2">
         <v>22.62</v>
       </c>
-      <c r="D201">
-        <v>5.4211E-10</v>
+      <c r="D201" s="1">
+        <v>1.4044300000000001E-9</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="1">
@@ -5340,8 +5340,8 @@
       <c r="C202" s="2">
         <v>22.62</v>
       </c>
-      <c r="D202">
-        <v>5.4266299999999999E-10</v>
+      <c r="D202" s="1">
+        <v>2.1752040000000001E-9</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="1">
@@ -5364,8 +5364,8 @@
       <c r="C203" s="2">
         <v>22.62</v>
       </c>
-      <c r="D203">
-        <v>5.4344000000000004E-10</v>
+      <c r="D203" s="1">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="1">
@@ -5388,8 +5388,8 @@
       <c r="C204" s="2">
         <v>22.62</v>
       </c>
-      <c r="D204">
-        <v>5.4413399999999999E-10</v>
+      <c r="D204" s="1">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="1">
@@ -5412,8 +5412,8 @@
       <c r="C205" s="2">
         <v>22.62</v>
       </c>
-      <c r="D205">
-        <v>5.4498100000000002E-10</v>
+      <c r="D205" s="1">
+        <v>1.396368E-9</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="1">
@@ -5436,8 +5436,8 @@
       <c r="C206" s="2">
         <v>22.62</v>
       </c>
-      <c r="D206">
-        <v>5.4634899999999997E-10</v>
+      <c r="D206" s="1">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="1">
@@ -5460,8 +5460,8 @@
       <c r="C207" s="2">
         <v>22.62</v>
       </c>
-      <c r="D207">
-        <v>5.4814100000000004E-10</v>
+      <c r="D207" s="1">
+        <v>1.9724229999999998E-9</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="1">
@@ -5484,8 +5484,8 @@
       <c r="C208" s="2">
         <v>22.62</v>
       </c>
-      <c r="D208">
-        <v>5.4953199999999998E-10</v>
+      <c r="D208" s="1">
+        <v>2.1013580000000001E-9</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="1">
@@ -5508,8 +5508,8 @@
       <c r="C209" s="2">
         <v>22.62</v>
       </c>
-      <c r="D209">
-        <v>5.5044599999999996E-10</v>
+      <c r="D209" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="1">
@@ -5532,8 +5532,8 @@
       <c r="C210" s="2">
         <v>22.62</v>
       </c>
-      <c r="D210">
-        <v>5.5144699999999997E-10</v>
+      <c r="D210" s="1">
+        <v>2.1752040000000001E-9</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="1">
@@ -5556,8 +5556,8 @@
       <c r="C211" s="2">
         <v>22.62</v>
       </c>
-      <c r="D211">
-        <v>5.5265199999999996E-10</v>
+      <c r="D211" s="1">
+        <v>2.3307729999999999E-9</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="1">
@@ -5580,8 +5580,8 @@
       <c r="C212" s="2">
         <v>22.62</v>
       </c>
-      <c r="D212">
-        <v>5.5332300000000003E-10</v>
+      <c r="D212" s="1">
+        <v>2.0300190000000001E-9</v>
       </c>
       <c r="F212" s="9"/>
       <c r="G212" s="1">
@@ -5604,8 +5604,8 @@
       <c r="C213" s="2">
         <v>22.62</v>
       </c>
-      <c r="D213">
-        <v>5.5321200000000001E-10</v>
+      <c r="D213" s="1">
+        <v>2.1627189999999998E-9</v>
       </c>
       <c r="F213" s="9"/>
       <c r="G213" s="1">
@@ -5628,8 +5628,8 @@
       <c r="C214" s="2">
         <v>22.62</v>
       </c>
-      <c r="D214">
-        <v>5.5309100000000001E-10</v>
+      <c r="D214" s="1">
+        <v>1.3724609999999999E-9</v>
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="1">
@@ -5652,8 +5652,8 @@
       <c r="C215" s="2">
         <v>22.62</v>
       </c>
-      <c r="D215">
-        <v>5.52222E-10</v>
+      <c r="D215" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F215" s="9"/>
       <c r="G215" s="1">
@@ -5676,8 +5676,8 @@
       <c r="C216" s="2">
         <v>22.62</v>
       </c>
-      <c r="D216">
-        <v>5.5149200000000004E-10</v>
+      <c r="D216" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="1">
@@ -5700,8 +5700,8 @@
       <c r="C217" s="2">
         <v>22.62</v>
       </c>
-      <c r="D217">
-        <v>5.5098999999999998E-10</v>
+      <c r="D217" s="1">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="1">
@@ -5724,8 +5724,8 @@
       <c r="C218" s="2">
         <v>22.62</v>
       </c>
-      <c r="D218">
-        <v>5.5091699999999997E-10</v>
+      <c r="D218" s="1">
+        <v>2.4688799999999999E-9</v>
       </c>
       <c r="F218" s="9"/>
       <c r="G218" s="1">
@@ -5748,8 +5748,8 @@
       <c r="C219" s="2">
         <v>22.62</v>
       </c>
-      <c r="D219">
-        <v>5.5195199999999996E-10</v>
+      <c r="D219" s="1">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F219" s="9"/>
       <c r="G219" s="1">
@@ -5772,8 +5772,8 @@
       <c r="C220" s="2">
         <v>22.62</v>
       </c>
-      <c r="D220">
-        <v>5.52644E-10</v>
+      <c r="D220" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F220" s="9"/>
       <c r="G220" s="1">
@@ -5796,8 +5796,8 @@
       <c r="C221" s="2">
         <v>22.62</v>
       </c>
-      <c r="D221">
-        <v>5.5347299999999998E-10</v>
+      <c r="D221" s="1">
+        <v>2.0892960000000002E-9</v>
       </c>
       <c r="F221" s="9"/>
       <c r="G221" s="1">
@@ -5820,8 +5820,8 @@
       <c r="C222" s="2">
         <v>22.62</v>
       </c>
-      <c r="D222">
-        <v>5.5438300000000003E-10</v>
+      <c r="D222" s="1">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F222" s="9"/>
       <c r="G222" s="1">
@@ -5844,8 +5844,8 @@
       <c r="C223" s="2">
         <v>22.62</v>
       </c>
-      <c r="D223">
-        <v>5.5627800000000005E-10</v>
+      <c r="D223" s="1">
+        <v>1.7080480000000001E-9</v>
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="1">
@@ -5868,8 +5868,8 @@
       <c r="C224" s="2">
         <v>22.62</v>
       </c>
-      <c r="D224">
-        <v>5.5834199999999997E-10</v>
+      <c r="D224" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="1">
@@ -5892,8 +5892,8 @@
       <c r="C225" s="2">
         <v>22.62</v>
       </c>
-      <c r="D225">
-        <v>5.6047000000000003E-10</v>
+      <c r="D225" s="1">
+        <v>1.496236E-9</v>
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="1">
@@ -5916,8 +5916,8 @@
       <c r="C226" s="2">
         <v>22.62</v>
       </c>
-      <c r="D226">
-        <v>5.6368399999999999E-10</v>
+      <c r="D226" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="1">
@@ -5940,8 +5940,8 @@
       <c r="C227" s="2">
         <v>22.62</v>
       </c>
-      <c r="D227">
-        <v>5.6640299999999995E-10</v>
+      <c r="D227" s="1">
+        <v>1.575796E-9</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="1">
@@ -5964,8 +5964,8 @@
       <c r="C228" s="2">
         <v>22.62</v>
       </c>
-      <c r="D228">
-        <v>5.6824999999999998E-10</v>
+      <c r="D228" s="1">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="1">
@@ -5988,8 +5988,8 @@
       <c r="C229" s="2">
         <v>22.62</v>
       </c>
-      <c r="D229">
-        <v>5.6994799999999996E-10</v>
+      <c r="D229" s="1">
+        <v>1.8836489999999999E-9</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="1">
@@ -6012,8 +6012,8 @@
       <c r="C230" s="2">
         <v>22.62</v>
       </c>
-      <c r="D230">
-        <v>5.7105699999999996E-10</v>
+      <c r="D230" s="1">
+        <v>2.2646440000000002E-9</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="1">
@@ -6036,8 +6036,8 @@
       <c r="C231" s="2">
         <v>22.62</v>
       </c>
-      <c r="D231">
-        <v>5.7159300000000001E-10</v>
+      <c r="D231" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="1">
@@ -6060,8 +6060,8 @@
       <c r="C232" s="2">
         <v>22.62</v>
       </c>
-      <c r="D232">
-        <v>5.7157399999999995E-10</v>
+      <c r="D232" s="1">
+        <v>2.1877620000000001E-9</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="1">
@@ -6084,8 +6084,8 @@
       <c r="C233" s="2">
         <v>22.62</v>
       </c>
-      <c r="D233">
-        <v>5.7171799999999995E-10</v>
+      <c r="D233" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="1">
@@ -6108,8 +6108,8 @@
       <c r="C234" s="2">
         <v>22.62</v>
       </c>
-      <c r="D234">
-        <v>5.7212700000000004E-10</v>
+      <c r="D234" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="1">
@@ -6132,8 +6132,8 @@
       <c r="C235" s="2">
         <v>22.62</v>
       </c>
-      <c r="D235">
-        <v>5.7275799999999998E-10</v>
+      <c r="D235" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="1">
@@ -6156,8 +6156,8 @@
       <c r="C236" s="2">
         <v>22.62</v>
       </c>
-      <c r="D236">
-        <v>5.73243E-10</v>
+      <c r="D236" s="1">
+        <v>1.531087E-9</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="1">
@@ -6180,8 +6180,8 @@
       <c r="C237" s="2">
         <v>22.62</v>
       </c>
-      <c r="D237">
-        <v>5.7327799999999999E-10</v>
+      <c r="D237" s="1">
+        <v>2.3850640000000001E-9</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="1">
@@ -6204,8 +6204,8 @@
       <c r="C238" s="2">
         <v>22.62</v>
       </c>
-      <c r="D238">
-        <v>5.7408000000000005E-10</v>
+      <c r="D238" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="1">
@@ -6228,8 +6228,8 @@
       <c r="C239" s="2">
         <v>22.62</v>
       </c>
-      <c r="D239">
-        <v>5.7486799999999998E-10</v>
+      <c r="D239" s="1">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="1">
@@ -6252,8 +6252,8 @@
       <c r="C240" s="2">
         <v>22.62</v>
       </c>
-      <c r="D240">
-        <v>5.7595900000000004E-10</v>
+      <c r="D240" s="1">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="1">
@@ -6276,8 +6276,8 @@
       <c r="C241" s="2">
         <v>22.62</v>
       </c>
-      <c r="D241">
-        <v>5.7674699999999997E-10</v>
+      <c r="D241" s="1">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="1">
@@ -6300,8 +6300,8 @@
       <c r="C242" s="2">
         <v>22.62</v>
       </c>
-      <c r="D242">
-        <v>5.7685599999999998E-10</v>
+      <c r="D242" s="1">
+        <v>2.4688799999999999E-9</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="1">
@@ -6324,8 +6324,8 @@
       <c r="C243" s="2">
         <v>22.62</v>
       </c>
-      <c r="D243">
-        <v>5.7790000000000004E-10</v>
+      <c r="D243" s="1">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="1">
@@ -6348,8 +6348,8 @@
       <c r="C244" s="2">
         <v>22.62</v>
       </c>
-      <c r="D244">
-        <v>5.7940700000000004E-10</v>
+      <c r="D244" s="1">
+        <v>2.7861210000000002E-9</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="1">
@@ -6372,8 +6372,8 @@
       <c r="C245" s="2">
         <v>22.62</v>
       </c>
-      <c r="D245">
-        <v>5.8086500000000004E-10</v>
+      <c r="D245" s="1">
+        <v>1.9611010000000001E-9</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="1">
@@ -6396,8 +6396,8 @@
       <c r="C246" s="2">
         <v>22.62</v>
       </c>
-      <c r="D246">
-        <v>5.8158400000000001E-10</v>
+      <c r="D246" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="1">
@@ -6420,8 +6420,8 @@
       <c r="C247" s="2">
         <v>22.62</v>
       </c>
-      <c r="D247">
-        <v>5.8244400000000004E-10</v>
+      <c r="D247" s="1">
+        <v>1.5222990000000001E-9</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="1">
@@ -6444,8 +6444,8 @@
       <c r="C248" s="2">
         <v>22.62</v>
       </c>
-      <c r="D248">
-        <v>5.8264900000000004E-10</v>
+      <c r="D248" s="1">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="1">
@@ -6468,8 +6468,8 @@
       <c r="C249" s="2">
         <v>22.62</v>
       </c>
-      <c r="D249">
-        <v>5.8381600000000002E-10</v>
+      <c r="D249" s="1">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="1">
@@ -6492,8 +6492,8 @@
       <c r="C250" s="2">
         <v>22.62</v>
       </c>
-      <c r="D250">
-        <v>5.8456500000000004E-10</v>
+      <c r="D250" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="1">
@@ -6516,8 +6516,8 @@
       <c r="C251" s="2">
         <v>22.62</v>
       </c>
-      <c r="D251">
-        <v>5.8565299999999996E-10</v>
+      <c r="D251" s="1">
+        <v>1.6032450000000001E-9</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="1">
@@ -6540,8 +6540,8 @@
       <c r="C252" s="2">
         <v>22.62</v>
       </c>
-      <c r="D252">
-        <v>5.8730299999999995E-10</v>
+      <c r="D252" s="1">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="1">
@@ -6564,8 +6564,8 @@
       <c r="C253" s="2">
         <v>22.62</v>
       </c>
-      <c r="D253">
-        <v>5.8965799999999999E-10</v>
+      <c r="D253" s="1">
+        <v>1.809256E-9</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="1">
@@ -6588,8 +6588,8 @@
       <c r="C254" s="2">
         <v>22.62</v>
       </c>
-      <c r="D254">
-        <v>5.9082499999999997E-10</v>
+      <c r="D254" s="1">
+        <v>2.3850640000000001E-9</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="1">
@@ -6612,8 +6612,8 @@
       <c r="C255" s="2">
         <v>22.62</v>
       </c>
-      <c r="D255">
-        <v>5.9264100000000004E-10</v>
+      <c r="D255" s="1">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="1">
@@ -6636,8 +6636,8 @@
       <c r="C256" s="2">
         <v>22.62</v>
       </c>
-      <c r="D256">
-        <v>5.9412999999999999E-10</v>
+      <c r="D256" s="1">
+        <v>2.3850640000000001E-9</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="1">
@@ -6660,8 +6660,8 @@
       <c r="C257" s="2">
         <v>22.62</v>
       </c>
-      <c r="D257">
-        <v>5.9586099999999995E-10</v>
+      <c r="D257" s="1">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F257" s="9"/>
       <c r="G257" s="1">
@@ -6684,8 +6684,8 @@
       <c r="C258" s="2">
         <v>22.62</v>
       </c>
-      <c r="D258">
-        <v>5.97216E-10</v>
+      <c r="D258" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F258" s="9"/>
       <c r="G258" s="1">
@@ -6708,8 +6708,8 @@
       <c r="C259" s="2">
         <v>22.62</v>
       </c>
-      <c r="D259">
-        <v>5.9805899999999999E-10</v>
+      <c r="D259" s="1">
+        <v>1.575796E-9</v>
       </c>
       <c r="F259" s="9"/>
       <c r="G259" s="1">
@@ -6732,8 +6732,8 @@
       <c r="C260" s="2">
         <v>22.62</v>
       </c>
-      <c r="D260">
-        <v>5.9881699999999998E-10</v>
+      <c r="D260" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="1">
@@ -6756,8 +6756,8 @@
       <c r="C261" s="2">
         <v>22.62</v>
       </c>
-      <c r="D261">
-        <v>5.9982E-10</v>
+      <c r="D261" s="1">
+        <v>1.487647E-9</v>
       </c>
       <c r="F261" s="9"/>
       <c r="G261" s="1">
@@ -6780,8 +6780,8 @@
       <c r="C262" s="2">
         <v>22.62</v>
       </c>
-      <c r="D262">
-        <v>6.0094200000000001E-10</v>
+      <c r="D262" s="1">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="1">
@@ -6804,8 +6804,8 @@
       <c r="C263" s="2">
         <v>22.62</v>
       </c>
-      <c r="D263">
-        <v>6.0156900000000001E-10</v>
+      <c r="D263" s="1">
+        <v>1.5222990000000001E-9</v>
       </c>
       <c r="F263" s="9"/>
       <c r="G263" s="1">
@@ -6828,8 +6828,8 @@
       <c r="C264" s="2">
         <v>22.62</v>
       </c>
-      <c r="D264">
-        <v>6.0145000000000003E-10</v>
+      <c r="D264" s="1">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F264" s="9"/>
       <c r="G264" s="1">
@@ -6852,8 +6852,8 @@
       <c r="C265" s="2">
         <v>22.62</v>
       </c>
-      <c r="D265">
-        <v>6.0109199999999995E-10</v>
+      <c r="D265" s="1">
+        <v>1.453784E-9</v>
       </c>
       <c r="F265" s="9"/>
       <c r="G265" s="1">
@@ -6876,8 +6876,8 @@
       <c r="C266" s="2">
         <v>22.62</v>
       </c>
-      <c r="D266">
-        <v>6.0108299999999998E-10</v>
+      <c r="D266" s="1">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="1">
@@ -6900,8 +6900,8 @@
       <c r="C267" s="2">
         <v>22.62</v>
       </c>
-      <c r="D267">
-        <v>6.0094500000000004E-10</v>
+      <c r="D267" s="1">
+        <v>1.584893E-9</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="1">
@@ -6924,8 +6924,8 @@
       <c r="C268" s="2">
         <v>22.62</v>
       </c>
-      <c r="D268">
-        <v>6.0135100000000001E-10</v>
+      <c r="D268" s="1">
+        <v>2.5263880000000002E-9</v>
       </c>
       <c r="F268" s="9"/>
       <c r="G268" s="1">
@@ -6948,8 +6948,8 @@
       <c r="C269" s="2">
         <v>22.62</v>
       </c>
-      <c r="D269">
-        <v>6.0145599999999998E-10</v>
+      <c r="D269" s="1">
+        <v>1.9054610000000001E-9</v>
       </c>
       <c r="F269" s="9"/>
       <c r="G269" s="1">
@@ -6972,8 +6972,8 @@
       <c r="C270" s="2">
         <v>22.62</v>
       </c>
-      <c r="D270">
-        <v>6.0267199999999996E-10</v>
+      <c r="D270" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F270" s="9"/>
       <c r="G270" s="1">
@@ -6996,8 +6996,8 @@
       <c r="C271" s="2">
         <v>22.62</v>
       </c>
-      <c r="D271">
-        <v>6.0328499999999995E-10</v>
+      <c r="D271" s="1">
+        <v>1.8945239999999998E-9</v>
       </c>
       <c r="F271" s="9"/>
       <c r="G271" s="1">
@@ -7020,8 +7020,8 @@
       <c r="C272" s="2">
         <v>22.62</v>
       </c>
-      <c r="D272">
-        <v>6.03797E-10</v>
+      <c r="D272" s="1">
+        <v>2.3307729999999999E-9</v>
       </c>
       <c r="F272" s="9"/>
       <c r="G272" s="1">
@@ -7044,8 +7044,8 @@
       <c r="C273" s="2">
         <v>22.62</v>
       </c>
-      <c r="D273">
-        <v>6.0404599999999996E-10</v>
+      <c r="D273" s="1">
+        <v>1.575796E-9</v>
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="1">
@@ -7068,8 +7068,8 @@
       <c r="C274" s="2">
         <v>22.62</v>
       </c>
-      <c r="D274">
-        <v>6.0462200000000004E-10</v>
+      <c r="D274" s="1">
+        <v>2.4126819999999998E-9</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="1">
@@ -7092,8 +7092,8 @@
       <c r="C275" s="2">
         <v>22.62</v>
       </c>
-      <c r="D275">
-        <v>6.0542600000000001E-10</v>
+      <c r="D275" s="1">
+        <v>1.5667509999999999E-9</v>
       </c>
       <c r="F275" s="9"/>
       <c r="G275" s="1">
@@ -7116,8 +7116,8 @@
       <c r="C276" s="2">
         <v>22.62</v>
       </c>
-      <c r="D276">
-        <v>6.0623099999999999E-10</v>
+      <c r="D276" s="1">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F276" s="9"/>
       <c r="G276" s="1">
@@ -7140,8 +7140,8 @@
       <c r="C277" s="2">
         <v>22.62</v>
       </c>
-      <c r="D277">
-        <v>6.0676500000000002E-10</v>
+      <c r="D277" s="1">
+        <v>1.504874E-9</v>
       </c>
       <c r="F277" s="9"/>
       <c r="G277" s="1">
@@ -7164,8 +7164,8 @@
       <c r="C278" s="2">
         <v>22.62</v>
       </c>
-      <c r="D278">
-        <v>6.08341E-10</v>
+      <c r="D278" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="1">
@@ -7188,8 +7188,8 @@
       <c r="C279" s="2">
         <v>22.62</v>
       </c>
-      <c r="D279">
-        <v>6.0929099999999998E-10</v>
+      <c r="D279" s="1">
+        <v>1.9724229999999998E-9</v>
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="1">
@@ -7212,8 +7212,8 @@
       <c r="C280" s="2">
         <v>22.62</v>
       </c>
-      <c r="D280">
-        <v>6.1066599999999999E-10</v>
+      <c r="D280" s="1">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F280" s="9"/>
       <c r="G280" s="1">
@@ -7236,8 +7236,8 @@
       <c r="C281" s="2">
         <v>22.62</v>
       </c>
-      <c r="D281">
-        <v>6.1141900000000004E-10</v>
+      <c r="D281" s="1">
+        <v>1.584893E-9</v>
       </c>
       <c r="F281" s="9"/>
       <c r="G281" s="1">
@@ -7260,8 +7260,8 @@
       <c r="C282" s="2">
         <v>22.62</v>
       </c>
-      <c r="D282">
-        <v>6.1267699999999997E-10</v>
+      <c r="D282" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F282" s="9"/>
       <c r="G282" s="1">
@@ -7284,8 +7284,8 @@
       <c r="C283" s="2">
         <v>22.62</v>
       </c>
-      <c r="D283">
-        <v>6.1320599999999996E-10</v>
+      <c r="D283" s="1">
+        <v>2.5852350000000001E-9</v>
       </c>
       <c r="F283" s="9"/>
       <c r="G283" s="1">
@@ -7308,8 +7308,8 @@
       <c r="C284" s="2">
         <v>22.62</v>
       </c>
-      <c r="D284">
-        <v>6.1437399999999995E-10</v>
+      <c r="D284" s="1">
+        <v>2.2258710000000002E-9</v>
       </c>
       <c r="F284" s="9"/>
       <c r="G284" s="1">
@@ -7332,8 +7332,8 @@
       <c r="C285" s="2">
         <v>22.62</v>
       </c>
-      <c r="D285">
-        <v>6.1565499999999998E-10</v>
+      <c r="D285" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="1">
@@ -7356,8 +7356,8 @@
       <c r="C286" s="2">
         <v>22.62</v>
       </c>
-      <c r="D286">
-        <v>6.1734199999999998E-10</v>
+      <c r="D286" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="1">
@@ -7380,8 +7380,8 @@
       <c r="C287" s="2">
         <v>22.62</v>
       </c>
-      <c r="D287">
-        <v>6.1876199999999996E-10</v>
+      <c r="D287" s="1">
+        <v>2.4688799999999999E-9</v>
       </c>
       <c r="F287" s="9"/>
       <c r="G287" s="1">
@@ -7404,8 +7404,8 @@
       <c r="C288" s="2">
         <v>22.62</v>
       </c>
-      <c r="D288">
-        <v>6.2027500000000001E-10</v>
+      <c r="D288" s="1">
+        <v>1.8407720000000001E-9</v>
       </c>
       <c r="F288" s="9"/>
       <c r="G288" s="1">
@@ -7428,8 +7428,8 @@
       <c r="C289" s="2">
         <v>22.62</v>
       </c>
-      <c r="D289">
-        <v>6.2155999999999997E-10</v>
+      <c r="D289" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F289" s="9"/>
       <c r="G289" s="1">
@@ -7452,8 +7452,8 @@
       <c r="C290" s="2">
         <v>22.62</v>
       </c>
-      <c r="D290">
-        <v>6.2280199999999998E-10</v>
+      <c r="D290" s="1">
+        <v>1.575796E-9</v>
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="1">
@@ -7476,8 +7476,8 @@
       <c r="C291" s="2">
         <v>22.62</v>
       </c>
-      <c r="D291">
-        <v>6.2338099999999998E-10</v>
+      <c r="D291" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F291" s="9"/>
       <c r="G291" s="1">
@@ -7500,8 +7500,8 @@
       <c r="C292" s="2">
         <v>22.62</v>
       </c>
-      <c r="D292">
-        <v>6.2386299999999998E-10</v>
+      <c r="D292" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F292" s="9"/>
       <c r="G292" s="1">
@@ -7524,8 +7524,8 @@
       <c r="C293" s="2">
         <v>22.62</v>
       </c>
-      <c r="D293">
-        <v>6.2448200000000002E-10</v>
+      <c r="D293" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F293" s="9"/>
       <c r="G293" s="1">
@@ -7548,8 +7548,8 @@
       <c r="C294" s="2">
         <v>22.62</v>
       </c>
-      <c r="D294">
-        <v>6.2561999999999996E-10</v>
+      <c r="D294" s="1">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F294" s="9"/>
       <c r="G294" s="1">
@@ -7572,8 +7572,8 @@
       <c r="C295" s="2">
         <v>22.62</v>
       </c>
-      <c r="D295">
-        <v>6.2669599999999998E-10</v>
+      <c r="D295" s="1">
+        <v>2.3988329999999998E-9</v>
       </c>
       <c r="F295" s="9"/>
       <c r="G295" s="1">
@@ -7596,8 +7596,8 @@
       <c r="C296" s="2">
         <v>22.62</v>
       </c>
-      <c r="D296">
-        <v>6.2742899999999996E-10</v>
+      <c r="D296" s="1">
+        <v>2.6454529999999999E-9</v>
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="1">
@@ -7620,8 +7620,8 @@
       <c r="C297" s="2">
         <v>22.62</v>
       </c>
-      <c r="D297">
-        <v>6.2823899999999999E-10</v>
+      <c r="D297" s="1">
+        <v>2.4126819999999998E-9</v>
       </c>
       <c r="F297" s="9"/>
       <c r="G297" s="1">
@@ -7644,8 +7644,8 @@
       <c r="C298" s="2">
         <v>22.62</v>
       </c>
-      <c r="D298">
-        <v>6.2881300000000005E-10</v>
+      <c r="D298" s="1">
+        <v>2.8840319999999998E-9</v>
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="1">
@@ -7668,8 +7668,8 @@
       <c r="C299" s="2">
         <v>22.62</v>
       </c>
-      <c r="D299">
-        <v>6.2911499999999995E-10</v>
+      <c r="D299" s="1">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F299" s="9"/>
       <c r="G299" s="1">
@@ -7692,8 +7692,8 @@
       <c r="C300" s="2">
         <v>22.62</v>
       </c>
-      <c r="D300">
-        <v>6.2953500000000004E-10</v>
+      <c r="D300" s="1">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F300" s="9"/>
       <c r="G300" s="1">
@@ -7716,8 +7716,8 @@
       <c r="C301" s="2">
         <v>22.62</v>
       </c>
-      <c r="D301">
-        <v>6.3034200000000003E-10</v>
+      <c r="D301" s="1">
+        <v>2.0067809999999999E-9</v>
       </c>
       <c r="F301" s="9"/>
       <c r="G301" s="1">
@@ -7740,8 +7740,8 @@
       <c r="C302" s="2">
         <v>22.62</v>
       </c>
-      <c r="D302">
-        <v>6.3159300000000001E-10</v>
+      <c r="D302" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F302" s="9"/>
       <c r="G302" s="1">
@@ -7764,8 +7764,8 @@
       <c r="C303" s="2">
         <v>22.62</v>
       </c>
-      <c r="D303">
-        <v>6.3293500000000005E-10</v>
+      <c r="D303" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F303" s="9"/>
       <c r="G303" s="1">
@@ -7788,8 +7788,8 @@
       <c r="C304" s="2">
         <v>22.62</v>
       </c>
-      <c r="D304">
-        <v>6.3471099999999998E-10</v>
+      <c r="D304" s="1">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F304" s="9"/>
       <c r="G304" s="1">
@@ -7812,8 +7812,8 @@
       <c r="C305" s="2">
         <v>22.62</v>
       </c>
-      <c r="D305">
-        <v>6.3610300000000003E-10</v>
+      <c r="D305" s="1">
+        <v>1.9611010000000001E-9</v>
       </c>
       <c r="F305" s="9"/>
       <c r="G305" s="1">
@@ -7836,8 +7836,8 @@
       <c r="C306" s="2">
         <v>22.62</v>
       </c>
-      <c r="D306">
-        <v>6.3815499999999995E-10</v>
+      <c r="D306" s="1">
+        <v>2.5263880000000002E-9</v>
       </c>
       <c r="F306" s="9"/>
       <c r="G306" s="1">
@@ -7860,8 +7860,8 @@
       <c r="C307" s="2">
         <v>22.62</v>
       </c>
-      <c r="D307">
-        <v>6.3966800000000001E-10</v>
+      <c r="D307" s="1">
+        <v>1.7579240000000001E-9</v>
       </c>
       <c r="F307" s="9"/>
       <c r="G307" s="1">
@@ -7884,8 +7884,8 @@
       <c r="C308" s="2">
         <v>22.62</v>
       </c>
-      <c r="D308">
-        <v>6.40957E-10</v>
+      <c r="D308" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F308" s="9"/>
       <c r="G308" s="1">
@@ -7908,8 +7908,8 @@
       <c r="C309" s="2">
         <v>22.62</v>
       </c>
-      <c r="D309">
-        <v>6.4220000000000002E-10</v>
+      <c r="D309" s="1">
+        <v>1.6500610000000001E-9</v>
       </c>
       <c r="F309" s="9"/>
       <c r="G309" s="1">
@@ -7932,8 +7932,8 @@
       <c r="C310" s="2">
         <v>22.62</v>
       </c>
-      <c r="D310">
-        <v>6.4328099999999998E-10</v>
+      <c r="D310" s="1">
+        <v>2.6607249999999998E-9</v>
       </c>
       <c r="F310" s="9"/>
       <c r="G310" s="1">
@@ -7956,8 +7956,8 @@
       <c r="C311" s="2">
         <v>22.62</v>
       </c>
-      <c r="D311">
-        <v>6.4490499999999996E-10</v>
+      <c r="D311" s="1">
+        <v>1.64059E-9</v>
       </c>
       <c r="F311" s="9"/>
       <c r="G311" s="1">
@@ -7980,8 +7980,8 @@
       <c r="C312" s="2">
         <v>22.62</v>
       </c>
-      <c r="D312">
-        <v>6.4625499999999996E-10</v>
+      <c r="D312" s="1">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F312" s="9"/>
       <c r="G312" s="1">
@@ -8004,8 +8004,8 @@
       <c r="C313" s="2">
         <v>22.62</v>
       </c>
-      <c r="D313">
-        <v>6.4734099999999997E-10</v>
+      <c r="D313" s="1">
+        <v>2.1627189999999998E-9</v>
       </c>
       <c r="F313" s="9"/>
       <c r="G313" s="1">
@@ -8028,8 +8028,8 @@
       <c r="C314" s="2">
         <v>22.62</v>
       </c>
-      <c r="D314">
-        <v>6.4798999999999995E-10</v>
+      <c r="D314" s="1">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F314" s="9"/>
       <c r="G314" s="1">
@@ -8052,8 +8052,8 @@
       <c r="C315" s="2">
         <v>22.62</v>
       </c>
-      <c r="D315">
-        <v>6.4822099999999997E-10</v>
+      <c r="D315" s="1">
+        <v>1.727826E-9</v>
       </c>
       <c r="F315" s="9"/>
       <c r="G315" s="1">
@@ -8076,8 +8076,8 @@
       <c r="C316" s="2">
         <v>22.62</v>
       </c>
-      <c r="D316">
-        <v>6.4878699999999996E-10</v>
+      <c r="D316" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F316" s="9"/>
       <c r="G316" s="1">
@@ -8100,8 +8100,8 @@
       <c r="C317" s="2">
         <v>22.62</v>
       </c>
-      <c r="D317">
-        <v>6.4977399999999995E-10</v>
+      <c r="D317" s="1">
+        <v>1.6884960000000001E-9</v>
       </c>
       <c r="F317" s="9"/>
       <c r="G317" s="1">
@@ -8124,8 +8124,8 @@
       <c r="C318" s="2">
         <v>22.62</v>
       </c>
-      <c r="D318">
-        <v>6.51033E-10</v>
+      <c r="D318" s="1">
+        <v>2.5263880000000002E-9</v>
       </c>
       <c r="F318" s="9"/>
       <c r="G318" s="1">
@@ -8148,8 +8148,8 @@
       <c r="C319" s="2">
         <v>22.62</v>
       </c>
-      <c r="D319">
-        <v>6.5152299999999996E-10</v>
+      <c r="D319" s="1">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F319" s="9"/>
       <c r="G319" s="1">
@@ -8172,8 +8172,8 @@
       <c r="C320" s="2">
         <v>22.62</v>
       </c>
-      <c r="D320">
-        <v>6.5176499999999997E-10</v>
+      <c r="D320" s="1">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F320" s="9"/>
       <c r="G320" s="1">
@@ -8196,8 +8196,8 @@
       <c r="C321" s="2">
         <v>22.62</v>
       </c>
-      <c r="D321">
-        <v>6.5196799999999996E-10</v>
+      <c r="D321" s="1">
+        <v>1.6595869999999999E-9</v>
       </c>
       <c r="F321" s="9"/>
       <c r="G321" s="1">
@@ -8220,8 +8220,8 @@
       <c r="C322" s="2">
         <v>22.62</v>
       </c>
-      <c r="D322">
-        <v>6.5237799999999996E-10</v>
+      <c r="D322" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F322" s="9"/>
       <c r="G322" s="1">
@@ -8244,8 +8244,8 @@
       <c r="C323" s="2">
         <v>22.62</v>
       </c>
-      <c r="D323">
-        <v>6.5298399999999999E-10</v>
+      <c r="D323" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F323" s="9"/>
       <c r="G323" s="1">
@@ -8268,8 +8268,8 @@
       <c r="C324" s="2">
         <v>22.62</v>
       </c>
-      <c r="D324">
-        <v>6.5422299999999996E-10</v>
+      <c r="D324" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="1">
@@ -8292,8 +8292,8 @@
       <c r="C325" s="2">
         <v>22.62</v>
       </c>
-      <c r="D325">
-        <v>6.5578099999999999E-10</v>
+      <c r="D325" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F325" s="9"/>
       <c r="G325" s="1">
@@ -8316,8 +8316,8 @@
       <c r="C326" s="2">
         <v>22.62</v>
       </c>
-      <c r="D326">
-        <v>6.5680499999999999E-10</v>
+      <c r="D326" s="1">
+        <v>2.4688799999999999E-9</v>
       </c>
       <c r="F326" s="9"/>
       <c r="G326" s="1">
@@ -8340,8 +8340,8 @@
       <c r="C327" s="2">
         <v>22.62</v>
       </c>
-      <c r="D327">
-        <v>6.5725600000000003E-10</v>
+      <c r="D327" s="1">
+        <v>2.834654E-9</v>
       </c>
       <c r="F327" s="9"/>
       <c r="G327" s="1">
@@ -8364,8 +8364,8 @@
       <c r="C328" s="2">
         <v>22.62</v>
       </c>
-      <c r="D328">
-        <v>6.57638E-10</v>
+      <c r="D328" s="1">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F328" s="9"/>
       <c r="G328" s="1">
@@ -8388,8 +8388,8 @@
       <c r="C329" s="2">
         <v>22.62</v>
       </c>
-      <c r="D329">
-        <v>6.5825700000000004E-10</v>
+      <c r="D329" s="1">
+        <v>2.93427E-9</v>
       </c>
       <c r="F329" s="9"/>
       <c r="G329" s="1">
@@ -8412,8 +8412,8 @@
       <c r="C330" s="2">
         <v>22.62</v>
       </c>
-      <c r="D330">
-        <v>6.5996099999999997E-10</v>
+      <c r="D330" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F330" s="9"/>
       <c r="G330" s="1">
@@ -8436,8 +8436,8 @@
       <c r="C331" s="2">
         <v>22.62</v>
       </c>
-      <c r="D331">
-        <v>6.6228400000000005E-10</v>
+      <c r="D331" s="1">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F331" s="9"/>
       <c r="G331" s="1">
@@ -8460,8 +8460,8 @@
       <c r="C332" s="2">
         <v>22.62</v>
       </c>
-      <c r="D332">
-        <v>6.6396099999999996E-10</v>
+      <c r="D332" s="1">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F332" s="9"/>
       <c r="G332" s="1">
@@ -8484,8 +8484,8 @@
       <c r="C333" s="2">
         <v>22.62</v>
       </c>
-      <c r="D333">
-        <v>6.6531199999999997E-10</v>
+      <c r="D333" s="1">
+        <v>2.5852350000000001E-9</v>
       </c>
       <c r="F333" s="9"/>
       <c r="G333" s="1">
@@ -8508,8 +8508,8 @@
       <c r="C334" s="2">
         <v>22.62</v>
       </c>
-      <c r="D334">
-        <v>6.6662899999999999E-10</v>
+      <c r="D334" s="1">
+        <v>2.483133E-9</v>
       </c>
       <c r="F334" s="9"/>
       <c r="G334" s="1">
@@ -8532,8 +8532,8 @@
       <c r="C335" s="2">
         <v>22.62</v>
       </c>
-      <c r="D335">
-        <v>6.67799E-10</v>
+      <c r="D335" s="1">
+        <v>3.002617E-9</v>
       </c>
       <c r="F335" s="9"/>
       <c r="G335" s="1">
@@ -8556,8 +8556,8 @@
       <c r="C336" s="2">
         <v>22.62</v>
       </c>
-      <c r="D336">
-        <v>6.6785000000000003E-10</v>
+      <c r="D336" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F336" s="9"/>
       <c r="G336" s="1">
@@ -8580,8 +8580,8 @@
       <c r="C337" s="2">
         <v>22.62</v>
       </c>
-      <c r="D337">
-        <v>6.6876999999999996E-10</v>
+      <c r="D337" s="1">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F337" s="9"/>
       <c r="G337" s="1">
@@ -8604,8 +8604,8 @@
       <c r="C338" s="2">
         <v>22.62</v>
       </c>
-      <c r="D338">
-        <v>6.6956799999999998E-10</v>
+      <c r="D338" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F338" s="9"/>
       <c r="G338" s="1">
@@ -8628,8 +8628,8 @@
       <c r="C339" s="2">
         <v>22.62</v>
       </c>
-      <c r="D339">
-        <v>6.7037299999999996E-10</v>
+      <c r="D339" s="1">
+        <v>2.754229E-9</v>
       </c>
       <c r="F339" s="9"/>
       <c r="G339" s="1">
@@ -8652,8 +8652,8 @@
       <c r="C340" s="2">
         <v>22.62</v>
       </c>
-      <c r="D340">
-        <v>6.7119100000000005E-10</v>
+      <c r="D340" s="1">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F340" s="9"/>
       <c r="G340" s="1">
@@ -8676,8 +8676,8 @@
       <c r="C341" s="2">
         <v>22.62</v>
       </c>
-      <c r="D341">
-        <v>6.7170900000000004E-10</v>
+      <c r="D341" s="1">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F341" s="9"/>
       <c r="G341" s="1">
@@ -8700,8 +8700,8 @@
       <c r="C342" s="2">
         <v>22.62</v>
       </c>
-      <c r="D342">
-        <v>6.7274200000000001E-10</v>
+      <c r="D342" s="1">
+        <v>2.1256899999999999E-9</v>
       </c>
       <c r="F342" s="9"/>
       <c r="G342" s="1">
@@ -8724,8 +8724,8 @@
       <c r="C343" s="2">
         <v>22.62</v>
       </c>
-      <c r="D343">
-        <v>6.7328199999999999E-10</v>
+      <c r="D343" s="1">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F343" s="9"/>
       <c r="G343" s="1">
@@ -8748,8 +8748,8 @@
       <c r="C344" s="2">
         <v>22.62</v>
       </c>
-      <c r="D344">
-        <v>6.7392500000000003E-10</v>
+      <c r="D344" s="1">
+        <v>1.7579240000000001E-9</v>
       </c>
       <c r="F344" s="9"/>
       <c r="G344" s="1">
@@ -8772,8 +8772,8 @@
       <c r="C345" s="2">
         <v>22.62</v>
       </c>
-      <c r="D345">
-        <v>6.7473300000000003E-10</v>
+      <c r="D345" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F345" s="9"/>
       <c r="G345" s="1">
@@ -8796,8 +8796,8 @@
       <c r="C346" s="2">
         <v>22.62</v>
       </c>
-      <c r="D346">
-        <v>6.76766E-10</v>
+      <c r="D346" s="1">
+        <v>1.6788040000000001E-9</v>
       </c>
       <c r="F346" s="9"/>
       <c r="G346" s="1">
@@ -8820,8 +8820,8 @@
       <c r="C347" s="2">
         <v>22.62</v>
       </c>
-      <c r="D347">
-        <v>6.7795799999999999E-10</v>
+      <c r="D347" s="1">
+        <v>2.676086E-9</v>
       </c>
       <c r="F347" s="9"/>
       <c r="G347" s="1">
@@ -8844,8 +8844,8 @@
       <c r="C348" s="2">
         <v>22.62</v>
       </c>
-      <c r="D348">
-        <v>6.7919000000000001E-10</v>
+      <c r="D348" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F348" s="9"/>
       <c r="G348" s="1">
@@ -8868,8 +8868,8 @@
       <c r="C349" s="2">
         <v>22.62</v>
       </c>
-      <c r="D349">
-        <v>6.8045299999999999E-10</v>
+      <c r="D349" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F349" s="9"/>
       <c r="G349" s="1">
@@ -8892,8 +8892,8 @@
       <c r="C350" s="2">
         <v>22.62</v>
       </c>
-      <c r="D350">
-        <v>6.81756E-10</v>
+      <c r="D350" s="1">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F350" s="9"/>
       <c r="G350" s="1">
@@ -8916,8 +8916,8 @@
       <c r="C351" s="2">
         <v>22.62</v>
       </c>
-      <c r="D351">
-        <v>6.8311399999999996E-10</v>
+      <c r="D351" s="1">
+        <v>2.6915350000000001E-9</v>
       </c>
       <c r="F351" s="9"/>
       <c r="G351" s="1">
@@ -8940,8 +8940,8 @@
       <c r="C352" s="2">
         <v>22.62</v>
       </c>
-      <c r="D352">
-        <v>6.8450199999999998E-10</v>
+      <c r="D352" s="1">
+        <v>1.9611010000000001E-9</v>
       </c>
       <c r="F352" s="9"/>
       <c r="G352" s="1">
@@ -8964,8 +8964,8 @@
       <c r="C353" s="2">
         <v>22.62</v>
       </c>
-      <c r="D353">
-        <v>6.8593699999999999E-10</v>
+      <c r="D353" s="1">
+        <v>2.6454529999999999E-9</v>
       </c>
       <c r="F353" s="9"/>
       <c r="G353" s="1">
@@ -8988,8 +8988,8 @@
       <c r="C354" s="2">
         <v>22.62</v>
       </c>
-      <c r="D354">
-        <v>6.8688599999999996E-10</v>
+      <c r="D354" s="1">
+        <v>1.788546E-9</v>
       </c>
       <c r="F354" s="9"/>
       <c r="G354" s="1">
@@ -9012,8 +9012,8 @@
       <c r="C355" s="2">
         <v>22.62</v>
       </c>
-      <c r="D355">
-        <v>6.8806500000000004E-10</v>
+      <c r="D355" s="1">
+        <v>2.722701E-9</v>
       </c>
       <c r="F355" s="9"/>
       <c r="G355" s="1">
@@ -9036,8 +9036,8 @@
       <c r="C356" s="2">
         <v>22.62</v>
       </c>
-      <c r="D356">
-        <v>6.8899200000000003E-10</v>
+      <c r="D356" s="1">
+        <v>1.7579240000000001E-9</v>
       </c>
       <c r="F356" s="9"/>
       <c r="G356" s="1">
@@ -9060,8 +9060,8 @@
       <c r="C357" s="2">
         <v>22.62</v>
       </c>
-      <c r="D357">
-        <v>6.9028000000000002E-10</v>
+      <c r="D357" s="1">
+        <v>2.676086E-9</v>
       </c>
       <c r="F357" s="9"/>
       <c r="G357" s="1">
@@ -9084,8 +9084,8 @@
       <c r="C358" s="2">
         <v>22.62</v>
       </c>
-      <c r="D358">
-        <v>6.9125199999999998E-10</v>
+      <c r="D358" s="1">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F358" s="9"/>
       <c r="G358" s="1">
@@ -9108,8 +9108,8 @@
       <c r="C359" s="2">
         <v>22.62</v>
       </c>
-      <c r="D359">
-        <v>6.9228999999999999E-10</v>
+      <c r="D359" s="1">
+        <v>2.722701E-9</v>
       </c>
       <c r="F359" s="9"/>
       <c r="G359" s="1">
@@ -9132,8 +9132,8 @@
       <c r="C360" s="2">
         <v>22.62</v>
       </c>
-      <c r="D360">
-        <v>6.9385199999999995E-10</v>
+      <c r="D360" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F360" s="9"/>
       <c r="G360" s="1">
@@ -9156,8 +9156,8 @@
       <c r="C361" s="2">
         <v>22.62</v>
       </c>
-      <c r="D361">
-        <v>6.9524199999999999E-10</v>
+      <c r="D361" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F361" s="9"/>
       <c r="G361" s="1">
@@ -9180,8 +9180,8 @@
       <c r="C362" s="2">
         <v>22.62</v>
       </c>
-      <c r="D362">
-        <v>6.9632100000000004E-10</v>
+      <c r="D362" s="1">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F362" s="9"/>
       <c r="G362" s="1">
@@ -9204,8 +9204,8 @@
       <c r="C363" s="2">
         <v>22.62</v>
       </c>
-      <c r="D363">
-        <v>6.9659700000000003E-10</v>
+      <c r="D363" s="1">
+        <v>2.7861210000000002E-9</v>
       </c>
       <c r="F363" s="9"/>
       <c r="G363" s="1">
@@ -9228,8 +9228,8 @@
       <c r="C364" s="2">
         <v>22.62</v>
       </c>
-      <c r="D364">
-        <v>6.97052E-10</v>
+      <c r="D364" s="1">
+        <v>2.113489E-9</v>
       </c>
       <c r="F364" s="9"/>
       <c r="G364" s="1">
@@ -9252,8 +9252,8 @@
       <c r="C365" s="2">
         <v>22.62</v>
       </c>
-      <c r="D365">
-        <v>6.9858500000000002E-10</v>
+      <c r="D365" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F365" s="9"/>
       <c r="G365" s="1">
@@ -9276,8 +9276,8 @@
       <c r="C366" s="2">
         <v>22.62</v>
       </c>
-      <c r="D366">
-        <v>6.9915000000000001E-10</v>
+      <c r="D366" s="1">
+        <v>2.2130950000000002E-9</v>
       </c>
       <c r="F366" s="9"/>
       <c r="G366" s="1">
@@ -9300,8 +9300,8 @@
       <c r="C367" s="2">
         <v>22.62</v>
       </c>
-      <c r="D367">
-        <v>6.9977099999999996E-10</v>
+      <c r="D367" s="1">
+        <v>2.93427E-9</v>
       </c>
       <c r="F367" s="9"/>
       <c r="G367" s="1">
@@ -9324,8 +9324,8 @@
       <c r="C368" s="2">
         <v>22.62</v>
       </c>
-      <c r="D368">
-        <v>7.0131499999999997E-10</v>
+      <c r="D368" s="1">
+        <v>2.0892960000000002E-9</v>
       </c>
       <c r="F368" s="9"/>
       <c r="G368" s="1">
@@ -9348,8 +9348,8 @@
       <c r="C369" s="2">
         <v>22.62</v>
       </c>
-      <c r="D369">
-        <v>7.0350200000000002E-10</v>
+      <c r="D369" s="1">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F369" s="9"/>
       <c r="G369" s="1">
@@ -9372,8 +9372,8 @@
       <c r="C370" s="2">
         <v>22.62</v>
       </c>
-      <c r="D370">
-        <v>7.0450799999999996E-10</v>
+      <c r="D370" s="1">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F370" s="9"/>
       <c r="G370" s="1">
@@ -9396,8 +9396,8 @@
       <c r="C371" s="2">
         <v>22.62</v>
       </c>
-      <c r="D371">
-        <v>7.0499299999999999E-10</v>
+      <c r="D371" s="1">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F371" s="9"/>
       <c r="G371" s="1">
@@ -9420,8 +9420,8 @@
       <c r="C372" s="2">
         <v>22.62</v>
       </c>
-      <c r="D372">
-        <v>7.0641800000000001E-10</v>
+      <c r="D372" s="1">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F372" s="9"/>
       <c r="G372" s="1">
@@ -9444,8 +9444,8 @@
       <c r="C373" s="2">
         <v>22.62</v>
       </c>
-      <c r="D373">
-        <v>7.0778200000000003E-10</v>
+      <c r="D373" s="1">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F373" s="9"/>
       <c r="G373" s="1">
@@ -9468,8 +9468,8 @@
       <c r="C374" s="2">
         <v>22.62</v>
       </c>
-      <c r="D374">
-        <v>7.0888100000000005E-10</v>
+      <c r="D374" s="1">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F374" s="9"/>
       <c r="G374" s="1">
@@ -9492,8 +9492,8 @@
       <c r="C375" s="2">
         <v>22.62</v>
       </c>
-      <c r="D375">
-        <v>7.0965799999999999E-10</v>
+      <c r="D375" s="1">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F375" s="9"/>
       <c r="G375" s="1">
@@ -9516,8 +9516,8 @@
       <c r="C376" s="2">
         <v>22.62</v>
       </c>
-      <c r="D376">
-        <v>7.1100200000000004E-10</v>
+      <c r="D376" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F376" s="9"/>
       <c r="G376" s="1">
@@ -9540,8 +9540,8 @@
       <c r="C377" s="2">
         <v>22.62</v>
       </c>
-      <c r="D377">
-        <v>7.1259699999999997E-10</v>
+      <c r="D377" s="1">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F377" s="9"/>
       <c r="G377" s="1">
@@ -9564,8 +9564,8 @@
       <c r="C378" s="2">
         <v>22.62</v>
       </c>
-      <c r="D378">
-        <v>7.1319799999999996E-10</v>
+      <c r="D378" s="1">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F378" s="9"/>
       <c r="G378" s="1">
@@ -9588,8 +9588,8 @@
       <c r="C379" s="2">
         <v>22.62</v>
       </c>
-      <c r="D379">
-        <v>7.1364699999999999E-10</v>
+      <c r="D379" s="1">
+        <v>3.273407E-9</v>
       </c>
       <c r="F379" s="9"/>
       <c r="G379" s="1">
@@ -9612,8 +9612,8 @@
       <c r="C380" s="2">
         <v>22.62</v>
       </c>
-      <c r="D380">
-        <v>7.1456099999999997E-10</v>
+      <c r="D380" s="1">
+        <v>2.630268E-9</v>
       </c>
       <c r="F380" s="9"/>
       <c r="G380" s="1">
@@ -9636,8 +9636,8 @@
       <c r="C381" s="2">
         <v>22.62</v>
       </c>
-      <c r="D381">
-        <v>7.1569699999999999E-10</v>
+      <c r="D381" s="1">
+        <v>3.180534E-9</v>
       </c>
       <c r="F381" s="9"/>
       <c r="G381" s="1">
@@ -9660,8 +9660,8 @@
       <c r="C382" s="2">
         <v>22.62</v>
       </c>
-      <c r="D382">
-        <v>7.1697800000000002E-10</v>
+      <c r="D382" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F382" s="9"/>
       <c r="G382" s="1">
@@ -9684,8 +9684,8 @@
       <c r="C383" s="2">
         <v>22.62</v>
       </c>
-      <c r="D383">
-        <v>7.1717100000000002E-10</v>
+      <c r="D383" s="1">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F383" s="9"/>
       <c r="G383" s="1">
@@ -9708,8 +9708,8 @@
       <c r="C384" s="2">
         <v>22.62</v>
       </c>
-      <c r="D384">
-        <v>7.18337E-10</v>
+      <c r="D384" s="1">
+        <v>2.754229E-9</v>
       </c>
       <c r="F384" s="9"/>
       <c r="G384" s="1">
@@ -9732,8 +9732,8 @@
       <c r="C385" s="2">
         <v>22.62</v>
       </c>
-      <c r="D385">
-        <v>7.20398E-10</v>
+      <c r="D385" s="1">
+        <v>3.273407E-9</v>
       </c>
       <c r="F385" s="9"/>
       <c r="G385" s="1">
@@ -9756,8 +9756,8 @@
       <c r="C386" s="2">
         <v>22.62</v>
       </c>
-      <c r="D386">
-        <v>7.2192100000000003E-10</v>
+      <c r="D386" s="1">
+        <v>2.6915350000000001E-9</v>
       </c>
       <c r="F386" s="9"/>
       <c r="G386" s="1">
@@ -9780,8 +9780,8 @@
       <c r="C387" s="2">
         <v>22.62</v>
       </c>
-      <c r="D387">
-        <v>7.23291E-10</v>
+      <c r="D387" s="1">
+        <v>3.2546179999999999E-9</v>
       </c>
       <c r="F387" s="9"/>
       <c r="G387" s="1">
@@ -9804,8 +9804,8 @@
       <c r="C388" s="2">
         <v>22.62</v>
       </c>
-      <c r="D388">
-        <v>7.2455299999999997E-10</v>
+      <c r="D388" s="1">
+        <v>2.867477E-9</v>
       </c>
       <c r="F388" s="9"/>
       <c r="G388" s="1">
@@ -9828,8 +9828,8 @@
       <c r="C389" s="2">
         <v>22.62</v>
       </c>
-      <c r="D389">
-        <v>7.2591299999999995E-10</v>
+      <c r="D389" s="1">
+        <v>1.8407720000000001E-9</v>
       </c>
       <c r="F389" s="9"/>
       <c r="G389" s="1">
@@ -9852,8 +9852,8 @@
       <c r="C390" s="2">
         <v>22.62</v>
       </c>
-      <c r="D390">
-        <v>7.2672199999999996E-10</v>
+      <c r="D390" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F390" s="9"/>
       <c r="G390" s="1">
@@ -9876,8 +9876,8 @@
       <c r="C391" s="2">
         <v>22.62</v>
       </c>
-      <c r="D391">
-        <v>7.2793600000000004E-10</v>
+      <c r="D391" s="1">
+        <v>2.3577620000000002E-9</v>
       </c>
       <c r="F391" s="9"/>
       <c r="G391" s="1">
@@ -9900,8 +9900,8 @@
       <c r="C392" s="2">
         <v>22.62</v>
       </c>
-      <c r="D392">
-        <v>7.28643E-10</v>
+      <c r="D392" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F392" s="9"/>
       <c r="G392" s="1">
@@ -9924,8 +9924,8 @@
       <c r="C393" s="2">
         <v>22.62</v>
       </c>
-      <c r="D393">
-        <v>7.28823E-10</v>
+      <c r="D393" s="1">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F393" s="9"/>
       <c r="G393" s="1">
@@ -9948,8 +9948,8 @@
       <c r="C394" s="2">
         <v>22.62</v>
       </c>
-      <c r="D394">
-        <v>7.29064E-10</v>
+      <c r="D394" s="1">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F394" s="9"/>
       <c r="G394" s="1">
@@ -9972,8 +9972,8 @@
       <c r="C395" s="2">
         <v>22.62</v>
       </c>
-      <c r="D395">
-        <v>7.2932599999999997E-10</v>
+      <c r="D395" s="1">
+        <v>3.273407E-9</v>
       </c>
       <c r="F395" s="9"/>
       <c r="G395" s="1">
@@ -9996,8 +9996,8 @@
       <c r="C396" s="2">
         <v>22.62</v>
       </c>
-      <c r="D396">
-        <v>7.2945799999999996E-10</v>
+      <c r="D396" s="1">
+        <v>2.867477E-9</v>
       </c>
       <c r="F396" s="9"/>
       <c r="G396" s="1">
@@ -10020,8 +10020,8 @@
       <c r="C397" s="2">
         <v>22.62</v>
       </c>
-      <c r="D397">
-        <v>7.29751E-10</v>
+      <c r="D397" s="1">
+        <v>3.090295E-9</v>
       </c>
       <c r="F397" s="9"/>
       <c r="G397" s="1">
@@ -10044,8 +10044,8 @@
       <c r="C398" s="2">
         <v>22.62</v>
       </c>
-      <c r="D398">
-        <v>7.3032899999999999E-10</v>
+      <c r="D398" s="1">
+        <v>2.676086E-9</v>
       </c>
       <c r="F398" s="9"/>
       <c r="G398" s="1">
@@ -10068,8 +10068,8 @@
       <c r="C399" s="2">
         <v>22.62</v>
       </c>
-      <c r="D399">
-        <v>7.31318E-10</v>
+      <c r="D399" s="1">
+        <v>3.507519E-9</v>
       </c>
       <c r="F399" s="9"/>
       <c r="G399" s="1">
@@ -10092,8 +10092,8 @@
       <c r="C400" s="2">
         <v>22.62</v>
       </c>
-      <c r="D400">
-        <v>7.3241099999999996E-10</v>
+      <c r="D400" s="1">
+        <v>2.6001599999999998E-9</v>
       </c>
       <c r="F400" s="9"/>
       <c r="G400" s="1">
@@ -10116,8 +10116,8 @@
       <c r="C401" s="2">
         <v>22.62</v>
       </c>
-      <c r="D401">
-        <v>7.3343899999999999E-10</v>
+      <c r="D401" s="1">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F401" s="9"/>
       <c r="G401" s="1">
@@ -10140,8 +10140,8 @@
       <c r="C402" s="2">
         <v>22.62</v>
       </c>
-      <c r="D402">
-        <v>7.3483199999999995E-10</v>
+      <c r="D402" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F402" s="9"/>
       <c r="G402" s="1">
@@ -10164,8 +10164,8 @@
       <c r="C403" s="2">
         <v>22.62</v>
       </c>
-      <c r="D403">
-        <v>7.3701699999999998E-10</v>
+      <c r="D403" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F403" s="9"/>
       <c r="G403" s="1">
@@ -10188,8 +10188,8 @@
       <c r="C404" s="2">
         <v>22.62</v>
       </c>
-      <c r="D404">
-        <v>7.3898299999999999E-10</v>
+      <c r="D404" s="1">
+        <v>2.0183659999999999E-9</v>
       </c>
       <c r="F404" s="9"/>
       <c r="G404" s="1">
@@ -10212,8 +10212,8 @@
       <c r="C405" s="2">
         <v>22.62</v>
       </c>
-      <c r="D405">
-        <v>7.4121800000000004E-10</v>
+      <c r="D405" s="1">
+        <v>2.985383E-9</v>
       </c>
       <c r="F405" s="9"/>
       <c r="G405" s="1">
@@ -10236,8 +10236,8 @@
       <c r="C406" s="2">
         <v>22.62</v>
       </c>
-      <c r="D406">
-        <v>7.4251499999999999E-10</v>
+      <c r="D406" s="1">
+        <v>2.6915350000000001E-9</v>
       </c>
       <c r="F406" s="9"/>
       <c r="G406" s="1">
@@ -10260,8 +10260,8 @@
       <c r="C407" s="2">
         <v>22.62</v>
       </c>
-      <c r="D407">
-        <v>7.4361500000000002E-10</v>
+      <c r="D407" s="1">
+        <v>2.985383E-9</v>
       </c>
       <c r="F407" s="9"/>
       <c r="G407" s="1">
@@ -10284,8 +10284,8 @@
       <c r="C408" s="2">
         <v>22.62</v>
       </c>
-      <c r="D408">
-        <v>7.4401799999999996E-10</v>
+      <c r="D408" s="1">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F408" s="9"/>
       <c r="G408" s="1">
@@ -10308,8 +10308,8 @@
       <c r="C409" s="2">
         <v>22.62</v>
       </c>
-      <c r="D409">
-        <v>7.4444500000000001E-10</v>
+      <c r="D409" s="1">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F409" s="9"/>
       <c r="G409" s="1">
@@ -10332,8 +10332,8 @@
       <c r="C410" s="2">
         <v>22.62</v>
       </c>
-      <c r="D410">
-        <v>7.4499699999999999E-10</v>
+      <c r="D410" s="1">
+        <v>1.9611010000000001E-9</v>
       </c>
       <c r="F410" s="9"/>
       <c r="G410" s="1">
@@ -10356,8 +10356,8 @@
       <c r="C411" s="2">
         <v>22.62</v>
       </c>
-      <c r="D411">
-        <v>7.4590899999999995E-10</v>
+      <c r="D411" s="1">
+        <v>3.002617E-9</v>
       </c>
       <c r="F411" s="9"/>
       <c r="G411" s="1">
@@ -10380,8 +10380,8 @@
       <c r="C412" s="2">
         <v>22.62</v>
       </c>
-      <c r="D412">
-        <v>7.4730500000000004E-10</v>
+      <c r="D412" s="1">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F412" s="9"/>
       <c r="G412" s="1">
@@ -10404,8 +10404,8 @@
       <c r="C413" s="2">
         <v>22.62</v>
       </c>
-      <c r="D413">
-        <v>7.4960700000000004E-10</v>
+      <c r="D413" s="1">
+        <v>3.002617E-9</v>
       </c>
       <c r="F413" s="9"/>
       <c r="G413" s="1">
@@ -10428,8 +10428,8 @@
       <c r="C414" s="2">
         <v>22.62</v>
       </c>
-      <c r="D414">
-        <v>7.5152400000000004E-10</v>
+      <c r="D414" s="1">
+        <v>3.002617E-9</v>
       </c>
       <c r="F414" s="9"/>
       <c r="G414" s="1">
@@ -10452,8 +10452,8 @@
       <c r="C415" s="2">
         <v>22.62</v>
       </c>
-      <c r="D415">
-        <v>7.5340999999999999E-10</v>
+      <c r="D415" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F415" s="9"/>
       <c r="G415" s="1">
@@ -10476,8 +10476,8 @@
       <c r="C416" s="2">
         <v>22.62</v>
       </c>
-      <c r="D416">
-        <v>7.5522E-10</v>
+      <c r="D416" s="1">
+        <v>2.1503049999999998E-9</v>
       </c>
       <c r="F416" s="9"/>
       <c r="G416" s="1">
@@ -10500,8 +10500,8 @@
       <c r="C417" s="2">
         <v>22.62</v>
       </c>
-      <c r="D417">
-        <v>7.5639999999999999E-10</v>
+      <c r="D417" s="1">
+        <v>2.985383E-9</v>
       </c>
       <c r="F417" s="9"/>
       <c r="G417" s="1">
@@ -10524,8 +10524,8 @@
       <c r="C418" s="2">
         <v>22.62</v>
       </c>
-      <c r="D418">
-        <v>7.5721899999999999E-10</v>
+      <c r="D418" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F418" s="9"/>
       <c r="G418" s="1">
@@ -10548,8 +10548,8 @@
       <c r="C419" s="2">
         <v>22.62</v>
       </c>
-      <c r="D419">
-        <v>7.5860800000000001E-10</v>
+      <c r="D419" s="1">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F419" s="9"/>
       <c r="G419" s="1">
@@ -10572,8 +10572,8 @@
       <c r="C420" s="2">
         <v>22.62</v>
       </c>
-      <c r="D420">
-        <v>7.6084499999999997E-10</v>
+      <c r="D420" s="1">
+        <v>1.9386529999999998E-9</v>
       </c>
       <c r="F420" s="9"/>
       <c r="G420" s="1">
@@ -10596,8 +10596,8 @@
       <c r="C421" s="2">
         <v>22.62</v>
       </c>
-      <c r="D421">
-        <v>7.6331100000000003E-10</v>
+      <c r="D421" s="1">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F421" s="9"/>
       <c r="G421" s="1">
@@ -10620,8 +10620,8 @@
       <c r="C422" s="2">
         <v>22.62</v>
       </c>
-      <c r="D422">
-        <v>7.6411399999999999E-10</v>
+      <c r="D422" s="1">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F422" s="9"/>
       <c r="G422" s="1">
@@ -10644,8 +10644,8 @@
       <c r="C423" s="2">
         <v>22.62</v>
       </c>
-      <c r="D423">
-        <v>7.6360100000000004E-10</v>
+      <c r="D423" s="1">
+        <v>3.651741E-9</v>
       </c>
       <c r="F423" s="9"/>
       <c r="G423" s="1">
@@ -10668,8 +10668,8 @@
       <c r="C424" s="2">
         <v>22.62</v>
       </c>
-      <c r="D424">
-        <v>7.6303599999999995E-10</v>
+      <c r="D424" s="1">
+        <v>2.0773039999999999E-9</v>
       </c>
       <c r="F424" s="9"/>
       <c r="G424" s="1">
@@ -10692,8 +10692,8 @@
       <c r="C425" s="2">
         <v>22.62</v>
       </c>
-      <c r="D425">
-        <v>7.6303899999999997E-10</v>
+      <c r="D425" s="1">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F425" s="9"/>
       <c r="G425" s="1">
@@ -10716,8 +10716,8 @@
       <c r="C426" s="2">
         <v>22.62</v>
       </c>
-      <c r="D426">
-        <v>7.6384699999999998E-10</v>
+      <c r="D426" s="1">
+        <v>2.7701289999999999E-9</v>
       </c>
       <c r="F426" s="9"/>
       <c r="G426" s="1">
@@ -10740,8 +10740,8 @@
       <c r="C427" s="2">
         <v>22.62</v>
       </c>
-      <c r="D427">
-        <v>7.6516099999999998E-10</v>
+      <c r="D427" s="1">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F427" s="9"/>
       <c r="G427" s="1">
@@ -10764,8 +10764,8 @@
       <c r="C428" s="2">
         <v>22.62</v>
       </c>
-      <c r="D428">
-        <v>7.6726500000000004E-10</v>
+      <c r="D428" s="1">
+        <v>2.6915350000000001E-9</v>
       </c>
       <c r="F428" s="9"/>
       <c r="G428" s="1">
@@ -10788,8 +10788,8 @@
       <c r="C429" s="2">
         <v>22.62</v>
       </c>
-      <c r="D429">
-        <v>7.6936399999999995E-10</v>
+      <c r="D429" s="1">
+        <v>3.037386E-9</v>
       </c>
       <c r="F429" s="9"/>
       <c r="G429" s="1">
@@ -10812,8 +10812,8 @@
       <c r="C430" s="2">
         <v>22.62</v>
       </c>
-      <c r="D430">
-        <v>7.7134800000000001E-10</v>
+      <c r="D430" s="1">
+        <v>2.5409729999999999E-9</v>
       </c>
       <c r="F430" s="9"/>
       <c r="G430" s="1">
@@ -10836,8 +10836,8 @@
       <c r="C431" s="2">
         <v>22.62</v>
       </c>
-      <c r="D431">
-        <v>7.7169199999999997E-10</v>
+      <c r="D431" s="1">
+        <v>3.1441259999999999E-9</v>
       </c>
       <c r="F431" s="9"/>
       <c r="G431" s="1">
@@ -10860,8 +10860,8 @@
       <c r="C432" s="2">
         <v>22.62</v>
       </c>
-      <c r="D432">
-        <v>7.7175499999999999E-10</v>
+      <c r="D432" s="1">
+        <v>2.4688799999999999E-9</v>
       </c>
       <c r="F432" s="9"/>
       <c r="G432" s="1">
@@ -10884,8 +10884,8 @@
       <c r="C433" s="2">
         <v>22.62</v>
       </c>
-      <c r="D433">
-        <v>7.7236200000000003E-10</v>
+      <c r="D433" s="1">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F433" s="9"/>
       <c r="G433" s="1">
@@ -10908,8 +10908,8 @@
       <c r="C434" s="2">
         <v>22.62</v>
       </c>
-      <c r="D434">
-        <v>7.7349999999999997E-10</v>
+      <c r="D434" s="1">
+        <v>2.676086E-9</v>
       </c>
       <c r="F434" s="9"/>
       <c r="G434" s="1">
@@ -10932,8 +10932,8 @@
       <c r="C435" s="2">
         <v>22.62</v>
       </c>
-      <c r="D435">
-        <v>7.7435699999999998E-10</v>
+      <c r="D435" s="1">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F435" s="9"/>
       <c r="G435" s="1">
@@ -10956,8 +10956,8 @@
       <c r="C436" s="2">
         <v>22.62</v>
       </c>
-      <c r="D436">
-        <v>7.7474199999999997E-10</v>
+      <c r="D436" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F436" s="9"/>
       <c r="G436" s="1">
@@ -10980,8 +10980,8 @@
       <c r="C437" s="2">
         <v>22.62</v>
       </c>
-      <c r="D437">
-        <v>7.7508899999999995E-10</v>
+      <c r="D437" s="1">
+        <v>2.0773039999999999E-9</v>
       </c>
       <c r="F437" s="9"/>
       <c r="G437" s="1">
@@ -11004,8 +11004,8 @@
       <c r="C438" s="2">
         <v>22.62</v>
       </c>
-      <c r="D438">
-        <v>7.7527499999999999E-10</v>
+      <c r="D438" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F438" s="9"/>
       <c r="G438" s="1">
@@ -11028,8 +11028,8 @@
       <c r="C439" s="2">
         <v>22.62</v>
       </c>
-      <c r="D439">
-        <v>7.7551800000000001E-10</v>
+      <c r="D439" s="1">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F439" s="9"/>
       <c r="G439" s="1">
@@ -11052,8 +11052,8 @@
       <c r="C440" s="2">
         <v>22.62</v>
       </c>
-      <c r="D440">
-        <v>7.7677100000000001E-10</v>
+      <c r="D440" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F440" s="9"/>
       <c r="G440" s="1">
@@ -11076,8 +11076,8 @@
       <c r="C441" s="2">
         <v>22.62</v>
       </c>
-      <c r="D441">
-        <v>7.7823200000000003E-10</v>
+      <c r="D441" s="1">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F441" s="9"/>
       <c r="G441" s="1">
@@ -11100,8 +11100,8 @@
       <c r="C442" s="2">
         <v>22.62</v>
       </c>
-      <c r="D442">
-        <v>7.8050199999999996E-10</v>
+      <c r="D442" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F442" s="9"/>
       <c r="G442" s="1">
@@ -11124,8 +11124,8 @@
       <c r="C443" s="2">
         <v>22.62</v>
       </c>
-      <c r="D443">
-        <v>7.8269100000000002E-10</v>
+      <c r="D443" s="1">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F443" s="9"/>
       <c r="G443" s="1">
@@ -11148,8 +11148,8 @@
       <c r="C444" s="2">
         <v>22.62</v>
       </c>
-      <c r="D444">
-        <v>7.8469699999999996E-10</v>
+      <c r="D444" s="1">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F444" s="9"/>
       <c r="G444" s="1">
@@ -11172,8 +11172,8 @@
       <c r="C445" s="2">
         <v>22.62</v>
       </c>
-      <c r="D445">
-        <v>7.8715699999999997E-10</v>
+      <c r="D445" s="1">
+        <v>3.1260790000000001E-9</v>
       </c>
       <c r="F445" s="9"/>
       <c r="G445" s="1">
@@ -11196,8 +11196,8 @@
       <c r="C446" s="2">
         <v>22.62</v>
       </c>
-      <c r="D446">
-        <v>7.89028E-10</v>
+      <c r="D446" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F446" s="9"/>
       <c r="G446" s="1">
@@ -11220,8 +11220,8 @@
       <c r="C447" s="2">
         <v>22.62</v>
       </c>
-      <c r="D447">
-        <v>7.9187700000000004E-10</v>
+      <c r="D447" s="1">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F447" s="9"/>
       <c r="G447" s="1">
@@ -11244,8 +11244,8 @@
       <c r="C448" s="2">
         <v>22.62</v>
       </c>
-      <c r="D448">
-        <v>7.9379799999999997E-10</v>
+      <c r="D448" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F448" s="9"/>
       <c r="G448" s="1">
@@ -11268,8 +11268,8 @@
       <c r="C449" s="2">
         <v>22.62</v>
       </c>
-      <c r="D449">
-        <v>7.9535499999999999E-10</v>
+      <c r="D449" s="1">
+        <v>3.6728229999999999E-9</v>
       </c>
       <c r="F449" s="9"/>
       <c r="G449" s="1">
@@ -11292,8 +11292,8 @@
       <c r="C450" s="2">
         <v>22.62</v>
       </c>
-      <c r="D450">
-        <v>7.9559499999999998E-10</v>
+      <c r="D450" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F450" s="9"/>
       <c r="G450" s="1">
@@ -11316,8 +11316,8 @@
       <c r="C451" s="2">
         <v>22.62</v>
       </c>
-      <c r="D451">
-        <v>7.9489299999999996E-10</v>
+      <c r="D451" s="1">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F451" s="9"/>
       <c r="G451" s="1">
@@ -11340,8 +11340,8 @@
       <c r="C452" s="2">
         <v>22.62</v>
       </c>
-      <c r="D452">
-        <v>7.9436399999999997E-10</v>
+      <c r="D452" s="1">
+        <v>2.93427E-9</v>
       </c>
       <c r="F452" s="9"/>
       <c r="G452" s="1">
@@ -11364,8 +11364,8 @@
       <c r="C453" s="2">
         <v>22.62</v>
       </c>
-      <c r="D453">
-        <v>7.9320499999999995E-10</v>
+      <c r="D453" s="1">
+        <v>2.2003919999999999E-9</v>
       </c>
       <c r="F453" s="9"/>
       <c r="G453" s="1">
@@ -11388,8 +11388,8 @@
       <c r="C454" s="2">
         <v>22.62</v>
       </c>
-      <c r="D454">
-        <v>7.9344E-10</v>
+      <c r="D454" s="1">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F454" s="9"/>
       <c r="G454" s="1">
@@ -11412,8 +11412,8 @@
       <c r="C455" s="2">
         <v>22.62</v>
       </c>
-      <c r="D455">
-        <v>7.9388199999999997E-10</v>
+      <c r="D455" s="1">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F455" s="9"/>
       <c r="G455" s="1">
@@ -11436,8 +11436,8 @@
       <c r="C456" s="2">
         <v>22.62</v>
       </c>
-      <c r="D456">
-        <v>7.9460299999999995E-10</v>
+      <c r="D456" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F456" s="9"/>
       <c r="G456" s="1">
@@ -11460,8 +11460,8 @@
       <c r="C457" s="2">
         <v>22.62</v>
       </c>
-      <c r="D457">
-        <v>7.9569999999999995E-10</v>
+      <c r="D457" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F457" s="9"/>
       <c r="G457" s="1">
@@ -11484,8 +11484,8 @@
       <c r="C458" s="2">
         <v>22.62</v>
       </c>
-      <c r="D458">
-        <v>7.9685899999999997E-10</v>
+      <c r="D458" s="1">
+        <v>3.037386E-9</v>
       </c>
       <c r="F458" s="9"/>
       <c r="G458" s="1">
@@ -11508,8 +11508,8 @@
       <c r="C459" s="2">
         <v>22.62</v>
       </c>
-      <c r="D459">
-        <v>7.98622E-10</v>
+      <c r="D459" s="1">
+        <v>2.7384200000000001E-9</v>
       </c>
       <c r="F459" s="9"/>
       <c r="G459" s="1">
@@ -11532,8 +11532,8 @@
       <c r="C460" s="2">
         <v>22.62</v>
       </c>
-      <c r="D460">
-        <v>8.0022800000000002E-10</v>
+      <c r="D460" s="1">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F460" s="9"/>
       <c r="G460" s="1">
@@ -11556,8 +11556,8 @@
       <c r="C461" s="2">
         <v>22.62</v>
       </c>
-      <c r="D461">
-        <v>8.0225300000000002E-10</v>
+      <c r="D461" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F461" s="9"/>
       <c r="G461" s="1">
@@ -11580,8 +11580,8 @@
       <c r="C462" s="2">
         <v>22.62</v>
       </c>
-      <c r="D462">
-        <v>8.0466700000000005E-10</v>
+      <c r="D462" s="1">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F462" s="9"/>
       <c r="G462" s="1">
@@ -11604,8 +11604,8 @@
       <c r="C463" s="2">
         <v>22.62</v>
       </c>
-      <c r="D463">
-        <v>8.0682000000000001E-10</v>
+      <c r="D463" s="1">
+        <v>3.9355010000000002E-9</v>
       </c>
       <c r="F463" s="9"/>
       <c r="G463" s="1">
@@ -11628,8 +11628,8 @@
       <c r="C464" s="2">
         <v>22.62</v>
       </c>
-      <c r="D464">
-        <v>8.1001199999999999E-10</v>
+      <c r="D464" s="1">
+        <v>3.1260790000000001E-9</v>
       </c>
       <c r="F464" s="9"/>
       <c r="G464" s="1">
@@ -11652,8 +11652,8 @@
       <c r="C465" s="2">
         <v>22.62</v>
       </c>
-      <c r="D465">
-        <v>8.1192300000000005E-10</v>
+      <c r="D465" s="1">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F465" s="9"/>
       <c r="G465" s="1">
@@ -11676,8 +11676,8 @@
       <c r="C466" s="2">
         <v>22.62</v>
       </c>
-      <c r="D466">
-        <v>8.1350499999999997E-10</v>
+      <c r="D466" s="1">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F466" s="9"/>
       <c r="G466" s="1">
@@ -11700,8 +11700,8 @@
       <c r="C467" s="2">
         <v>22.62</v>
       </c>
-      <c r="D467">
-        <v>8.14303E-10</v>
+      <c r="D467" s="1">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F467" s="9"/>
       <c r="G467" s="1">
@@ -11724,8 +11724,8 @@
       <c r="C468" s="2">
         <v>22.62</v>
       </c>
-      <c r="D468">
-        <v>8.1514900000000001E-10</v>
+      <c r="D468" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F468" s="9"/>
       <c r="G468" s="1">
@@ -11748,8 +11748,8 @@
       <c r="C469" s="2">
         <v>22.62</v>
       </c>
-      <c r="D469">
-        <v>8.1557799999999997E-10</v>
+      <c r="D469" s="1">
+        <v>2.3307729999999999E-9</v>
       </c>
       <c r="F469" s="9"/>
       <c r="G469" s="1">
@@ -11772,8 +11772,8 @@
       <c r="C470" s="2">
         <v>22.62</v>
       </c>
-      <c r="D470">
-        <v>8.1649900000000002E-10</v>
+      <c r="D470" s="1">
+        <v>3.1441259999999999E-9</v>
       </c>
       <c r="F470" s="9"/>
       <c r="G470" s="1">
@@ -11796,8 +11796,8 @@
       <c r="C471" s="2">
         <v>22.62</v>
       </c>
-      <c r="D471">
-        <v>8.1714100000000004E-10</v>
+      <c r="D471" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F471" s="9"/>
       <c r="G471" s="1">
@@ -11820,8 +11820,8 @@
       <c r="C472" s="2">
         <v>22.62</v>
       </c>
-      <c r="D472">
-        <v>8.1856699999999997E-10</v>
+      <c r="D472" s="1">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F472" s="9"/>
       <c r="G472" s="1">
@@ -11844,8 +11844,8 @@
       <c r="C473" s="2">
         <v>22.62</v>
       </c>
-      <c r="D473">
-        <v>8.1984100000000004E-10</v>
+      <c r="D473" s="1">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F473" s="9"/>
       <c r="G473" s="1">
@@ -11868,8 +11868,8 @@
       <c r="C474" s="2">
         <v>22.62</v>
       </c>
-      <c r="D474">
-        <v>8.20487E-10</v>
+      <c r="D474" s="1">
+        <v>3.0725569999999999E-9</v>
       </c>
       <c r="F474" s="9"/>
       <c r="G474" s="1">
@@ -11892,8 +11892,8 @@
       <c r="C475" s="2">
         <v>22.62</v>
       </c>
-      <c r="D475">
-        <v>8.2090299999999995E-10</v>
+      <c r="D475" s="1">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F475" s="9"/>
       <c r="G475" s="1">
@@ -11916,8 +11916,8 @@
       <c r="C476" s="2">
         <v>22.62</v>
       </c>
-      <c r="D476">
-        <v>8.2133400000000003E-10</v>
+      <c r="D476" s="1">
+        <v>3.090295E-9</v>
       </c>
       <c r="F476" s="9"/>
       <c r="G476" s="1">
@@ -11940,8 +11940,8 @@
       <c r="C477" s="2">
         <v>22.62</v>
       </c>
-      <c r="D477">
-        <v>8.2241399999999999E-10</v>
+      <c r="D477" s="1">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F477" s="9"/>
       <c r="G477" s="1">
@@ -11964,8 +11964,8 @@
       <c r="C478" s="2">
         <v>22.62</v>
       </c>
-      <c r="D478">
-        <v>8.2347700000000001E-10</v>
+      <c r="D478" s="1">
+        <v>3.1622780000000002E-9</v>
       </c>
       <c r="F478" s="9"/>
       <c r="G478" s="1">
@@ -11988,8 +11988,8 @@
       <c r="C479" s="2">
         <v>22.62</v>
       </c>
-      <c r="D479">
-        <v>8.2446600000000001E-10</v>
+      <c r="D479" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F479" s="9"/>
       <c r="G479" s="1">
@@ -12012,8 +12012,8 @@
       <c r="C480" s="2">
         <v>22.62</v>
       </c>
-      <c r="D480">
-        <v>8.2529399999999998E-10</v>
+      <c r="D480" s="1">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F480" s="9"/>
       <c r="G480" s="1">
@@ -12036,8 +12036,8 @@
       <c r="C481" s="2">
         <v>22.62</v>
       </c>
-      <c r="D481">
-        <v>8.2787399999999999E-10</v>
+      <c r="D481" s="1">
+        <v>3.5277679999999999E-9</v>
       </c>
       <c r="F481" s="9"/>
       <c r="G481" s="1">
@@ -12060,8 +12060,8 @@
       <c r="C482" s="2">
         <v>22.62</v>
       </c>
-      <c r="D482">
-        <v>8.3051600000000001E-10</v>
+      <c r="D482" s="1">
+        <v>3.037386E-9</v>
       </c>
       <c r="F482" s="9"/>
       <c r="G482" s="1">
@@ -12084,8 +12084,8 @@
       <c r="C483" s="2">
         <v>22.62</v>
       </c>
-      <c r="D483">
-        <v>8.33154E-10</v>
+      <c r="D483" s="1">
+        <v>3.2923049999999998E-9</v>
       </c>
       <c r="F483" s="9"/>
       <c r="G483" s="1">
@@ -12108,8 +12108,8 @@
       <c r="C484" s="2">
         <v>22.62</v>
       </c>
-      <c r="D484">
-        <v>8.3467099999999998E-10</v>
+      <c r="D484" s="1">
+        <v>3.1260790000000001E-9</v>
       </c>
       <c r="F484" s="9"/>
       <c r="G484" s="1">
@@ -12132,8 +12132,8 @@
       <c r="C485" s="2">
         <v>22.62</v>
       </c>
-      <c r="D485">
-        <v>8.3615800000000002E-10</v>
+      <c r="D485" s="1">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F485" s="9"/>
       <c r="G485" s="1">
@@ -12156,8 +12156,8 @@
       <c r="C486" s="2">
         <v>22.62</v>
       </c>
-      <c r="D486">
-        <v>8.3743199999999999E-10</v>
+      <c r="D486" s="1">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F486" s="9"/>
       <c r="G486" s="1">
@@ -12180,8 +12180,8 @@
       <c r="C487" s="2">
         <v>22.62</v>
       </c>
-      <c r="D487">
-        <v>8.3887599999999997E-10</v>
+      <c r="D487" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F487" s="9"/>
       <c r="G487" s="1">
@@ -12204,8 +12204,8 @@
       <c r="C488" s="2">
         <v>22.62</v>
       </c>
-      <c r="D488">
-        <v>8.40278E-10</v>
+      <c r="D488" s="1">
+        <v>2.722701E-9</v>
       </c>
       <c r="F488" s="9"/>
       <c r="G488" s="1">
@@ -12228,8 +12228,8 @@
       <c r="C489" s="2">
         <v>22.62</v>
       </c>
-      <c r="D489">
-        <v>8.4121299999999996E-10</v>
+      <c r="D489" s="1">
+        <v>3.4080029999999999E-9</v>
       </c>
       <c r="F489" s="9"/>
       <c r="G489" s="1">
@@ -12252,8 +12252,8 @@
       <c r="C490" s="2">
         <v>22.62</v>
       </c>
-      <c r="D490">
-        <v>8.4237900000000003E-10</v>
+      <c r="D490" s="1">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F490" s="9"/>
       <c r="G490" s="1">
@@ -12276,8 +12276,8 @@
       <c r="C491" s="2">
         <v>22.62</v>
       </c>
-      <c r="D491">
-        <v>8.4317899999999997E-10</v>
+      <c r="D491" s="1">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F491" s="9"/>
       <c r="G491" s="1">
@@ -12300,8 +12300,8 @@
       <c r="C492" s="2">
         <v>22.62</v>
       </c>
-      <c r="D492">
-        <v>8.43592E-10</v>
+      <c r="D492" s="1">
+        <v>3.037386E-9</v>
       </c>
       <c r="F492" s="9"/>
       <c r="G492" s="1">
@@ -12324,8 +12324,8 @@
       <c r="C493" s="2">
         <v>22.62</v>
       </c>
-      <c r="D493">
-        <v>8.4382899999999996E-10</v>
+      <c r="D493" s="1">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F493" s="9"/>
       <c r="G493" s="1">
@@ -12348,8 +12348,8 @@
       <c r="C494" s="2">
         <v>22.62</v>
       </c>
-      <c r="D494">
-        <v>8.4449499999999999E-10</v>
+      <c r="D494" s="1">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F494" s="9"/>
       <c r="G494" s="1">
@@ -12372,8 +12372,8 @@
       <c r="C495" s="2">
         <v>22.62</v>
       </c>
-      <c r="D495">
-        <v>8.4591000000000003E-10</v>
+      <c r="D495" s="1">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F495" s="9"/>
       <c r="G495" s="1">
@@ -12396,8 +12396,8 @@
       <c r="C496" s="2">
         <v>22.62</v>
       </c>
-      <c r="D496">
-        <v>8.4746700000000005E-10</v>
+      <c r="D496" s="1">
+        <v>3.090295E-9</v>
       </c>
       <c r="F496" s="9"/>
       <c r="G496" s="1">
@@ -12420,8 +12420,8 @@
       <c r="C497" s="2">
         <v>22.62</v>
       </c>
-      <c r="D497">
-        <v>8.4864999999999996E-10</v>
+      <c r="D497" s="1">
+        <v>3.7368010000000001E-9</v>
       </c>
       <c r="F497" s="9"/>
       <c r="G497" s="1">
@@ -12444,8 +12444,8 @@
       <c r="C498" s="2">
         <v>22.62</v>
       </c>
-      <c r="D498">
-        <v>8.5019100000000005E-10</v>
+      <c r="D498" s="1">
+        <v>2.985383E-9</v>
       </c>
       <c r="F498" s="9"/>
       <c r="G498" s="1">
@@ -12468,8 +12468,8 @@
       <c r="C499" s="2">
         <v>22.62</v>
       </c>
-      <c r="D499">
-        <v>8.5185100000000002E-10</v>
+      <c r="D499" s="1">
+        <v>2.2387209999999998E-9</v>
       </c>
       <c r="F499" s="9"/>
       <c r="G499" s="1">
@@ -12492,8 +12492,8 @@
       <c r="C500" s="2">
         <v>22.62</v>
       </c>
-      <c r="D500">
-        <v>8.53753E-10</v>
+      <c r="D500" s="1">
+        <v>3.002617E-9</v>
       </c>
       <c r="F500" s="9"/>
       <c r="G500" s="1">
@@ -12516,8 +12516,8 @@
       <c r="C501" s="2">
         <v>22.62</v>
       </c>
-      <c r="D501">
-        <v>8.5454499999999997E-10</v>
+      <c r="D501" s="1">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F501" s="9"/>
       <c r="G501" s="1">
@@ -12540,8 +12540,8 @@
       <c r="C502" s="2">
         <v>22.62</v>
       </c>
-      <c r="D502">
-        <v>8.5455100000000002E-10</v>
+      <c r="D502" s="1">
+        <v>3.2923049999999998E-9</v>
       </c>
       <c r="F502" s="9"/>
       <c r="G502" s="1">
@@ -12564,8 +12564,8 @@
       <c r="C503" s="2">
         <v>22.62</v>
       </c>
-      <c r="D503">
-        <v>8.5440700000000003E-10</v>
+      <c r="D503" s="1">
+        <v>3.6728229999999999E-9</v>
       </c>
       <c r="F503" s="9"/>
       <c r="G503" s="1">
@@ -12588,8 +12588,8 @@
       <c r="C504" s="2">
         <v>22.62</v>
       </c>
-      <c r="D504">
-        <v>8.5447800000000001E-10</v>
+      <c r="D504" s="1">
+        <v>3.2173629999999999E-9</v>
       </c>
       <c r="F504" s="9"/>
       <c r="G504" s="1">
@@ -12612,8 +12612,8 @@
       <c r="C505" s="2">
         <v>22.62</v>
       </c>
-      <c r="D505">
-        <v>8.5529199999999997E-10</v>
+      <c r="D505" s="1">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F505" s="9"/>
       <c r="G505" s="1">
@@ -12636,8 +12636,8 @@
       <c r="C506" s="2">
         <v>22.62</v>
       </c>
-      <c r="D506">
-        <v>8.5706399999999997E-10</v>
+      <c r="D506" s="1">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F506" s="9"/>
       <c r="G506" s="1">
@@ -12660,8 +12660,8 @@
       <c r="C507" s="2">
         <v>22.62</v>
       </c>
-      <c r="D507">
-        <v>8.5820500000000004E-10</v>
+      <c r="D507" s="1">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F507" s="9"/>
       <c r="G507" s="1">
@@ -12684,8 +12684,8 @@
       <c r="C508" s="2">
         <v>22.62</v>
       </c>
-      <c r="D508">
-        <v>8.5915199999999999E-10</v>
+      <c r="D508" s="1">
+        <v>3.273407E-9</v>
       </c>
       <c r="F508" s="9"/>
       <c r="G508" s="1">
@@ -12708,8 +12708,8 @@
       <c r="C509" s="2">
         <v>22.62</v>
       </c>
-      <c r="D509">
-        <v>8.5978300000000003E-10</v>
+      <c r="D509" s="1">
+        <v>2.344229E-9</v>
       </c>
       <c r="F509" s="9"/>
       <c r="G509" s="1">
@@ -12732,8 +12732,8 @@
       <c r="C510" s="2">
         <v>22.62</v>
       </c>
-      <c r="D510">
-        <v>8.6059699999999998E-10</v>
+      <c r="D510" s="1">
+        <v>3.2173629999999999E-9</v>
       </c>
       <c r="F510" s="9"/>
       <c r="G510" s="1">
@@ -12756,8 +12756,8 @@
       <c r="C511" s="2">
         <v>22.62</v>
       </c>
-      <c r="D511">
-        <v>8.6148400000000004E-10</v>
+      <c r="D511" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F511" s="9"/>
       <c r="G511" s="1">
@@ -12780,8 +12780,8 @@
       <c r="C512" s="2">
         <v>22.62</v>
       </c>
-      <c r="D512">
-        <v>8.6309700000000002E-10</v>
+      <c r="D512" s="1">
+        <v>3.2546179999999999E-9</v>
       </c>
       <c r="F512" s="9"/>
       <c r="G512" s="1">
@@ -12804,8 +12804,8 @@
       <c r="C513" s="2">
         <v>22.62</v>
       </c>
-      <c r="D513">
-        <v>8.6677E-10</v>
+      <c r="D513" s="1">
+        <v>2.3850640000000001E-9</v>
       </c>
       <c r="F513" s="9"/>
       <c r="G513" s="1">
@@ -12828,8 +12828,8 @@
       <c r="C514" s="2">
         <v>22.62</v>
       </c>
-      <c r="D514">
-        <v>8.6903299999999997E-10</v>
+      <c r="D514" s="1">
+        <v>3.507519E-9</v>
       </c>
       <c r="F514" s="9"/>
       <c r="G514" s="1">
@@ -12852,8 +12852,8 @@
       <c r="C515" s="2">
         <v>22.62</v>
       </c>
-      <c r="D515">
-        <v>8.7161199999999997E-10</v>
+      <c r="D515" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F515" s="9"/>
       <c r="G515" s="1">
@@ -12876,8 +12876,8 @@
       <c r="C516" s="2">
         <v>22.62</v>
       </c>
-      <c r="D516">
-        <v>8.7260700000000002E-10</v>
+      <c r="D516" s="1">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F516" s="9"/>
       <c r="G516" s="1">
@@ -12900,8 +12900,8 @@
       <c r="C517" s="2">
         <v>22.62</v>
       </c>
-      <c r="D517">
-        <v>8.7333300000000005E-10</v>
+      <c r="D517" s="1">
+        <v>2.3988329999999998E-9</v>
       </c>
       <c r="F517" s="9"/>
       <c r="G517" s="1">
@@ -12924,8 +12924,8 @@
       <c r="C518" s="2">
         <v>22.62</v>
       </c>
-      <c r="D518">
-        <v>8.7451400000000005E-10</v>
+      <c r="D518" s="1">
+        <v>3.4276780000000001E-9</v>
       </c>
       <c r="F518" s="9"/>
       <c r="G518" s="1">
@@ -12948,8 +12948,8 @@
       <c r="C519" s="2">
         <v>22.62</v>
       </c>
-      <c r="D519">
-        <v>8.7612199999999999E-10</v>
+      <c r="D519" s="1">
+        <v>2.722701E-9</v>
       </c>
       <c r="F519" s="9"/>
       <c r="G519" s="1">
@@ -12972,8 +12972,8 @@
       <c r="C520" s="2">
         <v>22.62</v>
       </c>
-      <c r="D520">
-        <v>8.7764400000000001E-10</v>
+      <c r="D520" s="1">
+        <v>3.3496539999999999E-9</v>
       </c>
       <c r="F520" s="9"/>
       <c r="G520" s="1">
@@ -12996,8 +12996,8 @@
       <c r="C521" s="2">
         <v>22.62</v>
       </c>
-      <c r="D521">
-        <v>8.8016799999999995E-10</v>
+      <c r="D521" s="1">
+        <v>2.707073E-9</v>
       </c>
       <c r="F521" s="9"/>
       <c r="G521" s="1">
@@ -13020,8 +13020,8 @@
       <c r="C522" s="2">
         <v>22.62</v>
       </c>
-      <c r="D522">
-        <v>8.8268799999999996E-10</v>
+      <c r="D522" s="1">
+        <v>3.4080029999999999E-9</v>
       </c>
       <c r="F522" s="9"/>
       <c r="G522" s="1">
@@ -13044,8 +13044,8 @@
       <c r="C523" s="2">
         <v>22.62</v>
       </c>
-      <c r="D523">
-        <v>8.8403400000000003E-10</v>
+      <c r="D523" s="1">
+        <v>2.834654E-9</v>
       </c>
       <c r="F523" s="9"/>
       <c r="G523" s="1">
@@ -13068,8 +13068,8 @@
       <c r="C524" s="2">
         <v>22.62</v>
       </c>
-      <c r="D524">
-        <v>8.8449899999999999E-10</v>
+      <c r="D524" s="1">
+        <v>3.801894E-9</v>
       </c>
       <c r="F524" s="9"/>
       <c r="G524" s="1">
@@ -13092,8 +13092,8 @@
       <c r="C525" s="2">
         <v>22.62</v>
       </c>
-      <c r="D525">
-        <v>8.8599600000000001E-10</v>
+      <c r="D525" s="1">
+        <v>3.0549209999999999E-9</v>
       </c>
       <c r="F525" s="9"/>
       <c r="G525" s="1">
@@ -13116,8 +13116,8 @@
       <c r="C526" s="2">
         <v>22.62</v>
       </c>
-      <c r="D526">
-        <v>8.8763900000000004E-10</v>
+      <c r="D526" s="1">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F526" s="9"/>
       <c r="G526" s="1">
@@ -13140,8 +13140,8 @@
       <c r="C527" s="2">
         <v>22.62</v>
       </c>
-      <c r="D527">
-        <v>8.8975399999999999E-10</v>
+      <c r="D527" s="1">
+        <v>3.0725569999999999E-9</v>
       </c>
       <c r="F527" s="9"/>
       <c r="G527" s="1">
@@ -13164,8 +13164,8 @@
       <c r="C528" s="2">
         <v>22.62</v>
       </c>
-      <c r="D528">
-        <v>8.9208099999999999E-10</v>
+      <c r="D528" s="1">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F528" s="9"/>
       <c r="G528" s="1">
@@ -13188,8 +13188,8 @@
       <c r="C529" s="2">
         <v>22.62</v>
       </c>
-      <c r="D529">
-        <v>8.9475399999999997E-10</v>
+      <c r="D529" s="1">
+        <v>3.4673689999999999E-9</v>
       </c>
       <c r="F529" s="9"/>
       <c r="G529" s="1">
@@ -13212,8 +13212,8 @@
       <c r="C530" s="2">
         <v>22.62</v>
       </c>
-      <c r="D530">
-        <v>8.9723100000000002E-10</v>
+      <c r="D530" s="1">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F530" s="9"/>
       <c r="G530" s="1">
@@ -13236,8 +13236,8 @@
       <c r="C531" s="2">
         <v>22.62</v>
       </c>
-      <c r="D531">
-        <v>8.9887000000000002E-10</v>
+      <c r="D531" s="1">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F531" s="9"/>
       <c r="G531" s="1">
@@ -13260,8 +13260,8 @@
       <c r="C532" s="2">
         <v>22.62</v>
       </c>
-      <c r="D532">
-        <v>9.0078700000000002E-10</v>
+      <c r="D532" s="1">
+        <v>4.004055E-9</v>
       </c>
       <c r="F532" s="9"/>
       <c r="G532" s="1">
@@ -13284,8 +13284,8 @@
       <c r="C533" s="2">
         <v>22.62</v>
       </c>
-      <c r="D533">
-        <v>9.0305799999999996E-10</v>
+      <c r="D533" s="1">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F533" s="9"/>
       <c r="G533" s="1">
@@ -13308,8 +13308,8 @@
       <c r="C534" s="2">
         <v>22.62</v>
       </c>
-      <c r="D534">
-        <v>9.0520299999999996E-10</v>
+      <c r="D534" s="1">
+        <v>2.4406189999999999E-9</v>
       </c>
       <c r="F534" s="9"/>
       <c r="G534" s="1">
@@ -13332,8 +13332,8 @@
       <c r="C535" s="2">
         <v>22.62</v>
       </c>
-      <c r="D535">
-        <v>9.0651400000000004E-10</v>
+      <c r="D535" s="1">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F535" s="9"/>
       <c r="G535" s="1">
@@ -13356,8 +13356,8 @@
       <c r="C536" s="2">
         <v>22.62</v>
       </c>
-      <c r="D536">
-        <v>9.0706500000000001E-10</v>
+      <c r="D536" s="1">
+        <v>2.985383E-9</v>
       </c>
       <c r="F536" s="9"/>
       <c r="G536" s="1">
@@ -13380,8 +13380,8 @@
       <c r="C537" s="2">
         <v>22.62</v>
       </c>
-      <c r="D537">
-        <v>9.0737100000000005E-10</v>
+      <c r="D537" s="1">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F537" s="9"/>
       <c r="G537" s="1">
@@ -13404,8 +13404,8 @@
       <c r="C538" s="2">
         <v>22.62</v>
       </c>
-      <c r="D538">
-        <v>9.0756599999999997E-10</v>
+      <c r="D538" s="1">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F538" s="9"/>
       <c r="G538" s="1">
@@ -13428,8 +13428,8 @@
       <c r="C539" s="2">
         <v>22.62</v>
       </c>
-      <c r="D539">
-        <v>9.0722400000000003E-10</v>
+      <c r="D539" s="1">
+        <v>3.4474659999999998E-9</v>
       </c>
       <c r="F539" s="9"/>
       <c r="G539" s="1">
@@ -13452,8 +13452,8 @@
       <c r="C540" s="2">
         <v>22.62</v>
       </c>
-      <c r="D540">
-        <v>9.0737499999999998E-10</v>
+      <c r="D540" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F540" s="9"/>
       <c r="G540" s="1">
@@ -13476,8 +13476,8 @@
       <c r="C541" s="2">
         <v>22.62</v>
       </c>
-      <c r="D541">
-        <v>9.0846500000000003E-10</v>
+      <c r="D541" s="1">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F541" s="9"/>
       <c r="G541" s="1">
@@ -13500,8 +13500,8 @@
       <c r="C542" s="2">
         <v>22.62</v>
       </c>
-      <c r="D542">
-        <v>9.1105700000000003E-10</v>
+      <c r="D542" s="1">
+        <v>4.4668360000000002E-9</v>
       </c>
       <c r="F542" s="9"/>
       <c r="G542" s="1">
@@ -13524,8 +13524,8 @@
       <c r="C543" s="2">
         <v>22.62</v>
       </c>
-      <c r="D543">
-        <v>9.1244999999999999E-10</v>
+      <c r="D543" s="1">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F543" s="9"/>
       <c r="G543" s="1">
@@ -13548,8 +13548,8 @@
       <c r="C544" s="2">
         <v>22.62</v>
       </c>
-      <c r="D544">
-        <v>9.1330399999999997E-10</v>
+      <c r="D544" s="1">
+        <v>4.3651579999999996E-9</v>
       </c>
       <c r="F544" s="9"/>
       <c r="G544" s="1">
@@ -13572,8 +13572,8 @@
       <c r="C545" s="2">
         <v>22.62</v>
       </c>
-      <c r="D545">
-        <v>9.1440199999999998E-10</v>
+      <c r="D545" s="1">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F545" s="9"/>
       <c r="G545" s="1">
@@ -13596,8 +13596,8 @@
       <c r="C546" s="2">
         <v>22.62</v>
       </c>
-      <c r="D546">
-        <v>9.1562500000000003E-10</v>
+      <c r="D546" s="1">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F546" s="9"/>
       <c r="G546" s="1">
@@ -13620,8 +13620,8 @@
       <c r="C547" s="2">
         <v>22.62</v>
       </c>
-      <c r="D547">
-        <v>9.1663800000000004E-10</v>
+      <c r="D547" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F547" s="9"/>
       <c r="G547" s="1">
@@ -13644,8 +13644,8 @@
       <c r="C548" s="2">
         <v>22.62</v>
       </c>
-      <c r="D548">
-        <v>9.1781399999999999E-10</v>
+      <c r="D548" s="1">
+        <v>2.7701289999999999E-9</v>
       </c>
       <c r="F548" s="9"/>
       <c r="G548" s="1">
@@ -13668,8 +13668,8 @@
       <c r="C549" s="2">
         <v>22.62</v>
       </c>
-      <c r="D549">
-        <v>9.20033E-10</v>
+      <c r="D549" s="1">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F549" s="9"/>
       <c r="G549" s="1">
@@ -13692,8 +13692,8 @@
       <c r="C550" s="2">
         <v>22.62</v>
       </c>
-      <c r="D550">
-        <v>9.21997E-10</v>
+      <c r="D550" s="1">
+        <v>2.93427E-9</v>
       </c>
       <c r="F550" s="9"/>
       <c r="G550" s="1">
@@ -13716,8 +13716,8 @@
       <c r="C551" s="2">
         <v>22.62</v>
       </c>
-      <c r="D551">
-        <v>9.2276799999999999E-10</v>
+      <c r="D551" s="1">
+        <v>3.801894E-9</v>
       </c>
       <c r="F551" s="9"/>
       <c r="G551" s="1">
@@ -13740,8 +13740,8 @@
       <c r="C552" s="2">
         <v>22.62</v>
       </c>
-      <c r="D552">
-        <v>9.2353799999999998E-10</v>
+      <c r="D552" s="1">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F552" s="9"/>
       <c r="G552" s="1">
@@ -13764,8 +13764,8 @@
       <c r="C553" s="2">
         <v>22.62</v>
       </c>
-      <c r="D553">
-        <v>9.2434599999999998E-10</v>
+      <c r="D553" s="1">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F553" s="9"/>
       <c r="G553" s="1">
@@ -13788,8 +13788,8 @@
       <c r="C554" s="2">
         <v>22.62</v>
       </c>
-      <c r="D554">
-        <v>9.2578400000000002E-10</v>
+      <c r="D554" s="1">
+        <v>2.93427E-9</v>
       </c>
       <c r="F554" s="9"/>
       <c r="G554" s="1">
@@ -13812,8 +13812,8 @@
       <c r="C555" s="2">
         <v>22.62</v>
       </c>
-      <c r="D555">
-        <v>9.2723499999999995E-10</v>
+      <c r="D555" s="1">
+        <v>3.8459179999999997E-9</v>
       </c>
       <c r="F555" s="9"/>
       <c r="G555" s="1">
@@ -13836,8 +13836,8 @@
       <c r="C556" s="2">
         <v>22.62</v>
       </c>
-      <c r="D556">
-        <v>9.2873199999999997E-10</v>
+      <c r="D556" s="1">
+        <v>3.4673689999999999E-9</v>
       </c>
       <c r="F556" s="9"/>
       <c r="G556" s="1">
@@ -13860,8 +13860,8 @@
       <c r="C557" s="2">
         <v>22.62</v>
       </c>
-      <c r="D557">
-        <v>9.3041699999999995E-10</v>
+      <c r="D557" s="1">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F557" s="9"/>
       <c r="G557" s="1">
@@ -13884,8 +13884,8 @@
       <c r="C558" s="2">
         <v>22.62</v>
       </c>
-      <c r="D558">
-        <v>9.3248799999999993E-10</v>
+      <c r="D558" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F558" s="9"/>
       <c r="G558" s="1">
@@ -13908,8 +13908,8 @@
       <c r="C559" s="2">
         <v>22.62</v>
       </c>
-      <c r="D559">
-        <v>9.3423899999999996E-10</v>
+      <c r="D559" s="1">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F559" s="9"/>
       <c r="G559" s="1">
@@ -13932,8 +13932,8 @@
       <c r="C560" s="2">
         <v>22.62</v>
       </c>
-      <c r="D560">
-        <v>9.3539200000000003E-10</v>
+      <c r="D560" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F560" s="9"/>
       <c r="G560" s="1">
@@ -13956,8 +13956,8 @@
       <c r="C561" s="2">
         <v>22.62</v>
       </c>
-      <c r="D561">
-        <v>9.3694000000000008E-10</v>
+      <c r="D561" s="1">
+        <v>2.5263880000000002E-9</v>
       </c>
       <c r="F561" s="9"/>
       <c r="G561" s="1">
@@ -13980,8 +13980,8 @@
       <c r="C562" s="2">
         <v>22.62</v>
       </c>
-      <c r="D562">
-        <v>9.3790900000000001E-10</v>
+      <c r="D562" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F562" s="9"/>
       <c r="G562" s="1">
@@ -14004,8 +14004,8 @@
       <c r="C563" s="2">
         <v>22.62</v>
       </c>
-      <c r="D563">
-        <v>9.3833299999999993E-10</v>
+      <c r="D563" s="1">
+        <v>2.834654E-9</v>
       </c>
       <c r="F563" s="9"/>
       <c r="G563" s="1">
@@ -14028,8 +14028,8 @@
       <c r="C564" s="2">
         <v>22.62</v>
       </c>
-      <c r="D564">
-        <v>9.3841500000000001E-10</v>
+      <c r="D564" s="1">
+        <v>3.5277679999999999E-9</v>
       </c>
       <c r="F564" s="9"/>
       <c r="G564" s="1">
@@ -14052,8 +14052,8 @@
       <c r="C565" s="2">
         <v>22.62</v>
       </c>
-      <c r="D565">
-        <v>9.3897500000000006E-10</v>
+      <c r="D565" s="1">
+        <v>2.722701E-9</v>
       </c>
       <c r="F565" s="9"/>
       <c r="G565" s="1">
@@ -14076,8 +14076,8 @@
       <c r="C566" s="2">
         <v>22.62</v>
       </c>
-      <c r="D566">
-        <v>9.4010500000000003E-10</v>
+      <c r="D566" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F566" s="9"/>
       <c r="G566" s="1">
@@ -14100,8 +14100,8 @@
       <c r="C567" s="2">
         <v>22.62</v>
       </c>
-      <c r="D567">
-        <v>9.4194100000000007E-10</v>
+      <c r="D567" s="1">
+        <v>3.1622780000000002E-9</v>
       </c>
       <c r="F567" s="9"/>
       <c r="G567" s="1">
@@ -14124,8 +14124,8 @@
       <c r="C568" s="2">
         <v>22.62</v>
       </c>
-      <c r="D568">
-        <v>9.4387699999999992E-10</v>
+      <c r="D568" s="1">
+        <v>3.9355010000000002E-9</v>
       </c>
       <c r="F568" s="9"/>
       <c r="G568" s="1">
@@ -14148,8 +14148,8 @@
       <c r="C569" s="2">
         <v>22.62</v>
       </c>
-      <c r="D569">
-        <v>9.46526E-10</v>
+      <c r="D569" s="1">
+        <v>2.9682469999999998E-9</v>
       </c>
       <c r="F569" s="9"/>
       <c r="G569" s="1">
@@ -14172,8 +14172,8 @@
       <c r="C570" s="2">
         <v>22.62</v>
       </c>
-      <c r="D570">
-        <v>9.4934300000000008E-10</v>
+      <c r="D570" s="1">
+        <v>4.0271699999999999E-9</v>
       </c>
       <c r="F570" s="9"/>
       <c r="G570" s="1">
@@ -14196,8 +14196,8 @@
       <c r="C571" s="2">
         <v>22.62</v>
       </c>
-      <c r="D571">
-        <v>9.5133599999999991E-10</v>
+      <c r="D571" s="1">
+        <v>2.7861210000000002E-9</v>
       </c>
       <c r="F571" s="9"/>
       <c r="G571" s="1">
@@ -14220,8 +14220,8 @@
       <c r="C572" s="2">
         <v>22.62</v>
       </c>
-      <c r="D572">
-        <v>9.5404899999999992E-10</v>
+      <c r="D572" s="1">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F572" s="9"/>
       <c r="G572" s="1">
@@ -14244,8 +14244,8 @@
       <c r="C573" s="2">
         <v>22.62</v>
       </c>
-      <c r="D573">
-        <v>9.5616599999999998E-10</v>
+      <c r="D573" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F573" s="9"/>
       <c r="G573" s="1">
@@ -14268,8 +14268,8 @@
       <c r="C574" s="2">
         <v>22.62</v>
       </c>
-      <c r="D574">
-        <v>9.5776499999999995E-10</v>
+      <c r="D574" s="1">
+        <v>4.097321E-9</v>
       </c>
       <c r="F574" s="9"/>
       <c r="G574" s="1">
@@ -14292,8 +14292,8 @@
       <c r="C575" s="2">
         <v>22.62</v>
       </c>
-      <c r="D575">
-        <v>9.5927899999999991E-10</v>
+      <c r="D575" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F575" s="9"/>
       <c r="G575" s="1">
@@ -14316,8 +14316,8 @@
       <c r="C576" s="2">
         <v>22.62</v>
       </c>
-      <c r="D576">
-        <v>9.6081599999999996E-10</v>
+      <c r="D576" s="1">
+        <v>4.2169650000000002E-9</v>
       </c>
       <c r="F576" s="9"/>
       <c r="G576" s="1">
@@ -14340,8 +14340,8 @@
       <c r="C577" s="2">
         <v>22.62</v>
       </c>
-      <c r="D577">
-        <v>9.6191400000000008E-10</v>
+      <c r="D577" s="1">
+        <v>3.6728229999999999E-9</v>
       </c>
       <c r="F577" s="9"/>
       <c r="G577" s="1">
@@ -14364,8 +14364,8 @@
       <c r="C578" s="2">
         <v>22.62</v>
       </c>
-      <c r="D578">
-        <v>9.6331999999999994E-10</v>
+      <c r="D578" s="1">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F578" s="9"/>
       <c r="G578" s="1">
@@ -14388,8 +14388,8 @@
       <c r="C579" s="2">
         <v>22.62</v>
       </c>
-      <c r="D579">
-        <v>9.6436499999999991E-10</v>
+      <c r="D579" s="1">
+        <v>3.5277679999999999E-9</v>
       </c>
       <c r="F579" s="9"/>
       <c r="G579" s="1">
@@ -14412,8 +14412,8 @@
       <c r="C580" s="2">
         <v>22.62</v>
       </c>
-      <c r="D580">
-        <v>9.6449299999999997E-10</v>
+      <c r="D580" s="1">
+        <v>2.754229E-9</v>
       </c>
       <c r="F580" s="9"/>
       <c r="G580" s="1">
@@ -14436,8 +14436,8 @@
       <c r="C581" s="2">
         <v>22.62</v>
       </c>
-      <c r="D581">
-        <v>9.6493999999999998E-10</v>
+      <c r="D581" s="1">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F581" s="9"/>
       <c r="G581" s="1">
@@ -14460,8 +14460,8 @@
       <c r="C582" s="2">
         <v>22.62</v>
       </c>
-      <c r="D582">
-        <v>9.6537399999999998E-10</v>
+      <c r="D582" s="1">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F582" s="9"/>
       <c r="G582" s="1">
@@ -14484,8 +14484,8 @@
       <c r="C583" s="2">
         <v>22.62</v>
       </c>
-      <c r="D583">
-        <v>9.6644000000000003E-10</v>
+      <c r="D583" s="1">
+        <v>3.7368010000000001E-9</v>
       </c>
       <c r="F583" s="9"/>
       <c r="G583" s="1">
@@ -14508,8 +14508,8 @@
       <c r="C584" s="2">
         <v>22.62</v>
       </c>
-      <c r="D584">
-        <v>9.6791400000000006E-10</v>
+      <c r="D584" s="1">
+        <v>4.1447659999999999E-9</v>
       </c>
       <c r="F584" s="9"/>
       <c r="G584" s="1">
@@ -14532,8 +14532,8 @@
       <c r="C585" s="2">
         <v>22.62</v>
       </c>
-      <c r="D585">
-        <v>9.6975000000000009E-10</v>
+      <c r="D585" s="1">
+        <v>3.7153519999999998E-9</v>
       </c>
       <c r="F585" s="9"/>
       <c r="G585" s="1">
@@ -14556,8 +14556,8 @@
       <c r="C586" s="2">
         <v>22.62</v>
       </c>
-      <c r="D586">
-        <v>9.7247799999999992E-10</v>
+      <c r="D586" s="1">
+        <v>4.5185589999999998E-9</v>
       </c>
       <c r="F586" s="9"/>
       <c r="G586" s="1">
@@ -14580,8 +14580,8 @@
       <c r="C587" s="2">
         <v>22.62</v>
       </c>
-      <c r="D587">
-        <v>9.7452599999999991E-10</v>
+      <c r="D587" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F587" s="9"/>
       <c r="G587" s="1">
@@ -14604,8 +14604,8 @@
       <c r="C588" s="2">
         <v>22.62</v>
       </c>
-      <c r="D588">
-        <v>9.7562299999999991E-10</v>
+      <c r="D588" s="1">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F588" s="9"/>
       <c r="G588" s="1">
@@ -14628,8 +14628,8 @@
       <c r="C589" s="2">
         <v>22.62</v>
       </c>
-      <c r="D589">
-        <v>9.765130000000001E-10</v>
+      <c r="D589" s="1">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F589" s="9"/>
       <c r="G589" s="1">
@@ -14652,8 +14652,8 @@
       <c r="C590" s="2">
         <v>22.62</v>
       </c>
-      <c r="D590">
-        <v>9.7751299999999999E-10</v>
+      <c r="D590" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F590" s="9"/>
       <c r="G590" s="1">
@@ -14676,8 +14676,8 @@
       <c r="C591" s="2">
         <v>22.62</v>
       </c>
-      <c r="D591">
-        <v>9.7793199999999997E-10</v>
+      <c r="D591" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F591" s="9"/>
       <c r="G591" s="1">
@@ -14700,8 +14700,8 @@
       <c r="C592" s="2">
         <v>22.62</v>
       </c>
-      <c r="D592">
-        <v>9.7847699999999999E-10</v>
+      <c r="D592" s="1">
+        <v>4.265795E-9</v>
       </c>
       <c r="F592" s="9"/>
       <c r="G592" s="1">
@@ -14724,8 +14724,8 @@
       <c r="C593" s="2">
         <v>22.62</v>
       </c>
-      <c r="D593">
-        <v>9.806719999999999E-10</v>
+      <c r="D593" s="1">
+        <v>3.4276780000000001E-9</v>
       </c>
       <c r="F593" s="9"/>
       <c r="G593" s="1">
@@ -14748,8 +14748,8 @@
       <c r="C594" s="2">
         <v>22.62</v>
       </c>
-      <c r="D594">
-        <v>9.8264499999999997E-10</v>
+      <c r="D594" s="1">
+        <v>4.1447659999999999E-9</v>
       </c>
       <c r="F594" s="9"/>
       <c r="G594" s="1">
@@ -14772,8 +14772,8 @@
       <c r="C595" s="2">
         <v>22.62</v>
       </c>
-      <c r="D595">
-        <v>9.8516599999999999E-10</v>
+      <c r="D595" s="1">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F595" s="9"/>
       <c r="G595" s="1">
@@ -14796,8 +14796,8 @@
       <c r="C596" s="2">
         <v>22.62</v>
       </c>
-      <c r="D596">
-        <v>9.8649600000000002E-10</v>
+      <c r="D596" s="1">
+        <v>3.981072E-9</v>
       </c>
       <c r="F596" s="9"/>
       <c r="G596" s="1">
@@ -14820,8 +14820,8 @@
       <c r="C597" s="2">
         <v>22.62</v>
       </c>
-      <c r="D597">
-        <v>9.8729899999999998E-10</v>
+      <c r="D597" s="1">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F597" s="9"/>
       <c r="G597" s="1">
@@ -14844,8 +14844,8 @@
       <c r="C598" s="2">
         <v>22.62</v>
       </c>
-      <c r="D598">
-        <v>9.8864099999999992E-10</v>
+      <c r="D598" s="1">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F598" s="9"/>
       <c r="G598" s="1">
@@ -14868,8 +14868,8 @@
       <c r="C599" s="2">
         <v>22.62</v>
       </c>
-      <c r="D599">
-        <v>9.9031799999999993E-10</v>
+      <c r="D599" s="1">
+        <v>3.7583739999999997E-9</v>
       </c>
       <c r="F599" s="9"/>
       <c r="G599" s="1">
@@ -14892,8 +14892,8 @@
       <c r="C600" s="2">
         <v>22.62</v>
       </c>
-      <c r="D600">
-        <v>9.93231E-10</v>
+      <c r="D600" s="1">
+        <v>4.6505039999999996E-9</v>
       </c>
       <c r="F600" s="9"/>
       <c r="G600" s="1">
@@ -14916,8 +14916,8 @@
       <c r="C601" s="2">
         <v>22.62</v>
       </c>
-      <c r="D601">
-        <v>9.9628699999999995E-10</v>
+      <c r="D601" s="1">
+        <v>3.5686169999999999E-9</v>
       </c>
       <c r="F601" s="9"/>
       <c r="G601" s="1">
@@ -14940,8 +14940,8 @@
       <c r="C602" s="2">
         <v>22.62</v>
       </c>
-      <c r="D602">
-        <v>9.9904199999999991E-10</v>
+      <c r="D602" s="1">
+        <v>4.6238100000000004E-9</v>
       </c>
       <c r="F602" s="9"/>
       <c r="G602" s="1">
@@ -14964,8 +14964,8 @@
       <c r="C603" s="2">
         <v>22.62</v>
       </c>
-      <c r="D603">
-        <v>1.001859E-9</v>
+      <c r="D603" s="1">
+        <v>3.868121E-9</v>
       </c>
       <c r="F603" s="9"/>
       <c r="G603" s="1">
@@ -14988,8 +14988,8 @@
       <c r="C604" s="2">
         <v>22.62</v>
       </c>
-      <c r="D604">
-        <v>1.0033910000000001E-9</v>
+      <c r="D604" s="1">
+        <v>4.7863009999999998E-9</v>
       </c>
       <c r="F604" s="9"/>
       <c r="G604" s="1">
@@ -15012,8 +15012,8 @@
       <c r="C605" s="2">
         <v>22.62</v>
       </c>
-      <c r="D605">
-        <v>1.004609E-9</v>
+      <c r="D605" s="1">
+        <v>3.8238429999999996E-9</v>
       </c>
       <c r="F605" s="9"/>
       <c r="G605" s="1">
@@ -15036,8 +15036,8 @@
       <c r="C606" s="2">
         <v>22.62</v>
       </c>
-      <c r="D606">
-        <v>1.0063979999999999E-9</v>
+      <c r="D606" s="1">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F606" s="9"/>
       <c r="G606" s="1">
@@ -15060,8 +15060,8 @@
       <c r="C607" s="2">
         <v>22.62</v>
       </c>
-      <c r="D607">
-        <v>1.0088850000000001E-9</v>
+      <c r="D607" s="1">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F607" s="9"/>
       <c r="G607" s="1">
@@ -15084,8 +15084,8 @@
       <c r="C608" s="2">
         <v>22.62</v>
       </c>
-      <c r="D608">
-        <v>1.0112899999999999E-9</v>
+      <c r="D608" s="1">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F608" s="9"/>
       <c r="G608" s="1">
@@ -15108,8 +15108,8 @@
       <c r="C609" s="2">
         <v>22.62</v>
       </c>
-      <c r="D609">
-        <v>1.013813E-9</v>
+      <c r="D609" s="1">
+        <v>3.7153519999999998E-9</v>
       </c>
       <c r="F609" s="9"/>
       <c r="G609" s="1">
@@ -15132,8 +15132,8 @@
       <c r="C610" s="2">
         <v>22.62</v>
       </c>
-      <c r="D610">
-        <v>1.0149110000000001E-9</v>
+      <c r="D610" s="1">
+        <v>2.754229E-9</v>
       </c>
       <c r="F610" s="9"/>
       <c r="G610" s="1">
@@ -15156,8 +15156,8 @@
       <c r="C611" s="2">
         <v>22.62</v>
       </c>
-      <c r="D611">
-        <v>1.0162220000000001E-9</v>
+      <c r="D611" s="1">
+        <v>3.8459179999999997E-9</v>
       </c>
       <c r="F611" s="9"/>
       <c r="G611" s="1">
@@ -15180,8 +15180,8 @@
       <c r="C612" s="2">
         <v>22.62</v>
       </c>
-      <c r="D612">
-        <v>1.0178199999999999E-9</v>
+      <c r="D612" s="1">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F612" s="9"/>
       <c r="G612" s="1">
@@ -15204,8 +15204,8 @@
       <c r="C613" s="2">
         <v>22.62</v>
       </c>
-      <c r="D613">
-        <v>1.0203460000000001E-9</v>
+      <c r="D613" s="1">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F613" s="9"/>
       <c r="G613" s="1">
@@ -15228,8 +15228,8 @@
       <c r="C614" s="2">
         <v>22.62</v>
       </c>
-      <c r="D614">
-        <v>1.0226730000000001E-9</v>
+      <c r="D614" s="1">
+        <v>2.9682469999999998E-9</v>
       </c>
       <c r="F614" s="9"/>
       <c r="G614" s="1">
@@ -15252,8 +15252,8 @@
       <c r="C615" s="2">
         <v>22.62</v>
       </c>
-      <c r="D615">
-        <v>1.0243850000000001E-9</v>
+      <c r="D615" s="1">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F615" s="9"/>
       <c r="G615" s="1">
@@ -15276,8 +15276,8 @@
       <c r="C616" s="2">
         <v>22.62</v>
       </c>
-      <c r="D616">
-        <v>1.0255249999999999E-9</v>
+      <c r="D616" s="1">
+        <v>2.9512089999999999E-9</v>
       </c>
       <c r="F616" s="9"/>
       <c r="G616" s="1">
@@ -15300,8 +15300,8 @@
       <c r="C617" s="2">
         <v>22.62</v>
       </c>
-      <c r="D617">
-        <v>1.02764E-9</v>
+      <c r="D617" s="1">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F617" s="9"/>
       <c r="G617" s="1">
@@ -15324,8 +15324,8 @@
       <c r="C618" s="2">
         <v>22.62</v>
       </c>
-      <c r="D618">
-        <v>1.0299019999999999E-9</v>
+      <c r="D618" s="1">
+        <v>3.1081359999999999E-9</v>
       </c>
       <c r="F618" s="9"/>
       <c r="G618" s="1">
@@ -15348,8 +15348,8 @@
       <c r="C619" s="2">
         <v>22.62</v>
       </c>
-      <c r="D619">
-        <v>1.031537E-9</v>
+      <c r="D619" s="1">
+        <v>3.8238429999999996E-9</v>
       </c>
       <c r="F619" s="9"/>
       <c r="G619" s="1">
@@ -15372,8 +15372,8 @@
       <c r="C620" s="2">
         <v>22.62</v>
       </c>
-      <c r="D620">
-        <v>1.032732E-9</v>
+      <c r="D620" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F620" s="9"/>
       <c r="G620" s="1">
@@ -15396,8 +15396,8 @@
       <c r="C621" s="2">
         <v>22.62</v>
       </c>
-      <c r="D621">
-        <v>1.034481E-9</v>
+      <c r="D621" s="1">
+        <v>3.8904510000000003E-9</v>
       </c>
       <c r="F621" s="9"/>
       <c r="G621" s="1">
@@ -15420,8 +15420,8 @@
       <c r="C622" s="2">
         <v>22.62</v>
       </c>
-      <c r="D622">
-        <v>1.0356949999999999E-9</v>
+      <c r="D622" s="1">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F622" s="9"/>
       <c r="G622" s="1">
@@ -15444,8 +15444,8 @@
       <c r="C623" s="2">
         <v>22.62</v>
       </c>
-      <c r="D623">
-        <v>1.036588E-9</v>
+      <c r="D623" s="1">
+        <v>4.0271699999999999E-9</v>
       </c>
       <c r="F623" s="9"/>
       <c r="G623" s="1">
@@ -15468,8 +15468,8 @@
       <c r="C624" s="2">
         <v>22.62</v>
       </c>
-      <c r="D624">
-        <v>1.036497E-9</v>
+      <c r="D624" s="1">
+        <v>3.4673689999999999E-9</v>
       </c>
       <c r="F624" s="9"/>
       <c r="G624" s="1">
@@ -15492,8 +15492,8 @@
       <c r="C625" s="2">
         <v>22.62</v>
       </c>
-      <c r="D625">
-        <v>1.035609E-9</v>
+      <c r="D625" s="1">
+        <v>4.0504190000000003E-9</v>
       </c>
       <c r="F625" s="9"/>
       <c r="G625" s="1">
@@ -15516,8 +15516,8 @@
       <c r="C626" s="2">
         <v>22.62</v>
       </c>
-      <c r="D626">
-        <v>1.035722E-9</v>
+      <c r="D626" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F626" s="9"/>
       <c r="G626" s="1">
@@ -15540,8 +15540,8 @@
       <c r="C627" s="2">
         <v>22.62</v>
       </c>
-      <c r="D627">
-        <v>1.03545E-9</v>
+      <c r="D627" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F627" s="9"/>
       <c r="G627" s="1">
@@ -15564,8 +15564,8 @@
       <c r="C628" s="2">
         <v>22.62</v>
       </c>
-      <c r="D628">
-        <v>1.035347E-9</v>
+      <c r="D628" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F628" s="9"/>
       <c r="G628" s="1">
@@ -15588,8 +15588,8 @@
       <c r="C629" s="2">
         <v>22.62</v>
       </c>
-      <c r="D629">
-        <v>1.0355159999999999E-9</v>
+      <c r="D629" s="1">
+        <v>4.5446449999999997E-9</v>
       </c>
       <c r="F629" s="9"/>
       <c r="G629" s="1">
@@ -15612,8 +15612,8 @@
       <c r="C630" s="2">
         <v>22.62</v>
       </c>
-      <c r="D630">
-        <v>1.0358629999999999E-9</v>
+      <c r="D630" s="1">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F630" s="9"/>
       <c r="G630" s="1">
@@ -15636,8 +15636,8 @@
       <c r="C631" s="2">
         <v>22.62</v>
       </c>
-      <c r="D631">
-        <v>1.037437E-9</v>
+      <c r="D631" s="1">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F631" s="9"/>
       <c r="G631" s="1">
@@ -15660,8 +15660,8 @@
       <c r="C632" s="2">
         <v>22.62</v>
       </c>
-      <c r="D632">
-        <v>1.038405E-9</v>
+      <c r="D632" s="1">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F632" s="9"/>
       <c r="G632" s="1">
@@ -15684,8 +15684,8 @@
       <c r="C633" s="2">
         <v>22.62</v>
       </c>
-      <c r="D633">
-        <v>1.039151E-9</v>
+      <c r="D633" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F633" s="9"/>
       <c r="G633" s="1">
@@ -15708,8 +15708,8 @@
       <c r="C634" s="2">
         <v>22.62</v>
       </c>
-      <c r="D634">
-        <v>1.0402E-9</v>
+      <c r="D634" s="1">
+        <v>4.004055E-9</v>
       </c>
       <c r="F634" s="9"/>
       <c r="G634" s="1">
@@ -15732,8 +15732,8 @@
       <c r="C635" s="2">
         <v>22.62</v>
       </c>
-      <c r="D635">
-        <v>1.042047E-9</v>
+      <c r="D635" s="1">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F635" s="9"/>
       <c r="G635" s="1">
@@ -15756,8 +15756,8 @@
       <c r="C636" s="2">
         <v>22.62</v>
       </c>
-      <c r="D636">
-        <v>1.0442140000000001E-9</v>
+      <c r="D636" s="1">
+        <v>3.981072E-9</v>
       </c>
       <c r="F636" s="9"/>
       <c r="G636" s="1">
@@ -15780,8 +15780,8 @@
       <c r="C637" s="2">
         <v>22.62</v>
       </c>
-      <c r="D637">
-        <v>1.0466279999999999E-9</v>
+      <c r="D637" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F637" s="9"/>
       <c r="G637" s="1">
@@ -15804,8 +15804,8 @@
       <c r="C638" s="2">
         <v>22.62</v>
       </c>
-      <c r="D638">
-        <v>1.0487039999999999E-9</v>
+      <c r="D638" s="1">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F638" s="9"/>
       <c r="G638" s="1">
@@ -15828,8 +15828,8 @@
       <c r="C639" s="2">
         <v>22.62</v>
       </c>
-      <c r="D639">
-        <v>1.051083E-9</v>
+      <c r="D639" s="1">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F639" s="9"/>
       <c r="G639" s="1">
@@ -15852,8 +15852,8 @@
       <c r="C640" s="2">
         <v>22.62</v>
       </c>
-      <c r="D640">
-        <v>1.053927E-9</v>
+      <c r="D640" s="1">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F640" s="9"/>
       <c r="G640" s="1">
@@ -15876,8 +15876,8 @@
       <c r="C641" s="2">
         <v>22.62</v>
       </c>
-      <c r="D641">
-        <v>1.0569589999999999E-9</v>
+      <c r="D641" s="1">
+        <v>3.8238429999999996E-9</v>
       </c>
       <c r="F641" s="9"/>
       <c r="G641" s="1">
@@ -15900,8 +15900,8 @@
       <c r="C642" s="2">
         <v>22.62</v>
       </c>
-      <c r="D642">
-        <v>1.0590549999999999E-9</v>
+      <c r="D642" s="1">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F642" s="9"/>
       <c r="G642" s="1">
@@ -15924,8 +15924,8 @@
       <c r="C643" s="2">
         <v>22.62</v>
       </c>
-      <c r="D643">
-        <v>1.06207E-9</v>
+      <c r="D643" s="1">
+        <v>3.981072E-9</v>
       </c>
       <c r="F643" s="9"/>
       <c r="G643" s="1">
@@ -15948,8 +15948,8 @@
       <c r="C644" s="2">
         <v>22.62</v>
       </c>
-      <c r="D644">
-        <v>1.064749E-9</v>
+      <c r="D644" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F644" s="9"/>
       <c r="G644" s="1">
@@ -15972,8 +15972,8 @@
       <c r="C645" s="2">
         <v>22.62</v>
       </c>
-      <c r="D645">
-        <v>1.0667760000000001E-9</v>
+      <c r="D645" s="1">
+        <v>3.8904510000000003E-9</v>
       </c>
       <c r="F645" s="9"/>
       <c r="G645" s="1">
@@ -15996,8 +15996,8 @@
       <c r="C646" s="2">
         <v>22.62</v>
       </c>
-      <c r="D646">
-        <v>1.0691309999999999E-9</v>
+      <c r="D646" s="1">
+        <v>5.3088439999999997E-9</v>
       </c>
       <c r="F646" s="9"/>
       <c r="G646" s="1">
@@ -16020,8 +16020,8 @@
       <c r="C647" s="2">
         <v>22.62</v>
       </c>
-      <c r="D647">
-        <v>1.0708040000000001E-9</v>
+      <c r="D647" s="1">
+        <v>4.004055E-9</v>
       </c>
       <c r="F647" s="9"/>
       <c r="G647" s="1">
@@ -16044,8 +16044,8 @@
       <c r="C648" s="2">
         <v>22.62</v>
       </c>
-      <c r="D648">
-        <v>1.07178E-9</v>
+      <c r="D648" s="1">
+        <v>5.0699070000000002E-9</v>
       </c>
       <c r="F648" s="9"/>
       <c r="G648" s="1">
@@ -16068,8 +16068,8 @@
       <c r="C649" s="2">
         <v>22.62</v>
       </c>
-      <c r="D649">
-        <v>1.0718360000000001E-9</v>
+      <c r="D649" s="1">
+        <v>4.097321E-9</v>
       </c>
       <c r="F649" s="9"/>
       <c r="G649" s="1">
@@ -16092,8 +16092,8 @@
       <c r="C650" s="2">
         <v>22.62</v>
       </c>
-      <c r="D650">
-        <v>1.0724439999999999E-9</v>
+      <c r="D650" s="1">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F650" s="9"/>
       <c r="G650" s="1">
@@ -16116,8 +16116,8 @@
       <c r="C651" s="2">
         <v>22.62</v>
       </c>
-      <c r="D651">
-        <v>1.0728209999999999E-9</v>
+      <c r="D651" s="1">
+        <v>3.981072E-9</v>
       </c>
       <c r="F651" s="9"/>
       <c r="G651" s="1">
@@ -16140,8 +16140,8 @@
       <c r="C652" s="2">
         <v>22.62</v>
       </c>
-      <c r="D652">
-        <v>1.075317E-9</v>
+      <c r="D652" s="1">
+        <v>4.4926229999999999E-9</v>
       </c>
       <c r="F652" s="9"/>
       <c r="G652" s="1">
@@ -16164,8 +16164,8 @@
       <c r="C653" s="2">
         <v>22.62</v>
       </c>
-      <c r="D653">
-        <v>1.0775559999999999E-9</v>
+      <c r="D653" s="1">
+        <v>4.0271699999999999E-9</v>
       </c>
       <c r="F653" s="9"/>
       <c r="G653" s="1">
@@ -16188,8 +16188,8 @@
       <c r="C654" s="2">
         <v>22.62</v>
       </c>
-      <c r="D654">
-        <v>1.080065E-9</v>
+      <c r="D654" s="1">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F654" s="9"/>
       <c r="G654" s="1">
@@ -16212,8 +16212,8 @@
       <c r="C655" s="2">
         <v>22.62</v>
       </c>
-      <c r="D655">
-        <v>1.0824629999999999E-9</v>
+      <c r="D655" s="1">
+        <v>4.097321E-9</v>
       </c>
       <c r="F655" s="9"/>
       <c r="G655" s="1">
@@ -16236,8 +16236,8 @@
       <c r="C656" s="2">
         <v>22.62</v>
       </c>
-      <c r="D656">
-        <v>1.0838550000000001E-9</v>
+      <c r="D656" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F656" s="9"/>
       <c r="G656" s="1">
@@ -16260,8 +16260,8 @@
       <c r="C657" s="2">
         <v>22.62</v>
       </c>
-      <c r="D657">
-        <v>1.0863480000000001E-9</v>
+      <c r="D657" s="1">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F657" s="9"/>
       <c r="G657" s="1">
@@ -16284,8 +16284,8 @@
       <c r="C658" s="2">
         <v>22.62</v>
       </c>
-      <c r="D658">
-        <v>1.0887950000000001E-9</v>
+      <c r="D658" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F658" s="9"/>
       <c r="G658" s="1">
@@ -16308,8 +16308,8 @@
       <c r="C659" s="2">
         <v>22.62</v>
       </c>
-      <c r="D659">
-        <v>1.0918720000000001E-9</v>
+      <c r="D659" s="1">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F659" s="9"/>
       <c r="G659" s="1">
@@ -16332,8 +16332,8 @@
       <c r="C660" s="2">
         <v>22.62</v>
       </c>
-      <c r="D660">
-        <v>1.0950489999999999E-9</v>
+      <c r="D660" s="1">
+        <v>4.2169650000000002E-9</v>
       </c>
       <c r="F660" s="9"/>
       <c r="G660" s="1">
@@ -16356,8 +16356,8 @@
       <c r="C661" s="2">
         <v>22.62</v>
       </c>
-      <c r="D661">
-        <v>1.0973479999999999E-9</v>
+      <c r="D661" s="1">
+        <v>3.1622780000000002E-9</v>
       </c>
       <c r="F661" s="9"/>
       <c r="G661" s="1">
@@ -16380,8 +16380,8 @@
       <c r="C662" s="2">
         <v>22.62</v>
       </c>
-      <c r="D662">
-        <v>1.0979889999999999E-9</v>
+      <c r="D662" s="1">
+        <v>4.1447659999999999E-9</v>
       </c>
       <c r="F662" s="9"/>
       <c r="G662" s="1">
@@ -16404,8 +16404,8 @@
       <c r="C663" s="2">
         <v>22.62</v>
       </c>
-      <c r="D663">
-        <v>1.0989840000000001E-9</v>
+      <c r="D663" s="1">
+        <v>5.1286140000000002E-9</v>
       </c>
       <c r="F663" s="9"/>
       <c r="G663" s="1">
@@ -16428,8 +16428,8 @@
       <c r="C664" s="2">
         <v>22.62</v>
       </c>
-      <c r="D664">
-        <v>1.0999480000000001E-9</v>
+      <c r="D664" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F664" s="9"/>
       <c r="G664" s="1">
@@ -16452,8 +16452,8 @@
       <c r="C665" s="2">
         <v>22.62</v>
       </c>
-      <c r="D665">
-        <v>1.1016580000000001E-9</v>
+      <c r="D665" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F665" s="9"/>
       <c r="G665" s="1">
@@ -16476,8 +16476,8 @@
       <c r="C666" s="2">
         <v>22.62</v>
       </c>
-      <c r="D666">
-        <v>1.1036190000000001E-9</v>
+      <c r="D666" s="1">
+        <v>4.1447659999999999E-9</v>
       </c>
       <c r="F666" s="9"/>
       <c r="G666" s="1">
@@ -16500,8 +16500,8 @@
       <c r="C667" s="2">
         <v>22.62</v>
       </c>
-      <c r="D667">
-        <v>1.1047829999999999E-9</v>
+      <c r="D667" s="1">
+        <v>4.168694E-9</v>
       </c>
       <c r="F667" s="9"/>
       <c r="G667" s="1">
@@ -16524,8 +16524,8 @@
       <c r="C668" s="2">
         <v>22.62</v>
       </c>
-      <c r="D668">
-        <v>1.1062750000000001E-9</v>
+      <c r="D668" s="1">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F668" s="9"/>
       <c r="G668" s="1">
@@ -16548,8 +16548,8 @@
       <c r="C669" s="2">
         <v>22.62</v>
       </c>
-      <c r="D669">
-        <v>1.107325E-9</v>
+      <c r="D669" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F669" s="9"/>
       <c r="G669" s="1">
@@ -16572,8 +16572,8 @@
       <c r="C670" s="2">
         <v>22.62</v>
       </c>
-      <c r="D670">
-        <v>1.1081420000000001E-9</v>
+      <c r="D670" s="1">
+        <v>4.6505039999999996E-9</v>
       </c>
       <c r="F670" s="9"/>
       <c r="G670" s="1">
@@ -16596,8 +16596,8 @@
       <c r="C671" s="2">
         <v>22.62</v>
       </c>
-      <c r="D671">
-        <v>1.1087649999999999E-9</v>
+      <c r="D671" s="1">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F671" s="9"/>
       <c r="G671" s="1">
@@ -16620,8 +16620,8 @@
       <c r="C672" s="2">
         <v>22.62</v>
       </c>
-      <c r="D672">
-        <v>1.1102840000000001E-9</v>
+      <c r="D672" s="1">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F672" s="9"/>
       <c r="G672" s="1">
@@ -16644,8 +16644,8 @@
       <c r="C673" s="2">
         <v>22.62</v>
       </c>
-      <c r="D673">
-        <v>1.111048E-9</v>
+      <c r="D673" s="1">
+        <v>4.0271699999999999E-9</v>
       </c>
       <c r="F673" s="9"/>
       <c r="G673" s="1">
@@ -16668,8 +16668,8 @@
       <c r="C674" s="2">
         <v>22.62</v>
       </c>
-      <c r="D674">
-        <v>1.111526E-9</v>
+      <c r="D674" s="1">
+        <v>4.4668360000000002E-9</v>
       </c>
       <c r="F674" s="9"/>
       <c r="G674" s="1">
@@ -16692,8 +16692,8 @@
       <c r="C675" s="2">
         <v>22.62</v>
       </c>
-      <c r="D675">
-        <v>1.1129109999999999E-9</v>
+      <c r="D675" s="1">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F675" s="9"/>
       <c r="G675" s="1">
@@ -16716,8 +16716,8 @@
       <c r="C676" s="2">
         <v>22.62</v>
       </c>
-      <c r="D676">
-        <v>1.1151119999999999E-9</v>
+      <c r="D676" s="1">
+        <v>5.0991759999999997E-9</v>
       </c>
       <c r="F676" s="9"/>
       <c r="G676" s="1">
@@ -16740,8 +16740,8 @@
       <c r="C677" s="2">
         <v>22.62</v>
       </c>
-      <c r="D677">
-        <v>1.1177950000000001E-9</v>
+      <c r="D677" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F677" s="9"/>
       <c r="G677" s="1">
@@ -16764,8 +16764,8 @@
       <c r="C678" s="2">
         <v>22.62</v>
       </c>
-      <c r="D678">
-        <v>1.1205060000000001E-9</v>
+      <c r="D678" s="1">
+        <v>4.4157040000000004E-9</v>
       </c>
       <c r="F678" s="9"/>
       <c r="G678" s="1">
@@ -16788,8 +16788,8 @@
       <c r="C679" s="2">
         <v>22.62</v>
       </c>
-      <c r="D679">
-        <v>1.1216070000000001E-9</v>
+      <c r="D679" s="1">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F679" s="9"/>
       <c r="G679" s="1">
@@ -16812,8 +16812,8 @@
       <c r="C680" s="2">
         <v>22.62</v>
       </c>
-      <c r="D680">
-        <v>1.1230970000000001E-9</v>
+      <c r="D680" s="1">
+        <v>4.3651579999999996E-9</v>
       </c>
       <c r="F680" s="9"/>
       <c r="G680" s="1">
@@ -16836,8 +16836,8 @@
       <c r="C681" s="2">
         <v>22.62</v>
       </c>
-      <c r="D681">
-        <v>1.1242350000000001E-9</v>
+      <c r="D681" s="1">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F681" s="9"/>
       <c r="G681" s="1">
@@ -16860,8 +16860,8 @@
       <c r="C682" s="2">
         <v>22.62</v>
       </c>
-      <c r="D682">
-        <v>1.1260359999999999E-9</v>
+      <c r="D682" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F682" s="9"/>
       <c r="G682" s="1">
@@ -16884,8 +16884,8 @@
       <c r="C683" s="2">
         <v>22.62</v>
       </c>
-      <c r="D683">
-        <v>1.1283160000000001E-9</v>
+      <c r="D683" s="1">
+        <v>3.651741E-9</v>
       </c>
       <c r="F683" s="9"/>
       <c r="G683" s="1">
@@ -16908,8 +16908,8 @@
       <c r="C684" s="2">
         <v>22.62</v>
       </c>
-      <c r="D684">
-        <v>1.130066E-9</v>
+      <c r="D684" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F684" s="9"/>
       <c r="G684" s="1">
@@ -16932,8 +16932,8 @@
       <c r="C685" s="2">
         <v>22.62</v>
       </c>
-      <c r="D685">
-        <v>1.1319419999999999E-9</v>
+      <c r="D685" s="1">
+        <v>5.248075E-9</v>
       </c>
       <c r="F685" s="9"/>
       <c r="G685" s="1">
@@ -16956,8 +16956,8 @@
       <c r="C686" s="2">
         <v>22.62</v>
       </c>
-      <c r="D686">
-        <v>1.1331660000000001E-9</v>
+      <c r="D686" s="1">
+        <v>4.265795E-9</v>
       </c>
       <c r="F686" s="9"/>
       <c r="G686" s="1">
@@ -16980,8 +16980,8 @@
       <c r="C687" s="2">
         <v>22.62</v>
       </c>
-      <c r="D687">
-        <v>1.1340800000000001E-9</v>
+      <c r="D687" s="1">
+        <v>4.4668360000000002E-9</v>
       </c>
       <c r="F687" s="9"/>
       <c r="G687" s="1">
@@ -17004,8 +17004,8 @@
       <c r="C688" s="2">
         <v>22.62</v>
       </c>
-      <c r="D688">
-        <v>1.1346730000000001E-9</v>
+      <c r="D688" s="1">
+        <v>3.7153519999999998E-9</v>
       </c>
       <c r="F688" s="9"/>
       <c r="G688" s="1">
@@ -17028,8 +17028,8 @@
       <c r="C689" s="2">
         <v>22.62</v>
       </c>
-      <c r="D689">
-        <v>1.135758E-9</v>
+      <c r="D689" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F689" s="9"/>
       <c r="G689" s="1">
@@ -17052,8 +17052,8 @@
       <c r="C690" s="2">
         <v>22.62</v>
       </c>
-      <c r="D690">
-        <v>1.137782E-9</v>
+      <c r="D690" s="1">
+        <v>3.2546179999999999E-9</v>
       </c>
       <c r="F690" s="9"/>
       <c r="G690" s="1">
@@ -17076,8 +17076,8 @@
       <c r="C691" s="2">
         <v>22.62</v>
       </c>
-      <c r="D691">
-        <v>1.140918E-9</v>
+      <c r="D691" s="1">
+        <v>4.3903590000000002E-9</v>
       </c>
       <c r="F691" s="9"/>
       <c r="G691" s="1">
@@ -17100,8 +17100,8 @@
       <c r="C692" s="2">
         <v>22.62</v>
       </c>
-      <c r="D692">
-        <v>1.1428379999999999E-9</v>
+      <c r="D692" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F692" s="9"/>
       <c r="G692" s="1">
@@ -17124,8 +17124,8 @@
       <c r="C693" s="2">
         <v>22.62</v>
       </c>
-      <c r="D693">
-        <v>1.143688E-9</v>
+      <c r="D693" s="1">
+        <v>4.4157040000000004E-9</v>
       </c>
       <c r="F693" s="9"/>
       <c r="G693" s="1">
@@ -17148,8 +17148,8 @@
       <c r="C694" s="2">
         <v>22.62</v>
       </c>
-      <c r="D694">
-        <v>1.1440840000000001E-9</v>
+      <c r="D694" s="1">
+        <v>4.3903590000000002E-9</v>
       </c>
       <c r="F694" s="9"/>
       <c r="G694" s="1">
@@ -17172,8 +17172,8 @@
       <c r="C695" s="2">
         <v>22.62</v>
       </c>
-      <c r="D695">
-        <v>1.146054E-9</v>
+      <c r="D695" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F695" s="9"/>
       <c r="G695" s="1">
@@ -17196,8 +17196,8 @@
       <c r="C696" s="2">
         <v>22.62</v>
       </c>
-      <c r="D696">
-        <v>1.148045E-9</v>
+      <c r="D696" s="1">
+        <v>4.7588280000000004E-9</v>
       </c>
       <c r="F696" s="9"/>
       <c r="G696" s="1">
@@ -17220,8 +17220,8 @@
       <c r="C697" s="2">
         <v>22.62</v>
       </c>
-      <c r="D697">
-        <v>1.151426E-9</v>
+      <c r="D697" s="1">
+        <v>3.5481339999999999E-9</v>
       </c>
       <c r="F697" s="9"/>
       <c r="G697" s="1">
@@ -17244,8 +17244,8 @@
       <c r="C698" s="2">
         <v>22.62</v>
       </c>
-      <c r="D698">
-        <v>1.1558500000000001E-9</v>
+      <c r="D698" s="1">
+        <v>4.5708819999999996E-9</v>
       </c>
       <c r="F698" s="9"/>
       <c r="G698" s="1">
@@ -17268,8 +17268,8 @@
       <c r="C699" s="2">
         <v>22.62</v>
       </c>
-      <c r="D699">
-        <v>1.1600510000000001E-9</v>
+      <c r="D699" s="1">
+        <v>3.9355010000000002E-9</v>
       </c>
       <c r="F699" s="9"/>
       <c r="G699" s="1">
@@ -17292,8 +17292,8 @@
       <c r="C700" s="2">
         <v>22.62</v>
       </c>
-      <c r="D700">
-        <v>1.1629309999999999E-9</v>
+      <c r="D700" s="1">
+        <v>4.3401030000000001E-9</v>
       </c>
       <c r="F700" s="9"/>
       <c r="G700" s="1">
@@ -17316,8 +17316,8 @@
       <c r="C701" s="2">
         <v>22.62</v>
       </c>
-      <c r="D701">
-        <v>1.164747E-9</v>
+      <c r="D701" s="1">
+        <v>5.248075E-9</v>
       </c>
       <c r="F701" s="9"/>
       <c r="G701" s="1">
@@ -17340,8 +17340,8 @@
       <c r="C702" s="2">
         <v>22.62</v>
       </c>
-      <c r="D702">
-        <v>1.167563E-9</v>
+      <c r="D702" s="1">
+        <v>4.265795E-9</v>
       </c>
       <c r="F702" s="9"/>
       <c r="G702" s="1">
@@ -17364,8 +17364,8 @@
       <c r="C703" s="2">
         <v>22.62</v>
       </c>
-      <c r="D703">
-        <v>1.1706960000000001E-9</v>
+      <c r="D703" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F703" s="9"/>
       <c r="G703" s="1">
@@ -17388,8 +17388,8 @@
       <c r="C704" s="2">
         <v>22.62</v>
       </c>
-      <c r="D704">
-        <v>1.173903E-9</v>
+      <c r="D704" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F704" s="9"/>
       <c r="G704" s="1">
@@ -17412,8 +17412,8 @@
       <c r="C705" s="2">
         <v>22.62</v>
       </c>
-      <c r="D705">
-        <v>1.1762510000000001E-9</v>
+      <c r="D705" s="1">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F705" s="9"/>
       <c r="G705" s="1">
@@ -17436,8 +17436,8 @@
       <c r="C706" s="2">
         <v>22.62</v>
       </c>
-      <c r="D706">
-        <v>1.1773150000000001E-9</v>
+      <c r="D706" s="1">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F706" s="9"/>
       <c r="G706" s="1">
@@ -17460,8 +17460,8 @@
       <c r="C707" s="2">
         <v>22.62</v>
       </c>
-      <c r="D707">
-        <v>1.1779599999999999E-9</v>
+      <c r="D707" s="1">
+        <v>4.7043539999999998E-9</v>
       </c>
       <c r="F707" s="9"/>
       <c r="G707" s="1">
@@ -17484,8 +17484,8 @@
       <c r="C708" s="2">
         <v>22.62</v>
       </c>
-      <c r="D708">
-        <v>1.1775719999999999E-9</v>
+      <c r="D708" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F708" s="9"/>
       <c r="G708" s="1">
@@ -17508,8 +17508,8 @@
       <c r="C709" s="2">
         <v>22.62</v>
       </c>
-      <c r="D709">
-        <v>1.177613E-9</v>
+      <c r="D709" s="1">
+        <v>4.4926229999999999E-9</v>
       </c>
       <c r="F709" s="9"/>
       <c r="G709" s="1">
@@ -17532,8 +17532,8 @@
       <c r="C710" s="2">
         <v>22.62</v>
       </c>
-      <c r="D710">
-        <v>1.1788499999999999E-9</v>
+      <c r="D710" s="1">
+        <v>4.2413100000000001E-9</v>
       </c>
       <c r="F710" s="9"/>
       <c r="G710" s="1">
@@ -17556,8 +17556,8 @@
       <c r="C711" s="2">
         <v>22.62</v>
       </c>
-      <c r="D711">
-        <v>1.180145E-9</v>
+      <c r="D711" s="1">
+        <v>4.5185589999999998E-9</v>
       </c>
       <c r="F711" s="9"/>
       <c r="G711" s="1">
@@ -17580,8 +17580,8 @@
       <c r="C712" s="2">
         <v>22.62</v>
       </c>
-      <c r="D712">
-        <v>1.181231E-9</v>
+      <c r="D712" s="1">
+        <v>3.651741E-9</v>
       </c>
       <c r="F712" s="9"/>
       <c r="G712" s="1">
@@ -17604,8 +17604,8 @@
       <c r="C713" s="2">
         <v>22.62</v>
       </c>
-      <c r="D713">
-        <v>1.181968E-9</v>
+      <c r="D713" s="1">
+        <v>4.5446449999999997E-9</v>
       </c>
       <c r="F713" s="9"/>
       <c r="G713" s="1">
@@ -17628,8 +17628,8 @@
       <c r="C714" s="2">
         <v>22.62</v>
       </c>
-      <c r="D714">
-        <v>1.1829479999999999E-9</v>
+      <c r="D714" s="1">
+        <v>3.4276780000000001E-9</v>
       </c>
       <c r="F714" s="9"/>
       <c r="G714" s="1">
@@ -17652,8 +17652,8 @@
       <c r="C715" s="2">
         <v>22.62</v>
       </c>
-      <c r="D715">
-        <v>1.184251E-9</v>
+      <c r="D715" s="1">
+        <v>4.5708819999999996E-9</v>
       </c>
       <c r="F715" s="9"/>
       <c r="G715" s="1">
@@ -17676,8 +17676,8 @@
       <c r="C716" s="2">
         <v>22.62</v>
       </c>
-      <c r="D716">
-        <v>1.186179E-9</v>
+      <c r="D716" s="1">
+        <v>3.9582209999999999E-9</v>
       </c>
       <c r="F716" s="9"/>
       <c r="G716" s="1">
@@ -17700,8 +17700,8 @@
       <c r="C717" s="2">
         <v>22.62</v>
       </c>
-      <c r="D717">
-        <v>1.1888850000000001E-9</v>
+      <c r="D717" s="1">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F717" s="9"/>
       <c r="G717" s="1">
@@ -17724,8 +17724,8 @@
       <c r="C718" s="2">
         <v>22.62</v>
       </c>
-      <c r="D718">
-        <v>1.1903849999999999E-9</v>
+      <c r="D718" s="1">
+        <v>4.3651579999999996E-9</v>
       </c>
       <c r="F718" s="9"/>
       <c r="G718" s="1">
@@ -17748,8 +17748,8 @@
       <c r="C719" s="2">
         <v>22.62</v>
       </c>
-      <c r="D719">
-        <v>1.192312E-9</v>
+      <c r="D719" s="1">
+        <v>4.6505039999999996E-9</v>
       </c>
       <c r="F719" s="9"/>
       <c r="G719" s="1">
@@ -17772,8 +17772,8 @@
       <c r="C720" s="2">
         <v>22.62</v>
       </c>
-      <c r="D720">
-        <v>1.1936070000000001E-9</v>
+      <c r="D720" s="1">
+        <v>4.4157040000000004E-9</v>
       </c>
       <c r="F720" s="9"/>
       <c r="G720" s="1">
@@ -17796,8 +17796,8 @@
       <c r="C721" s="2">
         <v>22.62</v>
       </c>
-      <c r="D721">
-        <v>1.1953489999999999E-9</v>
+      <c r="D721" s="1">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F721" s="9"/>
       <c r="G721" s="1">
@@ -17820,8 +17820,8 @@
       <c r="C722" s="2">
         <v>22.62</v>
       </c>
-      <c r="D722">
-        <v>1.1986E-9</v>
+      <c r="D722" s="1">
+        <v>3.981072E-9</v>
       </c>
       <c r="F722" s="9"/>
       <c r="G722" s="1">
@@ -17844,8 +17844,8 @@
       <c r="C723" s="2">
         <v>22.62</v>
       </c>
-      <c r="D723">
-        <v>1.20198E-9</v>
+      <c r="D723" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F723" s="9"/>
       <c r="G723" s="1">
@@ -17868,8 +17868,8 @@
       <c r="C724" s="2">
         <v>22.62</v>
       </c>
-      <c r="D724">
-        <v>1.2047159999999999E-9</v>
+      <c r="D724" s="1">
+        <v>3.5277679999999999E-9</v>
       </c>
       <c r="F724" s="9"/>
       <c r="G724" s="1">
@@ -17892,8 +17892,8 @@
       <c r="C725" s="2">
         <v>22.62</v>
       </c>
-      <c r="D725">
-        <v>1.207991E-9</v>
+      <c r="D725" s="1">
+        <v>4.5708819999999996E-9</v>
       </c>
       <c r="F725" s="9"/>
       <c r="G725" s="1">
@@ -17916,8 +17916,8 @@
       <c r="C726" s="2">
         <v>22.62</v>
       </c>
-      <c r="D726">
-        <v>1.2108619999999999E-9</v>
+      <c r="D726" s="1">
+        <v>4.2169650000000002E-9</v>
       </c>
       <c r="F726" s="9"/>
       <c r="G726" s="1">
@@ -17940,8 +17940,8 @@
       <c r="C727" s="2">
         <v>22.62</v>
       </c>
-      <c r="D727">
-        <v>1.2122029999999999E-9</v>
+      <c r="D727" s="1">
+        <v>4.4926229999999999E-9</v>
       </c>
       <c r="F727" s="9"/>
       <c r="G727" s="1">
@@ -17964,8 +17964,8 @@
       <c r="C728" s="2">
         <v>22.62</v>
       </c>
-      <c r="D728">
-        <v>1.212479E-9</v>
+      <c r="D728" s="1">
+        <v>5.8210319999999999E-9</v>
       </c>
       <c r="F728" s="9"/>
       <c r="G728" s="1">
@@ -17988,8 +17988,8 @@
       <c r="C729" s="2">
         <v>22.62</v>
       </c>
-      <c r="D729">
-        <v>1.212608E-9</v>
+      <c r="D729" s="1">
+        <v>4.6238100000000004E-9</v>
       </c>
       <c r="F729" s="9"/>
       <c r="G729" s="1">
@@ -18012,8 +18012,8 @@
       <c r="C730" s="2">
         <v>22.62</v>
       </c>
-      <c r="D730">
-        <v>1.213131E-9</v>
+      <c r="D730" s="1">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F730" s="9"/>
       <c r="G730" s="1">
@@ -18036,8 +18036,8 @@
       <c r="C731" s="2">
         <v>22.62</v>
       </c>
-      <c r="D731">
-        <v>1.2152849999999999E-9</v>
+      <c r="D731" s="1">
+        <v>4.4926229999999999E-9</v>
       </c>
       <c r="F731" s="9"/>
       <c r="G731" s="1">
@@ -18060,8 +18060,8 @@
       <c r="C732" s="2">
         <v>22.62</v>
       </c>
-      <c r="D732">
-        <v>1.2173570000000001E-9</v>
+      <c r="D732" s="1">
+        <v>3.5277679999999999E-9</v>
       </c>
       <c r="F732" s="9"/>
       <c r="G732" s="1">
@@ -18084,8 +18084,8 @@
       <c r="C733" s="2">
         <v>22.62</v>
       </c>
-      <c r="D733">
-        <v>1.219546E-9</v>
+      <c r="D733" s="1">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F733" s="9"/>
       <c r="G733" s="1">
@@ -18108,8 +18108,8 @@
       <c r="C734" s="2">
         <v>22.62</v>
       </c>
-      <c r="D734">
-        <v>1.220952E-9</v>
+      <c r="D734" s="1">
+        <v>3.60994E-9</v>
       </c>
       <c r="F734" s="9"/>
       <c r="G734" s="1">
@@ -18132,8 +18132,8 @@
       <c r="C735" s="2">
         <v>22.62</v>
       </c>
-      <c r="D735">
-        <v>1.2220279999999999E-9</v>
+      <c r="D735" s="1">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F735" s="9"/>
       <c r="G735" s="1">
@@ -18156,8 +18156,8 @@
       <c r="C736" s="2">
         <v>22.62</v>
       </c>
-      <c r="D736">
-        <v>1.2234030000000001E-9</v>
+      <c r="D736" s="1">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F736" s="9"/>
       <c r="G736" s="1">
@@ -18180,8 +18180,8 @@
       <c r="C737" s="2">
         <v>22.62</v>
       </c>
-      <c r="D737">
-        <v>1.225325E-9</v>
+      <c r="D737" s="1">
+        <v>4.7588280000000004E-9</v>
       </c>
       <c r="F737" s="9"/>
       <c r="G737" s="1">
@@ -18204,8 +18204,8 @@
       <c r="C738" s="2">
         <v>22.62</v>
       </c>
-      <c r="D738">
-        <v>1.2280330000000001E-9</v>
+      <c r="D738" s="1">
+        <v>3.6940259999999999E-9</v>
       </c>
       <c r="F738" s="9"/>
       <c r="G738" s="1">
@@ -18228,8 +18228,8 @@
       <c r="C739" s="2">
         <v>22.62</v>
       </c>
-      <c r="D739">
-        <v>1.2316030000000001E-9</v>
+      <c r="D739" s="1">
+        <v>4.7863009999999998E-9</v>
       </c>
       <c r="F739" s="9"/>
       <c r="G739" s="1">
@@ -18252,8 +18252,8 @@
       <c r="C740" s="2">
         <v>22.62</v>
       </c>
-      <c r="D740">
-        <v>1.2350970000000001E-9</v>
+      <c r="D740" s="1">
+        <v>4.5185589999999998E-9</v>
       </c>
       <c r="F740" s="9"/>
       <c r="G740" s="1">
@@ -18276,8 +18276,8 @@
       <c r="C741" s="2">
         <v>22.62</v>
       </c>
-      <c r="D741">
-        <v>1.2360720000000001E-9</v>
+      <c r="D741" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F741" s="9"/>
       <c r="G741" s="1">
@@ -18300,8 +18300,8 @@
       <c r="C742" s="2">
         <v>22.62</v>
       </c>
-      <c r="D742">
-        <v>1.236858E-9</v>
+      <c r="D742" s="1">
+        <v>4.7043539999999998E-9</v>
       </c>
       <c r="F742" s="9"/>
       <c r="G742" s="1">
@@ -18324,8 +18324,8 @@
       <c r="C743" s="2">
         <v>22.62</v>
       </c>
-      <c r="D743">
-        <v>1.238348E-9</v>
+      <c r="D743" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F743" s="9"/>
       <c r="G743" s="1">
@@ -18348,8 +18348,8 @@
       <c r="C744" s="2">
         <v>22.62</v>
       </c>
-      <c r="D744">
-        <v>1.2403010000000001E-9</v>
+      <c r="D744" s="1">
+        <v>4.6505039999999996E-9</v>
       </c>
       <c r="F744" s="9"/>
       <c r="G744" s="1">
@@ -18372,8 +18372,8 @@
       <c r="C745" s="2">
         <v>22.62</v>
       </c>
-      <c r="D745">
-        <v>1.242683E-9</v>
+      <c r="D745" s="1">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F745" s="9"/>
       <c r="G745" s="1">
@@ -18396,8 +18396,8 @@
       <c r="C746" s="2">
         <v>22.62</v>
       </c>
-      <c r="D746">
-        <v>1.2447449999999999E-9</v>
+      <c r="D746" s="1">
+        <v>4.6238100000000004E-9</v>
       </c>
       <c r="F746" s="9"/>
       <c r="G746" s="1">
@@ -18420,8 +18420,8 @@
       <c r="C747" s="2">
         <v>22.62</v>
       </c>
-      <c r="D747">
-        <v>1.246055E-9</v>
+      <c r="D747" s="1">
+        <v>3.801894E-9</v>
       </c>
       <c r="F747" s="9"/>
       <c r="G747" s="1">
@@ -18444,8 +18444,8 @@
       <c r="C748" s="2">
         <v>22.62</v>
       </c>
-      <c r="D748">
-        <v>1.2472179999999999E-9</v>
+      <c r="D748" s="1">
+        <v>4.6773509999999997E-9</v>
       </c>
       <c r="F748" s="9"/>
       <c r="G748" s="1">
@@ -18468,8 +18468,8 @@
       <c r="C749" s="2">
         <v>22.62</v>
       </c>
-      <c r="D749">
-        <v>1.248694E-9</v>
+      <c r="D749" s="1">
+        <v>3.7800710000000001E-9</v>
       </c>
       <c r="F749" s="9"/>
       <c r="G749" s="1">
@@ -18492,8 +18492,8 @@
       <c r="C750" s="2">
         <v>22.62</v>
       </c>
-      <c r="D750">
-        <v>1.2492600000000001E-9</v>
+      <c r="D750" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F750" s="9"/>
       <c r="G750" s="1">
@@ -18516,8 +18516,8 @@
       <c r="C751" s="2">
         <v>22.62</v>
       </c>
-      <c r="D751">
-        <v>1.2518840000000001E-9</v>
+      <c r="D751" s="1">
+        <v>3.8459179999999997E-9</v>
       </c>
       <c r="F751" s="9"/>
       <c r="G751" s="1">
@@ -18540,8 +18540,8 @@
       <c r="C752" s="2">
         <v>22.62</v>
       </c>
-      <c r="D752">
-        <v>1.2542819999999999E-9</v>
+      <c r="D752" s="1">
+        <v>5.0408059999999996E-9</v>
       </c>
       <c r="F752" s="9"/>
       <c r="G752" s="1">
@@ -18564,8 +18564,8 @@
       <c r="C753" s="2">
         <v>22.62</v>
       </c>
-      <c r="D753">
-        <v>1.2559089999999999E-9</v>
+      <c r="D753" s="1">
+        <v>4.1209749999999996E-9</v>
       </c>
       <c r="F753" s="9"/>
       <c r="G753" s="1">
@@ -18588,8 +18588,8 @@
       <c r="C754" s="2">
         <v>22.62</v>
       </c>
-      <c r="D754">
-        <v>1.256438E-9</v>
+      <c r="D754" s="1">
+        <v>5.1286140000000002E-9</v>
       </c>
       <c r="F754" s="9"/>
       <c r="G754" s="1">
@@ -18612,8 +18612,8 @@
       <c r="C755" s="2">
         <v>22.62</v>
       </c>
-      <c r="D755">
-        <v>1.256807E-9</v>
+      <c r="D755" s="1">
+        <v>4.4411969999999998E-9</v>
       </c>
       <c r="F755" s="9"/>
       <c r="G755" s="1">
@@ -18636,8 +18636,8 @@
       <c r="C756" s="2">
         <v>22.62</v>
       </c>
-      <c r="D756">
-        <v>1.2579179999999999E-9</v>
+      <c r="D756" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F756" s="9"/>
       <c r="G756" s="1">
@@ -18660,8 +18660,8 @@
       <c r="C757" s="2">
         <v>22.62</v>
       </c>
-      <c r="D757">
-        <v>1.259548E-9</v>
+      <c r="D757" s="1">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F757" s="9"/>
       <c r="G757" s="1">
@@ -18684,8 +18684,8 @@
       <c r="C758" s="2">
         <v>22.62</v>
       </c>
-      <c r="D758">
-        <v>1.260676E-9</v>
+      <c r="D758" s="1">
+        <v>5.559043E-9</v>
       </c>
       <c r="F758" s="9"/>
       <c r="G758" s="1">
@@ -18708,8 +18708,8 @@
       <c r="C759" s="2">
         <v>22.62</v>
       </c>
-      <c r="D759">
-        <v>1.261588E-9</v>
+      <c r="D759" s="1">
+        <v>4.7863009999999998E-9</v>
       </c>
       <c r="F759" s="9"/>
       <c r="G759" s="1">
@@ -18732,8 +18732,8 @@
       <c r="C760" s="2">
         <v>22.62</v>
       </c>
-      <c r="D760">
-        <v>1.262973E-9</v>
+      <c r="D760" s="1">
+        <v>5.3088439999999997E-9</v>
       </c>
       <c r="F760" s="9"/>
       <c r="G760" s="1">
@@ -18756,8 +18756,8 @@
       <c r="C761" s="2">
         <v>22.62</v>
       </c>
-      <c r="D761">
-        <v>1.264765E-9</v>
+      <c r="D761" s="1">
+        <v>4.7863009999999998E-9</v>
       </c>
       <c r="F761" s="9"/>
       <c r="G761" s="1">
@@ -18780,8 +18780,8 @@
       <c r="C762" s="2">
         <v>22.62</v>
       </c>
-      <c r="D762">
-        <v>1.266338E-9</v>
+      <c r="D762" s="1">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F762" s="9"/>
       <c r="G762" s="1">
@@ -18804,8 +18804,8 @@
       <c r="C763" s="2">
         <v>22.62</v>
       </c>
-      <c r="D763">
-        <v>1.2685589999999999E-9</v>
+      <c r="D763" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F763" s="9"/>
       <c r="G763" s="1">
@@ -18828,8 +18828,8 @@
       <c r="C764" s="2">
         <v>22.62</v>
       </c>
-      <c r="D764">
-        <v>1.270529E-9</v>
+      <c r="D764" s="1">
+        <v>4.4157040000000004E-9</v>
       </c>
       <c r="F764" s="9"/>
       <c r="G764" s="1">
@@ -18852,8 +18852,8 @@
       <c r="C765" s="2">
         <v>22.62</v>
       </c>
-      <c r="D765">
-        <v>1.2741569999999999E-9</v>
+      <c r="D765" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F765" s="9"/>
       <c r="G765" s="1">
@@ -18876,8 +18876,8 @@
       <c r="C766" s="2">
         <v>22.62</v>
       </c>
-      <c r="D766">
-        <v>1.2771980000000001E-9</v>
+      <c r="D766" s="1">
+        <v>5.8546370000000002E-9</v>
       </c>
       <c r="F766" s="9"/>
       <c r="G766" s="1">
@@ -18900,8 +18900,8 @@
       <c r="C767" s="2">
         <v>22.62</v>
       </c>
-      <c r="D767">
-        <v>1.2799920000000001E-9</v>
+      <c r="D767" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F767" s="9"/>
       <c r="G767" s="1">
@@ -18924,8 +18924,8 @@
       <c r="C768" s="2">
         <v>22.62</v>
       </c>
-      <c r="D768">
-        <v>1.2828089999999999E-9</v>
+      <c r="D768" s="1">
+        <v>5.0408059999999996E-9</v>
       </c>
       <c r="F768" s="9"/>
       <c r="G768" s="1">
@@ -18948,8 +18948,8 @@
       <c r="C769" s="2">
         <v>22.62</v>
       </c>
-      <c r="D769">
-        <v>1.2851060000000001E-9</v>
+      <c r="D769" s="1">
+        <v>4.8977879999999997E-9</v>
       </c>
       <c r="F769" s="9"/>
       <c r="G769" s="1">
@@ -18972,8 +18972,8 @@
       <c r="C770" s="2">
         <v>22.62</v>
       </c>
-      <c r="D770">
-        <v>1.2893370000000001E-9</v>
+      <c r="D770" s="1">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F770" s="9"/>
       <c r="G770" s="1">
@@ -18996,8 +18996,8 @@
       <c r="C771" s="2">
         <v>22.62</v>
       </c>
-      <c r="D771">
-        <v>1.2932449999999999E-9</v>
+      <c r="D771" s="1">
+        <v>4.8417240000000001E-9</v>
       </c>
       <c r="F771" s="9"/>
       <c r="G771" s="1">
@@ -19020,8 +19020,8 @@
       <c r="C772" s="2">
         <v>22.62</v>
       </c>
-      <c r="D772">
-        <v>1.2969140000000001E-9</v>
+      <c r="D772" s="1">
+        <v>3.6728229999999999E-9</v>
       </c>
       <c r="F772" s="9"/>
       <c r="G772" s="1">
@@ -19044,8 +19044,8 @@
       <c r="C773" s="2">
         <v>22.62</v>
       </c>
-      <c r="D773">
-        <v>1.298251E-9</v>
+      <c r="D773" s="1">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F773" s="9"/>
       <c r="G773" s="1">
@@ -19068,8 +19068,8 @@
       <c r="C774" s="2">
         <v>22.62</v>
       </c>
-      <c r="D774">
-        <v>1.2995810000000001E-9</v>
+      <c r="D774" s="1">
+        <v>6.3826350000000003E-9</v>
       </c>
       <c r="F774" s="9"/>
       <c r="G774" s="1">
@@ -19092,8 +19092,8 @@
       <c r="C775" s="2">
         <v>22.62</v>
       </c>
-      <c r="D775">
-        <v>1.300561E-9</v>
+      <c r="D775" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F775" s="9"/>
       <c r="G775" s="1">
@@ -19116,8 +19116,8 @@
       <c r="C776" s="2">
         <v>22.62</v>
       </c>
-      <c r="D776">
-        <v>1.3027059999999999E-9</v>
+      <c r="D776" s="1">
+        <v>5.7876199999999999E-9</v>
       </c>
       <c r="F776" s="9"/>
       <c r="G776" s="1">
@@ -19140,8 +19140,8 @@
       <c r="C777" s="2">
         <v>22.62</v>
       </c>
-      <c r="D777">
-        <v>1.304506E-9</v>
+      <c r="D777" s="1">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F777" s="9"/>
       <c r="G777" s="1">
@@ -19164,8 +19164,8 @@
       <c r="C778" s="2">
         <v>22.62</v>
       </c>
-      <c r="D778">
-        <v>1.3060339999999999E-9</v>
+      <c r="D778" s="1">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F778" s="9"/>
       <c r="G778" s="1">
@@ -19188,8 +19188,8 @@
       <c r="C779" s="2">
         <v>22.62</v>
       </c>
-      <c r="D779">
-        <v>1.307488E-9</v>
+      <c r="D779" s="1">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F779" s="9"/>
       <c r="G779" s="1">
@@ -19212,8 +19212,8 @@
       <c r="C780" s="2">
         <v>22.62</v>
       </c>
-      <c r="D780">
-        <v>1.310718E-9</v>
+      <c r="D780" s="1">
+        <v>5.0408059999999996E-9</v>
       </c>
       <c r="F780" s="9"/>
       <c r="G780" s="1">
@@ -19236,8 +19236,8 @@
       <c r="C781" s="2">
         <v>22.62</v>
       </c>
-      <c r="D781">
-        <v>1.3126320000000001E-9</v>
+      <c r="D781" s="1">
+        <v>4.8977879999999997E-9</v>
       </c>
       <c r="F781" s="9"/>
       <c r="G781" s="1">
@@ -19260,8 +19260,8 @@
       <c r="C782" s="2">
         <v>22.62</v>
       </c>
-      <c r="D782">
-        <v>1.3138030000000001E-9</v>
+      <c r="D782" s="1">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F782" s="9"/>
       <c r="G782" s="1">
@@ -19284,8 +19284,8 @@
       <c r="C783" s="2">
         <v>22.62</v>
       </c>
-      <c r="D783">
-        <v>1.315392E-9</v>
+      <c r="D783" s="1">
+        <v>4.0738029999999999E-9</v>
       </c>
       <c r="F783" s="9"/>
       <c r="G783" s="1">
@@ -19308,8 +19308,8 @@
       <c r="C784" s="2">
         <v>22.62</v>
       </c>
-      <c r="D784">
-        <v>1.317965E-9</v>
+      <c r="D784" s="1">
+        <v>5.1286140000000002E-9</v>
       </c>
       <c r="F784" s="9"/>
       <c r="G784" s="1">
@@ -19332,8 +19332,8 @@
       <c r="C785" s="2">
         <v>22.62</v>
       </c>
-      <c r="D785">
-        <v>1.320301E-9</v>
+      <c r="D785" s="1">
+        <v>4.097321E-9</v>
       </c>
       <c r="F785" s="9"/>
       <c r="G785" s="1">
@@ -19356,8 +19356,8 @@
       <c r="C786" s="2">
         <v>22.62</v>
       </c>
-      <c r="D786">
-        <v>1.321841E-9</v>
+      <c r="D786" s="1">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F786" s="9"/>
       <c r="G786" s="1">
@@ -19380,8 +19380,8 @@
       <c r="C787" s="2">
         <v>22.62</v>
       </c>
-      <c r="D787">
-        <v>1.324754E-9</v>
+      <c r="D787" s="1">
+        <v>4.097321E-9</v>
       </c>
       <c r="F787" s="9"/>
       <c r="G787" s="1">
@@ -19404,8 +19404,8 @@
       <c r="C788" s="2">
         <v>22.62</v>
       </c>
-      <c r="D788">
-        <v>1.3278460000000001E-9</v>
+      <c r="D788" s="1">
+        <v>5.0699070000000002E-9</v>
       </c>
       <c r="F788" s="9"/>
       <c r="G788" s="1">
@@ -19428,8 +19428,8 @@
       <c r="C789" s="2">
         <v>22.62</v>
       </c>
-      <c r="D789">
-        <v>1.3318629999999999E-9</v>
+      <c r="D789" s="1">
+        <v>4.2904220000000004E-9</v>
       </c>
       <c r="F789" s="9"/>
       <c r="G789" s="1">
@@ -19452,8 +19452,8 @@
       <c r="C790" s="2">
         <v>22.62</v>
       </c>
-      <c r="D790">
-        <v>1.3348450000000001E-9</v>
+      <c r="D790" s="1">
+        <v>4.926063E-9</v>
       </c>
       <c r="F790" s="9"/>
       <c r="G790" s="1">
@@ -19476,8 +19476,8 @@
       <c r="C791" s="2">
         <v>22.62</v>
       </c>
-      <c r="D791">
-        <v>1.3364779999999999E-9</v>
+      <c r="D791" s="1">
+        <v>3.9355010000000002E-9</v>
       </c>
       <c r="F791" s="9"/>
       <c r="G791" s="1">
@@ -19500,8 +19500,8 @@
       <c r="C792" s="2">
         <v>22.62</v>
       </c>
-      <c r="D792">
-        <v>1.337537E-9</v>
+      <c r="D792" s="1">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F792" s="9"/>
       <c r="G792" s="1">
@@ -19524,8 +19524,8 @@
       <c r="C793" s="2">
         <v>22.62</v>
       </c>
-      <c r="D793">
-        <v>1.338019E-9</v>
+      <c r="D793" s="1">
+        <v>4.8139330000000003E-9</v>
       </c>
       <c r="F793" s="9"/>
       <c r="G793" s="1">
@@ -19548,8 +19548,8 @@
       <c r="C794" s="2">
         <v>22.62</v>
       </c>
-      <c r="D794">
-        <v>1.340287E-9</v>
+      <c r="D794" s="1">
+        <v>5.0408059999999996E-9</v>
       </c>
       <c r="F794" s="9"/>
       <c r="G794" s="1">
@@ -19572,8 +19572,8 @@
       <c r="C795" s="2">
         <v>22.62</v>
       </c>
-      <c r="D795">
-        <v>1.3429549999999999E-9</v>
+      <c r="D795" s="1">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F795" s="9"/>
       <c r="G795" s="1">
@@ -19596,8 +19596,8 @@
       <c r="C796" s="2">
         <v>22.62</v>
       </c>
-      <c r="D796">
-        <v>1.345593E-9</v>
+      <c r="D796" s="1">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F796" s="9"/>
       <c r="G796" s="1">
@@ -19620,8 +19620,8 @@
       <c r="C797" s="2">
         <v>22.62</v>
       </c>
-      <c r="D797">
-        <v>1.3469580000000001E-9</v>
+      <c r="D797" s="1">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F797" s="9"/>
       <c r="G797" s="1">
@@ -19644,8 +19644,8 @@
       <c r="C798" s="2">
         <v>22.62</v>
       </c>
-      <c r="D798">
-        <v>1.347846E-9</v>
+      <c r="D798" s="1">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F798" s="9"/>
       <c r="G798" s="1">
@@ -19668,8 +19668,8 @@
       <c r="C799" s="2">
         <v>22.62</v>
       </c>
-      <c r="D799">
-        <v>1.34953E-9</v>
+      <c r="D799" s="1">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F799" s="9"/>
       <c r="G799" s="1">
@@ -19692,8 +19692,8 @@
       <c r="C800" s="2">
         <v>22.62</v>
       </c>
-      <c r="D800">
-        <v>1.351102E-9</v>
+      <c r="D800" s="1">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F800" s="9"/>
       <c r="G800" s="1">
@@ -19716,8 +19716,8 @@
       <c r="C801" s="2">
         <v>22.62</v>
       </c>
-      <c r="D801">
-        <v>1.3513830000000001E-9</v>
+      <c r="D801" s="1">
+        <v>5.9910090000000001E-9</v>
       </c>
       <c r="F801" s="9"/>
       <c r="G801" s="1">
@@ -19740,8 +19740,8 @@
       <c r="C802" s="2">
         <v>22.62</v>
       </c>
-      <c r="D802">
-        <v>1.3526909999999999E-9</v>
+      <c r="D802" s="1">
+        <v>4.8977879999999997E-9</v>
       </c>
       <c r="F802" s="9"/>
       <c r="G802" s="1">
@@ -19764,8 +19764,8 @@
       <c r="C803" s="2">
         <v>22.62</v>
       </c>
-      <c r="D803">
-        <v>1.354627E-9</v>
+      <c r="D803" s="1">
+        <v>5.8210319999999999E-9</v>
       </c>
       <c r="F803" s="9"/>
       <c r="G803" s="1">
@@ -19788,8 +19788,8 @@
       <c r="C804" s="2">
         <v>22.62</v>
       </c>
-      <c r="D804">
-        <v>1.3591580000000001E-9</v>
+      <c r="D804" s="1">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F804" s="9"/>
       <c r="G804" s="1">
@@ -19812,8 +19812,8 @@
       <c r="C805" s="2">
         <v>22.62</v>
       </c>
-      <c r="D805">
-        <v>1.361527E-9</v>
+      <c r="D805" s="1">
+        <v>6.0255959999999999E-9</v>
       </c>
       <c r="F805" s="9"/>
       <c r="G805" s="1">
@@ -19836,8 +19836,8 @@
       <c r="C806" s="2">
         <v>22.62</v>
       </c>
-      <c r="D806">
-        <v>1.3631919999999999E-9</v>
+      <c r="D806" s="1">
+        <v>4.9831050000000002E-9</v>
       </c>
       <c r="F806" s="9"/>
       <c r="G806" s="1">
@@ -19860,8 +19860,8 @@
       <c r="C807" s="2">
         <v>22.62</v>
       </c>
-      <c r="D807">
-        <v>1.364245E-9</v>
+      <c r="D807" s="1">
+        <v>5.6885290000000001E-9</v>
       </c>
       <c r="F807" s="9"/>
       <c r="G807" s="1">
@@ -19884,8 +19884,8 @@
       <c r="C808" s="2">
         <v>22.62</v>
       </c>
-      <c r="D808">
-        <v>1.3665639999999999E-9</v>
+      <c r="D808" s="1">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F808" s="9"/>
       <c r="G808" s="1">
@@ -19908,8 +19908,8 @@
       <c r="C809" s="2">
         <v>22.62</v>
       </c>
-      <c r="D809">
-        <v>1.3681720000000001E-9</v>
+      <c r="D809" s="1">
+        <v>5.6558780000000003E-9</v>
       </c>
       <c r="F809" s="9"/>
       <c r="G809" s="1">
@@ -19932,8 +19932,8 @@
       <c r="C810" s="2">
         <v>22.62</v>
       </c>
-      <c r="D810">
-        <v>1.371732E-9</v>
+      <c r="D810" s="1">
+        <v>5.1582220000000002E-9</v>
       </c>
       <c r="F810" s="9"/>
       <c r="G810" s="1">
@@ -19956,8 +19956,8 @@
       <c r="C811" s="2">
         <v>22.62</v>
       </c>
-      <c r="D811">
-        <v>1.3766419999999999E-9</v>
+      <c r="D811" s="1">
+        <v>5.6558780000000003E-9</v>
       </c>
       <c r="F811" s="9"/>
       <c r="G811" s="1">
@@ -19980,8 +19980,8 @@
       <c r="C812" s="2">
         <v>22.62</v>
       </c>
-      <c r="D812">
-        <v>1.3822359999999999E-9</v>
+      <c r="D812" s="1">
+        <v>5.1582220000000002E-9</v>
       </c>
       <c r="F812" s="9"/>
       <c r="G812" s="1">
@@ -20004,8 +20004,8 @@
       <c r="C813" s="2">
         <v>22.62</v>
       </c>
-      <c r="D813">
-        <v>1.3873939999999999E-9</v>
+      <c r="D813" s="1">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F813" s="9"/>
       <c r="G813" s="1">
@@ -20028,8 +20028,8 @@
       <c r="C814" s="2">
         <v>22.62</v>
       </c>
-      <c r="D814">
-        <v>1.3906160000000001E-9</v>
+      <c r="D814" s="1">
+        <v>5.0699070000000002E-9</v>
       </c>
       <c r="F814" s="9"/>
       <c r="G814" s="1">
@@ -20052,8 +20052,8 @@
       <c r="C815" s="2">
         <v>22.62</v>
       </c>
-      <c r="D815">
-        <v>1.392918E-9</v>
+      <c r="D815" s="1">
+        <v>6.7608299999999997E-9</v>
       </c>
       <c r="F815" s="9"/>
       <c r="G815" s="1">
@@ -20076,8 +20076,8 @@
       <c r="C816" s="2">
         <v>22.62</v>
       </c>
-      <c r="D816">
-        <v>1.396682E-9</v>
+      <c r="D816" s="1">
+        <v>5.4013209999999996E-9</v>
       </c>
       <c r="F816" s="9"/>
       <c r="G816" s="1">
@@ -20100,8 +20100,8 @@
       <c r="C817" s="2">
         <v>22.62</v>
       </c>
-      <c r="D817">
-        <v>1.4017729999999999E-9</v>
+      <c r="D817" s="1">
+        <v>6.5690110000000002E-9</v>
       </c>
       <c r="F817" s="9"/>
       <c r="G817" s="1">
@@ -20124,8 +20124,8 @@
       <c r="C818" s="2">
         <v>22.62</v>
       </c>
-      <c r="D818">
-        <v>1.4070289999999999E-9</v>
+      <c r="D818" s="1">
+        <v>5.2783719999999996E-9</v>
       </c>
       <c r="F818" s="9"/>
       <c r="G818" s="1">
@@ -20148,8 +20148,8 @@
       <c r="C819" s="2">
         <v>22.62</v>
       </c>
-      <c r="D819">
-        <v>1.411861E-9</v>
+      <c r="D819" s="1">
+        <v>5.7213700000000001E-9</v>
       </c>
       <c r="F819" s="9"/>
       <c r="G819" s="1">
@@ -20172,8 +20172,8 @@
       <c r="C820" s="2">
         <v>22.62</v>
       </c>
-      <c r="D820">
-        <v>1.4147000000000001E-9</v>
+      <c r="D820" s="1">
+        <v>5.4013209999999996E-9</v>
       </c>
       <c r="F820" s="9"/>
       <c r="G820" s="1">
@@ -20196,8 +20196,8 @@
       <c r="C821" s="2">
         <v>22.62</v>
       </c>
-      <c r="D821">
-        <v>1.417874E-9</v>
+      <c r="D821" s="1">
+        <v>6.4938160000000002E-9</v>
       </c>
       <c r="F821" s="9"/>
       <c r="G821" s="1">
@@ -20220,8 +20220,8 @@
       <c r="C822" s="2">
         <v>22.62</v>
       </c>
-      <c r="D822">
-        <v>1.4199540000000001E-9</v>
+      <c r="D822" s="1">
+        <v>5.248075E-9</v>
       </c>
       <c r="F822" s="9"/>
       <c r="G822" s="1">
@@ -20244,8 +20244,8 @@
       <c r="C823" s="2">
         <v>22.62</v>
       </c>
-      <c r="D823">
-        <v>1.4215979999999999E-9</v>
+      <c r="D823" s="1">
+        <v>6.237348E-9</v>
       </c>
       <c r="F823" s="9"/>
       <c r="G823" s="1">
@@ -20268,8 +20268,8 @@
       <c r="C824" s="2">
         <v>22.62</v>
       </c>
-      <c r="D824">
-        <v>1.424083E-9</v>
+      <c r="D824" s="1">
+        <v>4.4157040000000004E-9</v>
       </c>
       <c r="F824" s="9"/>
       <c r="G824" s="1">
@@ -20292,8 +20292,8 @@
       <c r="C825" s="2">
         <v>22.62</v>
       </c>
-      <c r="D825">
-        <v>1.4274579999999999E-9</v>
+      <c r="D825" s="1">
+        <v>5.6885290000000001E-9</v>
       </c>
       <c r="F825" s="9"/>
       <c r="G825" s="1">
@@ -20316,8 +20316,8 @@
       <c r="C826" s="2">
         <v>22.62</v>
       </c>
-      <c r="D826">
-        <v>1.4301229999999999E-9</v>
+      <c r="D826" s="1">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F826" s="9"/>
       <c r="G826" s="1">
@@ -20340,8 +20340,8 @@
       <c r="C827" s="2">
         <v>22.62</v>
       </c>
-      <c r="D827">
-        <v>1.434362E-9</v>
+      <c r="D827" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F827" s="9"/>
       <c r="G827" s="1">
@@ -20364,8 +20364,8 @@
       <c r="C828" s="2">
         <v>22.62</v>
       </c>
-      <c r="D828">
-        <v>1.437287E-9</v>
+      <c r="D828" s="1">
+        <v>4.3401030000000001E-9</v>
       </c>
       <c r="F828" s="9"/>
       <c r="G828" s="1">
@@ -20388,8 +20388,8 @@
       <c r="C829" s="2">
         <v>22.62</v>
       </c>
-      <c r="D829">
-        <v>1.4405329999999999E-9</v>
+      <c r="D829" s="1">
+        <v>5.248075E-9</v>
       </c>
       <c r="F829" s="9"/>
       <c r="G829" s="1">
@@ -20412,8 +20412,8 @@
       <c r="C830" s="2">
         <v>22.62</v>
       </c>
-      <c r="D830">
-        <v>1.4430149999999999E-9</v>
+      <c r="D830" s="1">
+        <v>5.9910090000000001E-9</v>
       </c>
       <c r="F830" s="9"/>
       <c r="G830" s="1">
@@ -20436,8 +20436,8 @@
       <c r="C831" s="2">
         <v>22.62</v>
       </c>
-      <c r="D831">
-        <v>1.4447560000000001E-9</v>
+      <c r="D831" s="1">
+        <v>5.3088439999999997E-9</v>
       </c>
       <c r="F831" s="9"/>
       <c r="G831" s="1">
@@ -20460,8 +20460,8 @@
       <c r="C832" s="2">
         <v>22.62</v>
       </c>
-      <c r="D832">
-        <v>1.44627E-9</v>
+      <c r="D832" s="1">
+        <v>6.1659500000000002E-9</v>
       </c>
       <c r="F832" s="9"/>
       <c r="G832" s="1">
@@ -20484,8 +20484,8 @@
       <c r="C833" s="2">
         <v>22.62</v>
       </c>
-      <c r="D833">
-        <v>1.4483410000000001E-9</v>
+      <c r="D833" s="1">
+        <v>5.0991759999999997E-9</v>
       </c>
       <c r="F833" s="9"/>
       <c r="G833" s="1">
@@ -20508,8 +20508,8 @@
       <c r="C834" s="2">
         <v>22.62</v>
       </c>
-      <c r="D834">
-        <v>1.4501560000000001E-9</v>
+      <c r="D834" s="1">
+        <v>5.956621E-9</v>
       </c>
       <c r="F834" s="9"/>
       <c r="G834" s="1">
@@ -20532,8 +20532,8 @@
       <c r="C835" s="2">
         <v>22.62</v>
       </c>
-      <c r="D835">
-        <v>1.450471E-9</v>
+      <c r="D835" s="1">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F835" s="9"/>
       <c r="G835" s="1">
@@ -20556,8 +20556,8 @@
       <c r="C836" s="2">
         <v>22.62</v>
       </c>
-      <c r="D836">
-        <v>1.4492680000000001E-9</v>
+      <c r="D836" s="1">
+        <v>5.4638650000000001E-9</v>
       </c>
       <c r="F836" s="9"/>
       <c r="G836" s="1">
@@ -20580,8 +20580,8 @@
       <c r="C837" s="2">
         <v>22.62</v>
       </c>
-      <c r="D837">
-        <v>1.44788E-9</v>
+      <c r="D837" s="1">
+        <v>5.1286140000000002E-9</v>
       </c>
       <c r="F837" s="9"/>
       <c r="G837" s="1">
@@ -20604,8 +20604,8 @@
       <c r="C838" s="2">
         <v>22.62</v>
       </c>
-      <c r="D838">
-        <v>1.4452699999999999E-9</v>
+      <c r="D838" s="1">
+        <v>6.6834390000000003E-9</v>
       </c>
       <c r="F838" s="9"/>
       <c r="G838" s="1">
@@ -20628,8 +20628,8 @@
       <c r="C839" s="2">
         <v>22.62</v>
       </c>
-      <c r="D839">
-        <v>1.4427789999999999E-9</v>
+      <c r="D839" s="1">
+        <v>5.0991759999999997E-9</v>
       </c>
       <c r="F839" s="9"/>
       <c r="G839" s="1">
@@ -20652,8 +20652,8 @@
       <c r="C840" s="2">
         <v>22.62</v>
       </c>
-      <c r="D840">
-        <v>1.4410869999999999E-9</v>
+      <c r="D840" s="1">
+        <v>5.8546370000000002E-9</v>
       </c>
       <c r="F840" s="9"/>
       <c r="G840" s="1">
@@ -20676,8 +20676,8 @@
       <c r="C841" s="2">
         <v>22.62</v>
       </c>
-      <c r="D841">
-        <v>1.439714E-9</v>
+      <c r="D841" s="1">
+        <v>4.4668360000000002E-9</v>
       </c>
       <c r="F841" s="9"/>
       <c r="G841" s="1">
@@ -20700,8 +20700,8 @@
       <c r="C842" s="2">
         <v>22.62</v>
       </c>
-      <c r="D842">
-        <v>1.437959E-9</v>
+      <c r="D842" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F842" s="9"/>
       <c r="G842" s="1">
@@ -20724,8 +20724,8 @@
       <c r="C843" s="2">
         <v>22.62</v>
       </c>
-      <c r="D843">
-        <v>1.4358849999999999E-9</v>
+      <c r="D843" s="1">
+        <v>5.3703179999999999E-9</v>
       </c>
       <c r="F843" s="9"/>
       <c r="G843" s="1">
@@ -20748,8 +20748,8 @@
       <c r="C844" s="2">
         <v>22.62</v>
       </c>
-      <c r="D844">
-        <v>1.4334339999999999E-9</v>
+      <c r="D844" s="1">
+        <v>5.4013209999999996E-9</v>
       </c>
       <c r="F844" s="9"/>
       <c r="G844" s="1">
@@ -20772,8 +20772,8 @@
       <c r="C845" s="2">
         <v>22.62</v>
       </c>
-      <c r="D845">
-        <v>1.42966E-9</v>
+      <c r="D845" s="1">
+        <v>5.2179510000000001E-9</v>
       </c>
       <c r="F845" s="9"/>
       <c r="G845" s="1">
@@ -20796,8 +20796,8 @@
       <c r="C846" s="2">
         <v>22.62</v>
       </c>
-      <c r="D846">
-        <v>1.4278789999999999E-9</v>
+      <c r="D846" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F846" s="9"/>
       <c r="G846" s="1">
@@ -20820,8 +20820,8 @@
       <c r="C847" s="2">
         <v>22.62</v>
       </c>
-      <c r="D847">
-        <v>1.427152E-9</v>
+      <c r="D847" s="1">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F847" s="9"/>
       <c r="G847" s="1">
@@ -20844,8 +20844,8 @@
       <c r="C848" s="2">
         <v>22.62</v>
       </c>
-      <c r="D848">
-        <v>1.427296E-9</v>
+      <c r="D848" s="1">
+        <v>5.6234130000000003E-9</v>
       </c>
       <c r="F848" s="9"/>
       <c r="G848" s="1">
@@ -20868,8 +20868,8 @@
       <c r="C849" s="2">
         <v>22.62</v>
       </c>
-      <c r="D849">
-        <v>1.4256880000000001E-9</v>
+      <c r="D849" s="1">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F849" s="9"/>
       <c r="G849" s="1">
@@ -20892,8 +20892,8 @@
       <c r="C850" s="2">
         <v>22.62</v>
       </c>
-      <c r="D850">
-        <v>1.423551E-9</v>
+      <c r="D850" s="1">
+        <v>5.7213700000000001E-9</v>
       </c>
       <c r="F850" s="9"/>
       <c r="G850" s="1">
@@ -20916,8 +20916,8 @@
       <c r="C851" s="2">
         <v>22.62</v>
       </c>
-      <c r="D851">
-        <v>1.4216920000000001E-9</v>
+      <c r="D851" s="1">
+        <v>4.3401030000000001E-9</v>
       </c>
       <c r="F851" s="9"/>
       <c r="G851" s="1">
@@ -20940,8 +20940,8 @@
       <c r="C852" s="2">
         <v>22.62</v>
       </c>
-      <c r="D852">
-        <v>1.4198159999999999E-9</v>
+      <c r="D852" s="1">
+        <v>5.3394929999999999E-9</v>
       </c>
       <c r="F852" s="9"/>
       <c r="G852" s="1">
@@ -20964,8 +20964,8 @@
       <c r="C853" s="2">
         <v>22.62</v>
       </c>
-      <c r="D853">
-        <v>1.417966E-9</v>
+      <c r="D853" s="1">
+        <v>5.0991759999999997E-9</v>
       </c>
       <c r="F853" s="9"/>
       <c r="G853" s="1">
@@ -20988,8 +20988,8 @@
       <c r="C854" s="2">
         <v>22.62</v>
       </c>
-      <c r="D854">
-        <v>1.4164360000000001E-9</v>
+      <c r="D854" s="1">
+        <v>5.4954090000000002E-9</v>
       </c>
       <c r="F854" s="9"/>
       <c r="G854" s="1">
@@ -21012,8 +21012,8 @@
       <c r="C855" s="2">
         <v>22.62</v>
       </c>
-      <c r="D855">
-        <v>1.4155330000000001E-9</v>
+      <c r="D855" s="1">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F855" s="9"/>
       <c r="G855" s="1">
@@ -21036,8 +21036,8 @@
       <c r="C856" s="2">
         <v>22.62</v>
       </c>
-      <c r="D856">
-        <v>1.414561E-9</v>
+      <c r="D856" s="1">
+        <v>5.2783719999999996E-9</v>
       </c>
       <c r="F856" s="9"/>
       <c r="G856" s="1">
@@ -21060,8 +21060,8 @@
       <c r="C857" s="2">
         <v>22.62</v>
       </c>
-      <c r="D857">
-        <v>1.4140220000000001E-9</v>
+      <c r="D857" s="1">
+        <v>5.1582220000000002E-9</v>
       </c>
       <c r="F857" s="9"/>
       <c r="G857" s="1">
@@ -21084,8 +21084,8 @@
       <c r="C858" s="2">
         <v>22.62</v>
       </c>
-      <c r="D858">
-        <v>1.4119260000000001E-9</v>
+      <c r="D858" s="1">
+        <v>5.956621E-9</v>
       </c>
       <c r="F858" s="9"/>
       <c r="G858" s="1">
@@ -21108,8 +21108,8 @@
       <c r="C859" s="2">
         <v>22.62</v>
       </c>
-      <c r="D859">
-        <v>1.411702E-9</v>
+      <c r="D859" s="1">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F859" s="9"/>
       <c r="G859" s="1">
@@ -21132,8 +21132,8 @@
       <c r="C860" s="2">
         <v>22.62</v>
       </c>
-      <c r="D860">
-        <v>1.41165E-9</v>
+      <c r="D860" s="1">
+        <v>5.7876199999999999E-9</v>
       </c>
       <c r="F860" s="9"/>
       <c r="G860" s="1">
@@ -21156,8 +21156,8 @@
       <c r="C861" s="2">
         <v>22.62</v>
       </c>
-      <c r="D861">
-        <v>1.4124399999999999E-9</v>
+      <c r="D861" s="1">
+        <v>4.7043539999999998E-9</v>
       </c>
       <c r="F861" s="9"/>
       <c r="G861" s="1">
@@ -21180,8 +21180,8 @@
       <c r="C862" s="2">
         <v>22.62</v>
       </c>
-      <c r="D862">
-        <v>1.411477E-9</v>
+      <c r="D862" s="1">
+        <v>5.7213700000000001E-9</v>
       </c>
       <c r="F862" s="9"/>
       <c r="G862" s="1">
@@ -21204,8 +21204,8 @@
       <c r="C863" s="2">
         <v>22.62</v>
       </c>
-      <c r="D863">
-        <v>1.4107039999999999E-9</v>
+      <c r="D863" s="1">
+        <v>4.5972699999999998E-9</v>
       </c>
       <c r="F863" s="9"/>
       <c r="G863" s="1">
@@ -21228,8 +21228,8 @@
       <c r="C864" s="2">
         <v>22.62</v>
       </c>
-      <c r="D864">
-        <v>1.410854E-9</v>
+      <c r="D864" s="1">
+        <v>5.4954090000000002E-9</v>
       </c>
       <c r="F864" s="9"/>
       <c r="G864" s="1">
@@ -21252,8 +21252,8 @@
       <c r="C865" s="2">
         <v>22.62</v>
       </c>
-      <c r="D865">
-        <v>1.4111989999999999E-9</v>
+      <c r="D865" s="1">
+        <v>5.3703179999999999E-9</v>
       </c>
       <c r="F865" s="9"/>
       <c r="G865" s="1">
@@ -21276,8 +21276,8 @@
       <c r="C866" s="2">
         <v>22.62</v>
       </c>
-      <c r="D866">
-        <v>1.4122380000000001E-9</v>
+      <c r="D866" s="1">
+        <v>5.4638650000000001E-9</v>
       </c>
       <c r="F866" s="9"/>
       <c r="G866" s="1">
@@ -21300,8 +21300,8 @@
       <c r="C867" s="2">
         <v>22.62</v>
       </c>
-      <c r="D867">
-        <v>1.413144E-9</v>
+      <c r="D867" s="1">
+        <v>5.0699070000000002E-9</v>
       </c>
       <c r="F867" s="9"/>
       <c r="G867" s="1">
@@ -21324,8 +21324,8 @@
       <c r="C868" s="2">
         <v>22.62</v>
       </c>
-      <c r="D868">
-        <v>1.4136750000000001E-9</v>
+      <c r="D868" s="1">
+        <v>5.4325030000000001E-9</v>
       </c>
       <c r="F868" s="9"/>
       <c r="G868" s="1">
@@ -21348,8 +21348,8 @@
       <c r="C869" s="6">
         <v>22.62</v>
       </c>
-      <c r="D869">
-        <v>1.4141070000000001E-9</v>
+      <c r="D869" s="1">
+        <v>5.1879999999999999E-9</v>
       </c>
       <c r="F869" s="9"/>
       <c r="G869" s="1">
